--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -390,10 +390,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -450,7 +450,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,22 +510,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -495,6 +532,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -503,36 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,10 +563,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,32 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,67 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +716,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -782,19 +752,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,49 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,9 +1170,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,6 +1184,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,6 +1218,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1212,6 +1238,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,41 +1265,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1273,10 +1273,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,133 +1285,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2030,11 +2030,11 @@
   <dimension ref="A1:EZ63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CG28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CG10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CS59" sqref="CS59"/>
+      <selection pane="bottomRight" activeCell="CJ36" sqref="CJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -3475,7 +3475,7 @@
       <c r="DU7" s="43"/>
       <c r="DV7" s="43"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="26.1" hidden="1" customHeight="1" spans="1:126">
+    <row r="8" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:126">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="14" t="s">
@@ -3615,7 +3615,7 @@
       <c r="DU8" s="43"/>
       <c r="DV8" s="43"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="32.1" hidden="1" customHeight="1" spans="1:126">
+    <row r="9" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:126">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
@@ -3755,7 +3755,7 @@
       <c r="DU9" s="43"/>
       <c r="DV9" s="43"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="10" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:126">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
@@ -6275,7 +6275,7 @@
       <c r="DU27" s="43"/>
       <c r="DV27" s="43"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="28" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A28" s="13"/>
       <c r="B28" s="5"/>
       <c r="C28" s="14" t="s">
@@ -6415,7 +6415,7 @@
       <c r="DU28" s="43"/>
       <c r="DV28" s="43"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="29" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A29" s="13"/>
       <c r="B29" s="5"/>
       <c r="C29" s="14" t="s">
@@ -6555,7 +6555,7 @@
       <c r="DU29" s="43"/>
       <c r="DV29" s="43"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="30" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A30" s="13"/>
       <c r="B30" s="5"/>
       <c r="C30" s="14" t="s">
@@ -6695,7 +6695,7 @@
       <c r="DU30" s="43"/>
       <c r="DV30" s="43"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="31" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A31" s="13"/>
       <c r="B31" s="5"/>
       <c r="C31" s="14" t="s">
@@ -6835,7 +6835,7 @@
       <c r="DU31" s="43"/>
       <c r="DV31" s="43"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="32" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="14" t="s">
@@ -6931,8 +6931,6 @@
       <c r="CC32" s="49"/>
       <c r="CD32" s="67"/>
       <c r="CH32" s="43"/>
-      <c r="CI32" s="1"/>
-      <c r="CJ32" s="1"/>
       <c r="CK32" s="60"/>
       <c r="CL32" s="43"/>
       <c r="CM32" s="43"/>
@@ -6972,7 +6970,7 @@
       <c r="DU32" s="43"/>
       <c r="DV32" s="43"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="33" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="14" t="s">
@@ -7069,8 +7067,6 @@
       <c r="CD33" s="67"/>
       <c r="CE33" s="68"/>
       <c r="CF33" s="68"/>
-      <c r="CG33" s="1"/>
-      <c r="CH33" s="1"/>
       <c r="CI33" s="66"/>
       <c r="CJ33" s="49"/>
       <c r="CK33" s="60"/>
@@ -7112,7 +7108,7 @@
       <c r="DU33" s="43"/>
       <c r="DV33" s="43"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="34" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A34" s="13"/>
       <c r="B34" s="5"/>
       <c r="C34" s="14" t="s">
@@ -7252,7 +7248,7 @@
       <c r="DU34" s="43"/>
       <c r="DV34" s="43"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="35" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
@@ -7392,7 +7388,7 @@
       <c r="DU35" s="43"/>
       <c r="DV35" s="43"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="36" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
@@ -7492,7 +7488,7 @@
       <c r="CG36" s="43"/>
       <c r="CH36" s="43"/>
       <c r="CI36" s="62"/>
-      <c r="CJ36" s="64"/>
+      <c r="CJ36" s="61"/>
       <c r="CK36" s="43"/>
       <c r="CL36" s="43"/>
       <c r="CM36" s="43"/>
@@ -9072,7 +9068,7 @@
       <c r="DU47" s="43"/>
       <c r="DV47" s="43"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="48" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A48" s="13"/>
       <c r="B48" s="5"/>
       <c r="C48" s="14" t="s">
@@ -9212,7 +9208,7 @@
       <c r="DU48" s="43"/>
       <c r="DV48" s="43"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="49" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A49" s="13"/>
       <c r="B49" s="5"/>
       <c r="C49" s="14" t="s">
@@ -9632,7 +9628,7 @@
       <c r="DU51" s="43"/>
       <c r="DV51" s="43"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="52" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A52" s="13"/>
       <c r="B52" s="5"/>
       <c r="C52" s="14" t="s">
@@ -10052,7 +10048,7 @@
       <c r="DU54" s="43"/>
       <c r="DV54" s="43"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="55" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="14" t="s">
@@ -10192,7 +10188,7 @@
       <c r="DU55" s="43"/>
       <c r="DV55" s="43"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="56" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A56" s="13"/>
       <c r="B56" s="5"/>
       <c r="C56" s="14" t="s">
@@ -10472,7 +10468,7 @@
       <c r="DU57" s="43"/>
       <c r="DV57" s="43"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="58" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A58" s="13"/>
       <c r="B58" s="5"/>
       <c r="C58" s="14" t="s">
@@ -10572,7 +10568,7 @@
       <c r="CG58" s="43"/>
       <c r="CH58" s="43"/>
       <c r="CI58" s="62"/>
-      <c r="CJ58" s="64"/>
+      <c r="CJ58" s="61"/>
       <c r="CK58" s="59"/>
       <c r="CL58" s="43"/>
       <c r="CM58" s="43"/>
@@ -10612,7 +10608,7 @@
       <c r="DU58" s="43"/>
       <c r="DV58" s="43"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="59" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A59" s="13"/>
       <c r="B59" s="5"/>
       <c r="C59" s="14" t="s">
@@ -11314,14 +11310,9 @@
     </row>
   </sheetData>
   <autoFilter ref="C3:AD63">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="2测"/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="24">
       <customFilters>
-        <customFilter operator="equal" val="华珊"/>
+        <customFilter operator="equal" val="秦孟飞"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -10,14 +10,14 @@
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$64</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>《暴走乐器》研发进度规划及版本计划</t>
   </si>
@@ -304,7 +304,7 @@
     <t>完成登录注册接口</t>
   </si>
   <si>
-    <t>完成“课程”界面接口</t>
+    <t>完成“课程”界面轮播图接口</t>
   </si>
   <si>
     <t>完成 “课程详情”界面接口</t>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>乐器</t>
+  </si>
+  <si>
+    <t>完成“课程”界面除轮播图以外接口</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -456,16 +459,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,9 +496,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,13 +555,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,37 +576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,17 +589,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +695,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,139 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,6 +816,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,6 +1182,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1188,16 +1206,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1218,26 +1245,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,21 +1268,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1273,145 +1276,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2027,14 +2030,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ63"/>
+  <dimension ref="A1:EZ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CG10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CH37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CJ36" sqref="CJ36"/>
+      <selection pane="bottomRight" activeCell="CN46" sqref="CN46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -3475,7 +3478,7 @@
       <c r="DU7" s="43"/>
       <c r="DV7" s="43"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:126">
+    <row r="8" s="1" customFormat="1" ht="26.1" hidden="1" customHeight="1" spans="1:126">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="14" t="s">
@@ -3615,7 +3618,7 @@
       <c r="DU8" s="43"/>
       <c r="DV8" s="43"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:126">
+    <row r="9" s="1" customFormat="1" ht="32.1" hidden="1" customHeight="1" spans="1:126">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
@@ -3755,7 +3758,7 @@
       <c r="DU9" s="43"/>
       <c r="DV9" s="43"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:126">
+    <row r="10" s="1" customFormat="1" ht="33.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
@@ -6835,7 +6838,7 @@
       <c r="DU31" s="43"/>
       <c r="DV31" s="43"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="32" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="14" t="s">
@@ -6970,7 +6973,7 @@
       <c r="DU32" s="43"/>
       <c r="DV32" s="43"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="33" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="14" t="s">
@@ -7108,7 +7111,7 @@
       <c r="DU33" s="43"/>
       <c r="DV33" s="43"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="34" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A34" s="13"/>
       <c r="B34" s="5"/>
       <c r="C34" s="14" t="s">
@@ -7248,7 +7251,7 @@
       <c r="DU34" s="43"/>
       <c r="DV34" s="43"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="35" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
@@ -7388,7 +7391,7 @@
       <c r="DU35" s="43"/>
       <c r="DV35" s="43"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="36" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
@@ -7488,8 +7491,8 @@
       <c r="CG36" s="43"/>
       <c r="CH36" s="43"/>
       <c r="CI36" s="62"/>
-      <c r="CJ36" s="61"/>
-      <c r="CK36" s="43"/>
+      <c r="CJ36" s="64"/>
+      <c r="CK36" s="61"/>
       <c r="CL36" s="43"/>
       <c r="CM36" s="43"/>
       <c r="CN36" s="43"/>
@@ -7528,7 +7531,7 @@
       <c r="DU36" s="43"/>
       <c r="DV36" s="43"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="37" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A37" s="13"/>
       <c r="B37" s="5"/>
       <c r="C37" s="14" t="s">
@@ -7629,7 +7632,7 @@
       <c r="CH37" s="43"/>
       <c r="CI37" s="69"/>
       <c r="CJ37" s="64"/>
-      <c r="CK37" s="60"/>
+      <c r="CK37" s="49"/>
       <c r="CL37" s="43"/>
       <c r="CM37" s="43"/>
       <c r="CN37" s="43"/>
@@ -7668,7 +7671,7 @@
       <c r="DU37" s="43"/>
       <c r="DV37" s="43"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="38" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A38" s="13"/>
       <c r="B38" s="5"/>
       <c r="C38" s="14" t="s">
@@ -7768,11 +7771,11 @@
       <c r="CG38" s="43"/>
       <c r="CH38" s="43"/>
       <c r="CI38" s="43"/>
-      <c r="CJ38" s="49"/>
-      <c r="CK38" s="69"/>
-      <c r="CL38" s="64"/>
-      <c r="CM38" s="43"/>
-      <c r="CN38" s="43"/>
+      <c r="CJ38" s="43"/>
+      <c r="CK38" s="49"/>
+      <c r="CL38" s="43"/>
+      <c r="CM38" s="69"/>
+      <c r="CN38" s="64"/>
       <c r="CO38" s="43"/>
       <c r="CP38" s="43"/>
       <c r="CQ38" s="49"/>
@@ -7808,7 +7811,7 @@
       <c r="DU38" s="43"/>
       <c r="DV38" s="43"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="39" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A39" s="13"/>
       <c r="B39" s="5"/>
       <c r="C39" s="14" t="s">
@@ -7909,14 +7912,14 @@
       <c r="CH39" s="43"/>
       <c r="CI39" s="43"/>
       <c r="CJ39" s="43"/>
-      <c r="CK39" s="60"/>
+      <c r="CK39" s="43"/>
       <c r="CL39" s="43"/>
       <c r="CM39" s="43"/>
       <c r="CN39" s="43"/>
       <c r="CO39" s="43"/>
-      <c r="CP39" s="64"/>
+      <c r="CP39" s="43"/>
       <c r="CQ39" s="49"/>
-      <c r="CR39" s="60"/>
+      <c r="CR39" s="64"/>
       <c r="CS39" s="49"/>
       <c r="CT39" s="49"/>
       <c r="CU39" s="49"/>
@@ -8788,7 +8791,7 @@
       <c r="DU45" s="43"/>
       <c r="DV45" s="43"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="46" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A46" s="13"/>
       <c r="B46" s="5"/>
       <c r="C46" s="14" t="s">
@@ -8891,11 +8894,11 @@
       <c r="CJ46" s="43"/>
       <c r="CK46" s="43"/>
       <c r="CL46" s="43"/>
-      <c r="CM46" s="69"/>
-      <c r="CN46" s="69"/>
-      <c r="CO46" s="64"/>
-      <c r="CP46" s="43"/>
-      <c r="CQ46" s="49"/>
+      <c r="CM46" s="43"/>
+      <c r="CN46" s="43"/>
+      <c r="CO46" s="69"/>
+      <c r="CP46" s="69"/>
+      <c r="CQ46" s="64"/>
       <c r="CR46" s="60"/>
       <c r="CS46" s="49"/>
       <c r="CT46" s="49"/>
@@ -8928,7 +8931,7 @@
       <c r="DU46" s="43"/>
       <c r="DV46" s="43"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="47" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A47" s="13"/>
       <c r="B47" s="5"/>
       <c r="C47" s="14" t="s">
@@ -9035,10 +9038,10 @@
       <c r="CN47" s="43"/>
       <c r="CO47" s="43"/>
       <c r="CP47" s="43"/>
-      <c r="CQ47" s="64"/>
+      <c r="CQ47" s="43"/>
       <c r="CR47" s="60"/>
-      <c r="CS47" s="49"/>
-      <c r="CT47" s="49"/>
+      <c r="CS47" s="60"/>
+      <c r="CT47" s="64"/>
       <c r="CU47" s="49"/>
       <c r="CV47" s="43"/>
       <c r="CW47" s="43"/>
@@ -9068,7 +9071,7 @@
       <c r="DU47" s="43"/>
       <c r="DV47" s="43"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="48" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A48" s="13"/>
       <c r="B48" s="5"/>
       <c r="C48" s="14" t="s">
@@ -9208,7 +9211,7 @@
       <c r="DU48" s="43"/>
       <c r="DV48" s="43"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="49" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A49" s="13"/>
       <c r="B49" s="5"/>
       <c r="C49" s="14" t="s">
@@ -9628,7 +9631,7 @@
       <c r="DU51" s="43"/>
       <c r="DV51" s="43"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="52" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A52" s="13"/>
       <c r="B52" s="5"/>
       <c r="C52" s="14" t="s">
@@ -10048,7 +10051,7 @@
       <c r="DU54" s="43"/>
       <c r="DV54" s="43"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="55" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="14" t="s">
@@ -10188,7 +10191,7 @@
       <c r="DU55" s="43"/>
       <c r="DV55" s="43"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="56" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A56" s="13"/>
       <c r="B56" s="5"/>
       <c r="C56" s="14" t="s">
@@ -10328,7 +10331,7 @@
       <c r="DU56" s="43"/>
       <c r="DV56" s="43"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A57" s="13"/>
       <c r="B57" s="5"/>
       <c r="C57" s="14" t="s">
@@ -10436,8 +10439,8 @@
       <c r="CO57" s="43"/>
       <c r="CP57" s="43"/>
       <c r="CQ57" s="49"/>
-      <c r="CR57" s="64"/>
-      <c r="CS57" s="49"/>
+      <c r="CR57" s="49"/>
+      <c r="CS57" s="64"/>
       <c r="CT57" s="49"/>
       <c r="CU57" s="49"/>
       <c r="CV57" s="43"/>
@@ -11308,15 +11311,160 @@
       <c r="DU63" s="43"/>
       <c r="DV63" s="43"/>
     </row>
+    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+      <c r="A64" s="13"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="19">
+        <v>1</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB64" s="40"/>
+      <c r="AC64" s="40"/>
+      <c r="AD64" s="41"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="43"/>
+      <c r="AM64" s="43"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="43"/>
+      <c r="AQ64" s="49"/>
+      <c r="AR64" s="49"/>
+      <c r="AS64" s="43"/>
+      <c r="AT64" s="43"/>
+      <c r="AU64" s="43"/>
+      <c r="AV64" s="43"/>
+      <c r="AW64" s="43"/>
+      <c r="AX64" s="49"/>
+      <c r="AY64" s="49"/>
+      <c r="AZ64" s="43"/>
+      <c r="BA64" s="43"/>
+      <c r="BB64" s="43"/>
+      <c r="BC64" s="43"/>
+      <c r="BD64" s="43"/>
+      <c r="BE64" s="49"/>
+      <c r="BF64" s="49"/>
+      <c r="BG64" s="43"/>
+      <c r="BH64" s="54"/>
+      <c r="BI64" s="43"/>
+      <c r="BJ64" s="43"/>
+      <c r="BK64" s="43"/>
+      <c r="BL64" s="49"/>
+      <c r="BM64" s="49"/>
+      <c r="BN64" s="43"/>
+      <c r="BO64" s="60"/>
+      <c r="BP64" s="49"/>
+      <c r="BQ64" s="43"/>
+      <c r="BR64" s="43"/>
+      <c r="BS64" s="43"/>
+      <c r="BT64" s="43"/>
+      <c r="BU64" s="43"/>
+      <c r="BV64" s="49"/>
+      <c r="BW64" s="60"/>
+      <c r="BX64" s="43"/>
+      <c r="BY64" s="43"/>
+      <c r="BZ64" s="43"/>
+      <c r="CA64" s="43"/>
+      <c r="CB64" s="43"/>
+      <c r="CC64" s="49"/>
+      <c r="CD64" s="60"/>
+      <c r="CE64" s="43"/>
+      <c r="CF64" s="43"/>
+      <c r="CG64" s="43"/>
+      <c r="CH64" s="43"/>
+      <c r="CI64" s="43"/>
+      <c r="CJ64" s="43"/>
+      <c r="CK64" s="43"/>
+      <c r="CL64" s="64"/>
+      <c r="CM64" s="43"/>
+      <c r="CN64" s="43"/>
+      <c r="CO64" s="43"/>
+      <c r="CP64" s="43"/>
+      <c r="CQ64" s="49"/>
+      <c r="CR64" s="60"/>
+      <c r="CS64" s="49"/>
+      <c r="CT64" s="49"/>
+      <c r="CU64" s="49"/>
+      <c r="CV64" s="43"/>
+      <c r="CW64" s="43"/>
+      <c r="CX64" s="49"/>
+      <c r="CY64" s="60"/>
+      <c r="CZ64" s="43"/>
+      <c r="DA64" s="43"/>
+      <c r="DB64" s="43"/>
+      <c r="DC64" s="43"/>
+      <c r="DD64" s="43"/>
+      <c r="DE64" s="49"/>
+      <c r="DF64" s="60"/>
+      <c r="DG64" s="43"/>
+      <c r="DH64" s="43"/>
+      <c r="DI64" s="43"/>
+      <c r="DJ64" s="43"/>
+      <c r="DK64" s="43"/>
+      <c r="DL64" s="49"/>
+      <c r="DM64" s="60"/>
+      <c r="DN64" s="43"/>
+      <c r="DO64" s="43"/>
+      <c r="DP64" s="43"/>
+      <c r="DQ64" s="43"/>
+      <c r="DR64" s="43"/>
+      <c r="DS64" s="49"/>
+      <c r="DT64" s="60"/>
+      <c r="DU64" s="43"/>
+      <c r="DV64" s="43"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C3:AD63">
+  <autoFilter ref="C3:AD64">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="equal" val="2测"/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="24">
       <customFilters>
-        <customFilter operator="equal" val="秦孟飞"/>
+        <customFilter operator="equal" val="温清洁"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="331">
+  <mergeCells count="336">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AT1:BM1"/>
@@ -11647,6 +11795,11 @@
     <mergeCell ref="J63:W63"/>
     <mergeCell ref="X63:Z63"/>
     <mergeCell ref="AA63:AD63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="J64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="AA64:AD64"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="X2">

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="7950" tabRatio="500"/>
+    <workbookView windowWidth="19380" windowHeight="7950" tabRatio="564"/>
   </bookViews>
   <sheets>
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$69</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>《暴走乐器》研发进度规划及版本计划</t>
   </si>
@@ -337,10 +337,10 @@
     <t>“完成订单”支付接口</t>
   </si>
   <si>
-    <t>完成微信第三方支付</t>
-  </si>
-  <si>
-    <t>“确认订单”，订单详情接口</t>
+    <t>完成短信第三方获取验证码</t>
+  </si>
+  <si>
+    <t>“确认订单”接口</t>
   </si>
   <si>
     <t>所有页面的连接检测</t>
@@ -355,13 +355,13 @@
     <t>添加完成完成“个人资料”页面</t>
   </si>
   <si>
-    <t>完成“预约订单接口”</t>
-  </si>
-  <si>
-    <t>完成乐器界面接口</t>
-  </si>
-  <si>
-    <t>乐器分类接口</t>
+    <t>改变统一地址，修复</t>
+  </si>
+  <si>
+    <t>完成乐器界面轮播图接口</t>
+  </si>
+  <si>
+    <t>完成乐器界面乐器详情接口，内部数据存储</t>
   </si>
   <si>
     <t>“搜索界面”接口</t>
@@ -373,7 +373,7 @@
     <t>完成“系统消息”接口</t>
   </si>
   <si>
-    <t>完成“交易记录”接口</t>
+    <t>tablayout，bug修复</t>
   </si>
   <si>
     <t>系统消息</t>
@@ -386,6 +386,21 @@
   </si>
   <si>
     <t>完成“课程”界面除轮播图以外接口</t>
+  </si>
+  <si>
+    <t>完成“发布反馈”接口</t>
+  </si>
+  <si>
+    <t>完成“学员反馈”接口</t>
+  </si>
+  <si>
+    <t>完成乐器界面除了以上列出的其他接口</t>
+  </si>
+  <si>
+    <t>完成订单详情接口</t>
+  </si>
+  <si>
+    <t>微信支付第三方</t>
   </si>
 </sst>
 </file>
@@ -393,9 +408,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -459,16 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +497,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -497,7 +527,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,6 +569,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,67 +597,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -695,25 +710,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,85 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +776,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +818,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,11 +1188,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,24 +1245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1230,17 +1260,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,15 +1283,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1276,10 +1291,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,133 +1303,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2029,15 +2044,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ64"/>
+  <sheetPr/>
+  <dimension ref="A1:EZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CH37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CH61" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN46" sqref="CN46"/>
+      <selection pane="bottomRight" activeCell="J63" sqref="J63:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -2067,7 +2082,7 @@
     <col min="25" max="25" width="2.5" customWidth="1"/>
     <col min="26" max="26" width="1.61666666666667" hidden="1" customWidth="1"/>
     <col min="27" max="29" width="2.83333333333333" customWidth="1"/>
-    <col min="30" max="30" width="3.16666666666667" customWidth="1"/>
+    <col min="30" max="30" width="2.35" customWidth="1"/>
     <col min="31" max="31" width="10.1416666666667" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="7.20833333333333" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="8.81666666666667" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2918,7 +2933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
+    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14" t="s">
@@ -3058,7 +3073,7 @@
       <c r="DU4" s="43"/>
       <c r="DV4" s="43"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
+    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
       <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14" t="s">
@@ -3198,7 +3213,7 @@
       <c r="DU5" s="43"/>
       <c r="DV5" s="43"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
+    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
@@ -3338,7 +3353,7 @@
       <c r="DU6" s="43"/>
       <c r="DV6" s="43"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
+    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="14" t="s">
@@ -3478,7 +3493,7 @@
       <c r="DU7" s="43"/>
       <c r="DV7" s="43"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="26.1" hidden="1" customHeight="1" spans="1:126">
+    <row r="8" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:126">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="14" t="s">
@@ -3618,7 +3633,7 @@
       <c r="DU8" s="43"/>
       <c r="DV8" s="43"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="32.1" hidden="1" customHeight="1" spans="1:126">
+    <row r="9" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:126">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
@@ -3758,7 +3773,7 @@
       <c r="DU9" s="43"/>
       <c r="DV9" s="43"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="10" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:126">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
@@ -3898,7 +3913,7 @@
       <c r="DU10" s="43"/>
       <c r="DV10" s="43"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="11" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:126">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
@@ -4038,7 +4053,7 @@
       <c r="DU11" s="43"/>
       <c r="DV11" s="43"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="12" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
@@ -4178,7 +4193,7 @@
       <c r="DU12" s="43"/>
       <c r="DV12" s="43"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="13" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="14" t="s">
@@ -4318,7 +4333,7 @@
       <c r="DU13" s="43"/>
       <c r="DV13" s="43"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="14" t="s">
@@ -4458,7 +4473,7 @@
       <c r="DU14" s="43"/>
       <c r="DV14" s="43"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="14" t="s">
@@ -4598,7 +4613,7 @@
       <c r="DU15" s="43"/>
       <c r="DV15" s="43"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="14" t="s">
@@ -4738,7 +4753,7 @@
       <c r="DU16" s="43"/>
       <c r="DV16" s="43"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
@@ -4878,7 +4893,7 @@
       <c r="DU17" s="43"/>
       <c r="DV17" s="43"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
@@ -5018,7 +5033,7 @@
       <c r="DU18" s="43"/>
       <c r="DV18" s="43"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
@@ -5158,7 +5173,7 @@
       <c r="DU19" s="43"/>
       <c r="DV19" s="43"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
@@ -5298,7 +5313,7 @@
       <c r="DU20" s="43"/>
       <c r="DV20" s="43"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A21" s="13"/>
       <c r="B21" s="5"/>
       <c r="C21" s="14" t="s">
@@ -5438,7 +5453,7 @@
       <c r="DU21" s="43"/>
       <c r="DV21" s="43"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A22" s="13"/>
       <c r="B22" s="5"/>
       <c r="C22" s="14" t="s">
@@ -5578,7 +5593,7 @@
       <c r="DU22" s="43"/>
       <c r="DV22" s="43"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A23" s="13"/>
       <c r="B23" s="5"/>
       <c r="C23" s="14" t="s">
@@ -5718,7 +5733,7 @@
       <c r="DU23" s="43"/>
       <c r="DV23" s="43"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A24" s="13"/>
       <c r="B24" s="5"/>
       <c r="C24" s="14" t="s">
@@ -5858,7 +5873,7 @@
       <c r="DU24" s="43"/>
       <c r="DV24" s="43"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A25" s="13"/>
       <c r="B25" s="5"/>
       <c r="C25" s="14" t="s">
@@ -5998,7 +6013,7 @@
       <c r="DU25" s="43"/>
       <c r="DV25" s="43"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="14" t="s">
@@ -6138,7 +6153,7 @@
       <c r="DU26" s="43"/>
       <c r="DV26" s="43"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="14" t="s">
@@ -6278,7 +6293,7 @@
       <c r="DU27" s="43"/>
       <c r="DV27" s="43"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A28" s="13"/>
       <c r="B28" s="5"/>
       <c r="C28" s="14" t="s">
@@ -6418,7 +6433,7 @@
       <c r="DU28" s="43"/>
       <c r="DV28" s="43"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A29" s="13"/>
       <c r="B29" s="5"/>
       <c r="C29" s="14" t="s">
@@ -6558,7 +6573,7 @@
       <c r="DU29" s="43"/>
       <c r="DV29" s="43"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A30" s="13"/>
       <c r="B30" s="5"/>
       <c r="C30" s="14" t="s">
@@ -6698,7 +6713,7 @@
       <c r="DU30" s="43"/>
       <c r="DV30" s="43"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A31" s="13"/>
       <c r="B31" s="5"/>
       <c r="C31" s="14" t="s">
@@ -6838,7 +6853,7 @@
       <c r="DU31" s="43"/>
       <c r="DV31" s="43"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="32" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="14" t="s">
@@ -6940,10 +6955,10 @@
       <c r="CN32" s="43"/>
       <c r="CO32" s="43"/>
       <c r="CP32" s="43"/>
-      <c r="CQ32" s="70"/>
+      <c r="CQ32" s="43"/>
       <c r="CR32" s="60"/>
-      <c r="CS32" s="49"/>
-      <c r="CT32" s="49"/>
+      <c r="CS32" s="62"/>
+      <c r="CT32" s="70"/>
       <c r="CU32" s="49"/>
       <c r="CV32" s="43"/>
       <c r="CW32" s="43"/>
@@ -6973,7 +6988,7 @@
       <c r="DU32" s="43"/>
       <c r="DV32" s="43"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="33" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="14" t="s">
@@ -7111,7 +7126,7 @@
       <c r="DU33" s="43"/>
       <c r="DV33" s="43"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="34" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A34" s="13"/>
       <c r="B34" s="5"/>
       <c r="C34" s="14" t="s">
@@ -7251,7 +7266,7 @@
       <c r="DU34" s="43"/>
       <c r="DV34" s="43"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="35" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
@@ -7354,11 +7369,11 @@
       <c r="CJ35" s="43"/>
       <c r="CK35" s="60"/>
       <c r="CL35" s="43"/>
-      <c r="CM35" s="64"/>
+      <c r="CM35" s="43"/>
       <c r="CN35" s="43"/>
       <c r="CO35" s="43"/>
       <c r="CP35" s="43"/>
-      <c r="CQ35" s="49"/>
+      <c r="CQ35" s="70"/>
       <c r="CR35" s="60"/>
       <c r="CS35" s="49"/>
       <c r="CT35" s="49"/>
@@ -7391,7 +7406,7 @@
       <c r="DU35" s="43"/>
       <c r="DV35" s="43"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="36" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
@@ -7633,8 +7648,8 @@
       <c r="CI37" s="69"/>
       <c r="CJ37" s="64"/>
       <c r="CK37" s="49"/>
-      <c r="CL37" s="43"/>
-      <c r="CM37" s="43"/>
+      <c r="CL37" s="65"/>
+      <c r="CM37" s="61"/>
       <c r="CN37" s="43"/>
       <c r="CO37" s="43"/>
       <c r="CP37" s="43"/>
@@ -7951,7 +7966,7 @@
       <c r="DU39" s="43"/>
       <c r="DV39" s="43"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A40" s="13"/>
       <c r="B40" s="5"/>
       <c r="C40" s="14" t="s">
@@ -8053,8 +8068,8 @@
       <c r="CI40" s="43"/>
       <c r="CJ40" s="43"/>
       <c r="CK40" s="48"/>
-      <c r="CL40" s="64"/>
-      <c r="CM40" s="43"/>
+      <c r="CL40" s="43"/>
+      <c r="CM40" s="64"/>
       <c r="CN40" s="43"/>
       <c r="CO40" s="43"/>
       <c r="CP40" s="43"/>
@@ -8091,7 +8106,7 @@
       <c r="DU40" s="43"/>
       <c r="DV40" s="43"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="41" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A41" s="13"/>
       <c r="B41" s="5"/>
       <c r="C41" s="14" t="s">
@@ -8192,8 +8207,8 @@
       <c r="CH41" s="43"/>
       <c r="CI41" s="43"/>
       <c r="CJ41" s="62"/>
-      <c r="CK41" s="64"/>
-      <c r="CL41" s="43"/>
+      <c r="CK41" s="48"/>
+      <c r="CL41" s="64"/>
       <c r="CM41" s="43"/>
       <c r="CN41" s="43"/>
       <c r="CO41" s="43"/>
@@ -8231,7 +8246,7 @@
       <c r="DU41" s="43"/>
       <c r="DV41" s="43"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="42" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A42" s="13"/>
       <c r="B42" s="5"/>
       <c r="C42" s="14" t="s">
@@ -8332,7 +8347,7 @@
       <c r="CH42" s="43"/>
       <c r="CI42" s="62"/>
       <c r="CJ42" s="64"/>
-      <c r="CK42" s="43"/>
+      <c r="CK42" s="48"/>
       <c r="CL42" s="43"/>
       <c r="CM42" s="43"/>
       <c r="CN42" s="43"/>
@@ -8371,7 +8386,7 @@
       <c r="DU42" s="43"/>
       <c r="DV42" s="43"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="43" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A43" s="13"/>
       <c r="B43" s="5"/>
       <c r="C43" s="14" t="s">
@@ -8511,7 +8526,7 @@
       <c r="DU43" s="43"/>
       <c r="DV43" s="43"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="44" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A44" s="13"/>
       <c r="B44" s="5"/>
       <c r="C44" s="14" t="s">
@@ -8651,7 +8666,7 @@
       <c r="DU44" s="43"/>
       <c r="DV44" s="43"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="45" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A45" s="13"/>
       <c r="B45" s="5"/>
       <c r="C45" s="14" t="s">
@@ -8754,10 +8769,10 @@
       <c r="CJ45" s="43"/>
       <c r="CK45" s="43"/>
       <c r="CL45" s="43"/>
-      <c r="CM45" s="62"/>
+      <c r="CM45" s="43"/>
       <c r="CN45" s="62"/>
-      <c r="CO45" s="64"/>
-      <c r="CP45" s="43"/>
+      <c r="CO45" s="62"/>
+      <c r="CP45" s="64"/>
       <c r="CQ45" s="48"/>
       <c r="CR45" s="59"/>
       <c r="CS45" s="48"/>
@@ -9071,7 +9086,7 @@
       <c r="DU47" s="43"/>
       <c r="DV47" s="43"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="48" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A48" s="13"/>
       <c r="B48" s="5"/>
       <c r="C48" s="14" t="s">
@@ -9172,12 +9187,12 @@
       <c r="CH48" s="43"/>
       <c r="CI48" s="43"/>
       <c r="CJ48" s="43"/>
-      <c r="CK48" s="66"/>
-      <c r="CL48" s="43"/>
-      <c r="CM48" s="43"/>
-      <c r="CN48" s="62"/>
-      <c r="CO48" s="62"/>
-      <c r="CP48" s="64"/>
+      <c r="CK48" s="60"/>
+      <c r="CL48" s="62"/>
+      <c r="CM48" s="61"/>
+      <c r="CN48" s="43"/>
+      <c r="CO48" s="43"/>
+      <c r="CP48" s="43"/>
       <c r="CQ48" s="49"/>
       <c r="CR48" s="60"/>
       <c r="CS48" s="49"/>
@@ -9211,7 +9226,7 @@
       <c r="DU48" s="43"/>
       <c r="DV48" s="43"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="49" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A49" s="13"/>
       <c r="B49" s="5"/>
       <c r="C49" s="14" t="s">
@@ -9312,7 +9327,7 @@
       <c r="CH49" s="43"/>
       <c r="CI49" s="43"/>
       <c r="CJ49" s="43"/>
-      <c r="CK49" s="66"/>
+      <c r="CK49" s="60"/>
       <c r="CL49" s="43"/>
       <c r="CM49" s="43"/>
       <c r="CN49" s="43"/>
@@ -9320,10 +9335,10 @@
       <c r="CP49" s="43"/>
       <c r="CQ49" s="49"/>
       <c r="CR49" s="49"/>
-      <c r="CS49" s="64"/>
+      <c r="CS49" s="49"/>
       <c r="CT49" s="49"/>
       <c r="CU49" s="49"/>
-      <c r="CV49" s="43"/>
+      <c r="CV49" s="64"/>
       <c r="CW49" s="43"/>
       <c r="CX49" s="49"/>
       <c r="CY49" s="60"/>
@@ -9351,7 +9366,7 @@
       <c r="DU49" s="43"/>
       <c r="DV49" s="43"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="50" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A50" s="13"/>
       <c r="B50" s="5"/>
       <c r="C50" s="14" t="s">
@@ -9491,7 +9506,7 @@
       <c r="DU50" s="43"/>
       <c r="DV50" s="43"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="51" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A51" s="13"/>
       <c r="B51" s="5"/>
       <c r="C51" s="14" t="s">
@@ -9631,7 +9646,7 @@
       <c r="DU51" s="43"/>
       <c r="DV51" s="43"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="52" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A52" s="13"/>
       <c r="B52" s="5"/>
       <c r="C52" s="14" t="s">
@@ -9771,7 +9786,7 @@
       <c r="DU52" s="43"/>
       <c r="DV52" s="43"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="53" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A53" s="13"/>
       <c r="B53" s="5"/>
       <c r="C53" s="14" t="s">
@@ -9911,7 +9926,7 @@
       <c r="DU53" s="43"/>
       <c r="DV53" s="43"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="54" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A54" s="13"/>
       <c r="B54" s="5"/>
       <c r="C54" s="14" t="s">
@@ -10014,10 +10029,10 @@
       <c r="CJ54" s="43"/>
       <c r="CK54" s="43"/>
       <c r="CL54" s="43"/>
-      <c r="CM54" s="43"/>
+      <c r="CM54" s="62"/>
       <c r="CN54" s="43"/>
       <c r="CO54" s="43"/>
-      <c r="CP54" s="64"/>
+      <c r="CP54" s="43"/>
       <c r="CQ54" s="48"/>
       <c r="CR54" s="59"/>
       <c r="CS54" s="48"/>
@@ -10051,7 +10066,7 @@
       <c r="DU54" s="43"/>
       <c r="DV54" s="43"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="55" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="14" t="s">
@@ -10152,10 +10167,10 @@
       <c r="CH55" s="43"/>
       <c r="CI55" s="43"/>
       <c r="CJ55" s="43"/>
-      <c r="CK55" s="62"/>
-      <c r="CL55" s="64"/>
-      <c r="CM55" s="43"/>
-      <c r="CN55" s="43"/>
+      <c r="CK55" s="60"/>
+      <c r="CL55" s="43"/>
+      <c r="CM55" s="62"/>
+      <c r="CN55" s="64"/>
       <c r="CO55" s="43"/>
       <c r="CP55" s="43"/>
       <c r="CQ55" s="49"/>
@@ -10191,7 +10206,7 @@
       <c r="DU55" s="43"/>
       <c r="DV55" s="43"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="56" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
       <c r="A56" s="13"/>
       <c r="B56" s="5"/>
       <c r="C56" s="14" t="s">
@@ -10291,17 +10306,16 @@
       <c r="CG56" s="68"/>
       <c r="CH56" s="43"/>
       <c r="CI56" s="43"/>
-      <c r="CJ56" s="49"/>
+      <c r="CJ56" s="43"/>
       <c r="CK56" s="60"/>
-      <c r="CL56" s="43"/>
       <c r="CM56" s="43"/>
-      <c r="CN56" s="43"/>
-      <c r="CO56" s="43"/>
+      <c r="CN56" s="62"/>
+      <c r="CO56" s="64"/>
       <c r="CP56" s="43"/>
       <c r="CQ56" s="49"/>
       <c r="CR56" s="60"/>
       <c r="CS56" s="49"/>
-      <c r="CT56" s="64"/>
+      <c r="CT56" s="49"/>
       <c r="CU56" s="49"/>
       <c r="CV56" s="43"/>
       <c r="CW56" s="43"/>
@@ -10471,7 +10485,7 @@
       <c r="DU57" s="43"/>
       <c r="DV57" s="43"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A58" s="13"/>
       <c r="B58" s="5"/>
       <c r="C58" s="14" t="s">
@@ -10611,7 +10625,7 @@
       <c r="DU58" s="43"/>
       <c r="DV58" s="43"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A59" s="13"/>
       <c r="B59" s="5"/>
       <c r="C59" s="14" t="s">
@@ -10751,7 +10765,7 @@
       <c r="DU59" s="43"/>
       <c r="DV59" s="43"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A60" s="13"/>
       <c r="B60" s="5"/>
       <c r="C60" s="14" t="s">
@@ -10891,7 +10905,7 @@
       <c r="DU60" s="43"/>
       <c r="DV60" s="43"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A61" s="13"/>
       <c r="B61" s="5"/>
       <c r="C61" s="14" t="s">
@@ -10994,7 +11008,7 @@
       <c r="CJ61" s="48"/>
       <c r="CK61" s="59"/>
       <c r="CL61" s="43"/>
-      <c r="CM61" s="64"/>
+      <c r="CM61" s="43"/>
       <c r="CN61" s="43"/>
       <c r="CO61" s="43"/>
       <c r="CP61" s="43"/>
@@ -11031,7 +11045,7 @@
       <c r="DU61" s="43"/>
       <c r="DV61" s="43"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="62" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A62" s="13"/>
       <c r="B62" s="5"/>
       <c r="C62" s="14" t="s">
@@ -11171,7 +11185,7 @@
       <c r="DU62" s="43"/>
       <c r="DV62" s="43"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="63" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A63" s="13"/>
       <c r="B63" s="5"/>
       <c r="C63" s="14" t="s">
@@ -11344,7 +11358,7 @@
       <c r="V64" s="21"/>
       <c r="W64" s="27"/>
       <c r="X64" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="15"/>
       <c r="Z64" s="16"/>
@@ -11413,7 +11427,7 @@
       <c r="CI64" s="43"/>
       <c r="CJ64" s="43"/>
       <c r="CK64" s="43"/>
-      <c r="CL64" s="64"/>
+      <c r="CL64" s="65"/>
       <c r="CM64" s="43"/>
       <c r="CN64" s="43"/>
       <c r="CO64" s="43"/>
@@ -11451,20 +11465,709 @@
       <c r="DU64" s="43"/>
       <c r="DV64" s="43"/>
     </row>
+    <row r="65" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+      <c r="A65" s="13"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="19">
+        <v>1</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB65" s="40"/>
+      <c r="AC65" s="40"/>
+      <c r="AD65" s="41"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="49"/>
+      <c r="AL65" s="43"/>
+      <c r="AM65" s="43"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="43"/>
+      <c r="AQ65" s="49"/>
+      <c r="AR65" s="49"/>
+      <c r="AS65" s="43"/>
+      <c r="AT65" s="43"/>
+      <c r="AU65" s="43"/>
+      <c r="AV65" s="43"/>
+      <c r="AW65" s="43"/>
+      <c r="AX65" s="49"/>
+      <c r="AY65" s="49"/>
+      <c r="AZ65" s="43"/>
+      <c r="BA65" s="43"/>
+      <c r="BB65" s="43"/>
+      <c r="BC65" s="43"/>
+      <c r="BD65" s="43"/>
+      <c r="BE65" s="49"/>
+      <c r="BF65" s="43"/>
+      <c r="BG65" s="43"/>
+      <c r="BH65" s="54"/>
+      <c r="BI65" s="43"/>
+      <c r="BJ65" s="43"/>
+      <c r="BK65" s="43"/>
+      <c r="BL65" s="49"/>
+      <c r="BM65" s="49"/>
+      <c r="BN65" s="43"/>
+      <c r="BO65" s="60"/>
+      <c r="BP65" s="49"/>
+      <c r="BQ65" s="43"/>
+      <c r="BR65" s="43"/>
+      <c r="BS65" s="43"/>
+      <c r="BT65" s="43"/>
+      <c r="BU65" s="43"/>
+      <c r="BV65" s="49"/>
+      <c r="BW65" s="60"/>
+      <c r="BX65" s="43"/>
+      <c r="BY65" s="43"/>
+      <c r="BZ65" s="43"/>
+      <c r="CA65" s="43"/>
+      <c r="CB65" s="43"/>
+      <c r="CC65" s="49"/>
+      <c r="CD65" s="60"/>
+      <c r="CE65" s="43"/>
+      <c r="CF65" s="43"/>
+      <c r="CG65" s="43"/>
+      <c r="CH65" s="43"/>
+      <c r="CI65" s="43"/>
+      <c r="CJ65" s="49"/>
+      <c r="CK65" s="60"/>
+      <c r="CL65" s="43"/>
+      <c r="CM65" s="43"/>
+      <c r="CN65" s="43"/>
+      <c r="CO65" s="43"/>
+      <c r="CP65" s="43"/>
+      <c r="CQ65" s="49"/>
+      <c r="CR65" s="60"/>
+      <c r="CS65" s="49"/>
+      <c r="CT65" s="49"/>
+      <c r="CU65" s="64"/>
+      <c r="CV65" s="43"/>
+      <c r="CW65" s="43"/>
+      <c r="CX65" s="49"/>
+      <c r="CY65" s="60"/>
+      <c r="CZ65" s="43"/>
+      <c r="DA65" s="43"/>
+      <c r="DB65" s="43"/>
+      <c r="DC65" s="43"/>
+      <c r="DD65" s="43"/>
+      <c r="DE65" s="49"/>
+      <c r="DF65" s="60"/>
+      <c r="DG65" s="43"/>
+      <c r="DH65" s="43"/>
+      <c r="DI65" s="43"/>
+      <c r="DJ65" s="43"/>
+      <c r="DK65" s="43"/>
+      <c r="DL65" s="49"/>
+      <c r="DM65" s="60"/>
+      <c r="DN65" s="43"/>
+      <c r="DO65" s="43"/>
+      <c r="DP65" s="43"/>
+      <c r="DQ65" s="43"/>
+      <c r="DR65" s="43"/>
+      <c r="DS65" s="49"/>
+      <c r="DT65" s="60"/>
+      <c r="DU65" s="43"/>
+      <c r="DV65" s="43"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+      <c r="A66" s="13"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="19">
+        <v>1</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB66" s="40"/>
+      <c r="AC66" s="40"/>
+      <c r="AD66" s="41"/>
+      <c r="AE66" s="43"/>
+      <c r="AF66" s="43"/>
+      <c r="AG66" s="43"/>
+      <c r="AH66" s="43"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="49"/>
+      <c r="AL66" s="43"/>
+      <c r="AM66" s="43"/>
+      <c r="AN66" s="43"/>
+      <c r="AO66" s="43"/>
+      <c r="AP66" s="43"/>
+      <c r="AQ66" s="49"/>
+      <c r="AR66" s="49"/>
+      <c r="AS66" s="43"/>
+      <c r="AT66" s="43"/>
+      <c r="AU66" s="43"/>
+      <c r="AV66" s="43"/>
+      <c r="AW66" s="43"/>
+      <c r="AX66" s="49"/>
+      <c r="AY66" s="49"/>
+      <c r="AZ66" s="43"/>
+      <c r="BA66" s="43"/>
+      <c r="BB66" s="43"/>
+      <c r="BC66" s="43"/>
+      <c r="BD66" s="43"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="43"/>
+      <c r="BG66" s="43"/>
+      <c r="BH66" s="54"/>
+      <c r="BI66" s="43"/>
+      <c r="BJ66" s="43"/>
+      <c r="BK66" s="43"/>
+      <c r="BL66" s="49"/>
+      <c r="BM66" s="49"/>
+      <c r="BN66" s="43"/>
+      <c r="BO66" s="60"/>
+      <c r="BP66" s="49"/>
+      <c r="BQ66" s="43"/>
+      <c r="BR66" s="43"/>
+      <c r="BS66" s="43"/>
+      <c r="BT66" s="43"/>
+      <c r="BU66" s="43"/>
+      <c r="BV66" s="49"/>
+      <c r="BW66" s="60"/>
+      <c r="BX66" s="43"/>
+      <c r="BY66" s="43"/>
+      <c r="BZ66" s="43"/>
+      <c r="CA66" s="43"/>
+      <c r="CB66" s="43"/>
+      <c r="CC66" s="49"/>
+      <c r="CD66" s="60"/>
+      <c r="CE66" s="43"/>
+      <c r="CF66" s="43"/>
+      <c r="CG66" s="43"/>
+      <c r="CH66" s="43"/>
+      <c r="CI66" s="43"/>
+      <c r="CJ66" s="49"/>
+      <c r="CK66" s="60"/>
+      <c r="CL66" s="43"/>
+      <c r="CM66" s="43"/>
+      <c r="CN66" s="43"/>
+      <c r="CO66" s="43"/>
+      <c r="CP66" s="43"/>
+      <c r="CQ66" s="49"/>
+      <c r="CR66" s="60"/>
+      <c r="CS66" s="49"/>
+      <c r="CT66" s="49"/>
+      <c r="CU66" s="49"/>
+      <c r="CV66" s="69"/>
+      <c r="CW66" s="64"/>
+      <c r="CX66" s="49"/>
+      <c r="CY66" s="60"/>
+      <c r="CZ66" s="43"/>
+      <c r="DA66" s="43"/>
+      <c r="DB66" s="43"/>
+      <c r="DC66" s="43"/>
+      <c r="DD66" s="43"/>
+      <c r="DE66" s="49"/>
+      <c r="DF66" s="60"/>
+      <c r="DG66" s="43"/>
+      <c r="DH66" s="43"/>
+      <c r="DI66" s="43"/>
+      <c r="DJ66" s="43"/>
+      <c r="DK66" s="43"/>
+      <c r="DL66" s="49"/>
+      <c r="DM66" s="60"/>
+      <c r="DN66" s="43"/>
+      <c r="DO66" s="43"/>
+      <c r="DP66" s="43"/>
+      <c r="DQ66" s="43"/>
+      <c r="DR66" s="43"/>
+      <c r="DS66" s="49"/>
+      <c r="DT66" s="60"/>
+      <c r="DU66" s="43"/>
+      <c r="DV66" s="43"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+      <c r="A67" s="13"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="19">
+        <v>1</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="49"/>
+      <c r="AL67" s="43"/>
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43"/>
+      <c r="AQ67" s="49"/>
+      <c r="AR67" s="49"/>
+      <c r="AS67" s="43"/>
+      <c r="AT67" s="43"/>
+      <c r="AU67" s="43"/>
+      <c r="AV67" s="43"/>
+      <c r="AW67" s="43"/>
+      <c r="AX67" s="49"/>
+      <c r="AY67" s="49"/>
+      <c r="AZ67" s="43"/>
+      <c r="BA67" s="43"/>
+      <c r="BB67" s="43"/>
+      <c r="BC67" s="43"/>
+      <c r="BD67" s="43"/>
+      <c r="BE67" s="49"/>
+      <c r="BF67" s="49"/>
+      <c r="BG67" s="43"/>
+      <c r="BH67" s="54"/>
+      <c r="BI67" s="43"/>
+      <c r="BJ67" s="43"/>
+      <c r="BK67" s="43"/>
+      <c r="BL67" s="49"/>
+      <c r="BM67" s="49"/>
+      <c r="BN67" s="43"/>
+      <c r="BO67" s="60"/>
+      <c r="BP67" s="49"/>
+      <c r="BQ67" s="43"/>
+      <c r="BR67" s="43"/>
+      <c r="BS67" s="43"/>
+      <c r="BT67" s="43"/>
+      <c r="BU67" s="43"/>
+      <c r="BV67" s="49"/>
+      <c r="BW67" s="60"/>
+      <c r="BX67" s="43"/>
+      <c r="BY67" s="43"/>
+      <c r="BZ67" s="43"/>
+      <c r="CA67" s="43"/>
+      <c r="CB67" s="43"/>
+      <c r="CC67" s="49"/>
+      <c r="CD67" s="67"/>
+      <c r="CE67" s="68"/>
+      <c r="CF67" s="68"/>
+      <c r="CG67" s="68"/>
+      <c r="CH67" s="43"/>
+      <c r="CI67" s="43"/>
+      <c r="CJ67" s="43"/>
+      <c r="CK67" s="60"/>
+      <c r="CL67" s="43"/>
+      <c r="CM67" s="43"/>
+      <c r="CN67" s="43"/>
+      <c r="CO67" s="62"/>
+      <c r="CP67" s="64"/>
+      <c r="CQ67" s="49"/>
+      <c r="CR67" s="60"/>
+      <c r="CS67" s="49"/>
+      <c r="CT67" s="49"/>
+      <c r="CU67" s="49"/>
+      <c r="CV67" s="43"/>
+      <c r="CW67" s="43"/>
+      <c r="CX67" s="49"/>
+      <c r="CY67" s="60"/>
+      <c r="CZ67" s="43"/>
+      <c r="DA67" s="43"/>
+      <c r="DB67" s="43"/>
+      <c r="DC67" s="43"/>
+      <c r="DD67" s="43"/>
+      <c r="DE67" s="49"/>
+      <c r="DF67" s="60"/>
+      <c r="DG67" s="43"/>
+      <c r="DH67" s="43"/>
+      <c r="DI67" s="43"/>
+      <c r="DJ67" s="43"/>
+      <c r="DK67" s="43"/>
+      <c r="DL67" s="49"/>
+      <c r="DM67" s="60"/>
+      <c r="DN67" s="43"/>
+      <c r="DO67" s="43"/>
+      <c r="DP67" s="43"/>
+      <c r="DQ67" s="43"/>
+      <c r="DR67" s="43"/>
+      <c r="DS67" s="49"/>
+      <c r="DT67" s="60"/>
+      <c r="DU67" s="43"/>
+      <c r="DV67" s="43"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+      <c r="A68" s="13"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="19">
+        <v>1</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB68" s="45"/>
+      <c r="AC68" s="45"/>
+      <c r="AD68" s="46"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="49"/>
+      <c r="AL68" s="43"/>
+      <c r="AM68" s="43"/>
+      <c r="AN68" s="43"/>
+      <c r="AO68" s="43"/>
+      <c r="AP68" s="43"/>
+      <c r="AQ68" s="49"/>
+      <c r="AR68" s="49"/>
+      <c r="AS68" s="43"/>
+      <c r="AT68" s="43"/>
+      <c r="AU68" s="43"/>
+      <c r="AV68" s="43"/>
+      <c r="AW68" s="43"/>
+      <c r="AX68" s="49"/>
+      <c r="AY68" s="49"/>
+      <c r="AZ68" s="43"/>
+      <c r="BA68" s="43"/>
+      <c r="BB68" s="43"/>
+      <c r="BC68" s="43"/>
+      <c r="BD68" s="43"/>
+      <c r="BE68" s="49"/>
+      <c r="BF68" s="49"/>
+      <c r="BG68" s="43"/>
+      <c r="BH68" s="54"/>
+      <c r="BI68" s="43"/>
+      <c r="BJ68" s="43"/>
+      <c r="BK68" s="43"/>
+      <c r="BL68" s="49"/>
+      <c r="BM68" s="49"/>
+      <c r="BN68" s="43"/>
+      <c r="BO68" s="60"/>
+      <c r="BP68" s="49"/>
+      <c r="BQ68" s="43"/>
+      <c r="BR68" s="43"/>
+      <c r="BS68" s="43"/>
+      <c r="BT68" s="43"/>
+      <c r="BU68" s="43"/>
+      <c r="BV68" s="49"/>
+      <c r="BW68" s="60"/>
+      <c r="BX68" s="43"/>
+      <c r="BY68" s="43"/>
+      <c r="BZ68" s="43"/>
+      <c r="CA68" s="43"/>
+      <c r="CB68" s="43"/>
+      <c r="CC68" s="49"/>
+      <c r="CD68" s="67"/>
+      <c r="CE68" s="68"/>
+      <c r="CF68" s="68"/>
+      <c r="CG68" s="68"/>
+      <c r="CH68" s="43"/>
+      <c r="CI68" s="43"/>
+      <c r="CJ68" s="43"/>
+      <c r="CK68" s="60"/>
+      <c r="CL68" s="43"/>
+      <c r="CM68" s="43"/>
+      <c r="CN68" s="43"/>
+      <c r="CO68" s="43"/>
+      <c r="CP68" s="43"/>
+      <c r="CQ68" s="49"/>
+      <c r="CR68" s="60"/>
+      <c r="CS68" s="49"/>
+      <c r="CT68" s="49"/>
+      <c r="CU68" s="64"/>
+      <c r="CV68" s="43"/>
+      <c r="CW68" s="43"/>
+      <c r="CX68" s="49"/>
+      <c r="CY68" s="60"/>
+      <c r="CZ68" s="43"/>
+      <c r="DA68" s="43"/>
+      <c r="DB68" s="43"/>
+      <c r="DC68" s="43"/>
+      <c r="DD68" s="43"/>
+      <c r="DE68" s="49"/>
+      <c r="DF68" s="60"/>
+      <c r="DG68" s="43"/>
+      <c r="DH68" s="43"/>
+      <c r="DI68" s="43"/>
+      <c r="DJ68" s="43"/>
+      <c r="DK68" s="43"/>
+      <c r="DL68" s="49"/>
+      <c r="DM68" s="60"/>
+      <c r="DN68" s="43"/>
+      <c r="DO68" s="43"/>
+      <c r="DP68" s="43"/>
+      <c r="DQ68" s="43"/>
+      <c r="DR68" s="43"/>
+      <c r="DS68" s="49"/>
+      <c r="DT68" s="60"/>
+      <c r="DU68" s="43"/>
+      <c r="DV68" s="43"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+      <c r="A69" s="13"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="19">
+        <v>1</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB69" s="45"/>
+      <c r="AC69" s="45"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="43"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="43"/>
+      <c r="AP69" s="43"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="49"/>
+      <c r="AS69" s="43"/>
+      <c r="AT69" s="43"/>
+      <c r="AU69" s="43"/>
+      <c r="AV69" s="43"/>
+      <c r="AW69" s="43"/>
+      <c r="AX69" s="49"/>
+      <c r="AY69" s="49"/>
+      <c r="AZ69" s="43"/>
+      <c r="BA69" s="43"/>
+      <c r="BB69" s="43"/>
+      <c r="BC69" s="43"/>
+      <c r="BD69" s="43"/>
+      <c r="BE69" s="49"/>
+      <c r="BF69" s="49"/>
+      <c r="BG69" s="43"/>
+      <c r="BH69" s="54"/>
+      <c r="BI69" s="43"/>
+      <c r="BJ69" s="43"/>
+      <c r="BK69" s="43"/>
+      <c r="BL69" s="49"/>
+      <c r="BM69" s="49"/>
+      <c r="BN69" s="43"/>
+      <c r="BO69" s="60"/>
+      <c r="BP69" s="49"/>
+      <c r="BQ69" s="43"/>
+      <c r="BR69" s="43"/>
+      <c r="BS69" s="43"/>
+      <c r="BT69" s="43"/>
+      <c r="BU69" s="43"/>
+      <c r="BV69" s="49"/>
+      <c r="BW69" s="60"/>
+      <c r="BX69" s="43"/>
+      <c r="BY69" s="43"/>
+      <c r="BZ69" s="43"/>
+      <c r="CA69" s="43"/>
+      <c r="CB69" s="43"/>
+      <c r="CC69" s="49"/>
+      <c r="CD69" s="67"/>
+      <c r="CE69" s="68"/>
+      <c r="CF69" s="68"/>
+      <c r="CG69" s="68"/>
+      <c r="CH69" s="43"/>
+      <c r="CI69" s="43"/>
+      <c r="CJ69" s="43"/>
+      <c r="CK69" s="60"/>
+      <c r="CL69" s="43"/>
+      <c r="CM69" s="43"/>
+      <c r="CN69" s="43"/>
+      <c r="CO69" s="43"/>
+      <c r="CP69" s="43"/>
+      <c r="CQ69" s="49"/>
+      <c r="CR69" s="60"/>
+      <c r="CS69" s="49"/>
+      <c r="CT69" s="49"/>
+      <c r="CU69" s="49"/>
+      <c r="CV69" s="43"/>
+      <c r="CW69" s="62"/>
+      <c r="CX69" s="62"/>
+      <c r="CY69" s="64"/>
+      <c r="CZ69" s="43"/>
+      <c r="DA69" s="43"/>
+      <c r="DB69" s="43"/>
+      <c r="DC69" s="43"/>
+      <c r="DD69" s="43"/>
+      <c r="DE69" s="49"/>
+      <c r="DF69" s="60"/>
+      <c r="DG69" s="43"/>
+      <c r="DH69" s="43"/>
+      <c r="DI69" s="43"/>
+      <c r="DJ69" s="43"/>
+      <c r="DK69" s="43"/>
+      <c r="DL69" s="49"/>
+      <c r="DM69" s="60"/>
+      <c r="DN69" s="43"/>
+      <c r="DO69" s="43"/>
+      <c r="DP69" s="43"/>
+      <c r="DQ69" s="43"/>
+      <c r="DR69" s="43"/>
+      <c r="DS69" s="49"/>
+      <c r="DT69" s="60"/>
+      <c r="DU69" s="43"/>
+      <c r="DV69" s="43"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C3:AD64">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="2测"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="24">
-      <customFilters>
-        <customFilter operator="equal" val="温清洁"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="336">
+  <autoFilter ref="C3:AD69"/>
+  <mergeCells count="361">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AT1:BM1"/>
@@ -11800,6 +12503,31 @@
     <mergeCell ref="J64:W64"/>
     <mergeCell ref="X64:Z64"/>
     <mergeCell ref="AA64:AD64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA65:AD65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="J66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="AA66:AD66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="J67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AD67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="J68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="AA68:AD68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="J69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AD69"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="X2">

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -16,6 +16,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Adelais</author>
+  </authors>
+  <commentList>
+    <comment ref="CL59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Adelais:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">基础代码写完，差url。服务器那边还没有出接口，还不能测试。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
@@ -408,8 +458,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -475,7 +525,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,23 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -527,7 +570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +593,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,23 +623,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,8 +645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,31 +766,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +814,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,43 +856,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,43 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,11 +1236,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,11 +1262,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,26 +1308,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,10 +1341,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,19 +1353,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,112 +1374,112 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2044,15 +2094,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:EZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CH61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CH28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63:W63"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58:W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -2933,7 +2983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
+    <row r="4" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14" t="s">
@@ -3073,7 +3123,7 @@
       <c r="DU4" s="43"/>
       <c r="DV4" s="43"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
+    <row r="5" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
       <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14" t="s">
@@ -3213,7 +3263,7 @@
       <c r="DU5" s="43"/>
       <c r="DV5" s="43"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
+    <row r="6" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
@@ -3353,7 +3403,7 @@
       <c r="DU6" s="43"/>
       <c r="DV6" s="43"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:126">
+    <row r="7" s="1" customFormat="1" ht="34" hidden="1" customHeight="1" spans="1:126">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="14" t="s">
@@ -3493,7 +3543,7 @@
       <c r="DU7" s="43"/>
       <c r="DV7" s="43"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:126">
+    <row r="8" s="1" customFormat="1" ht="26.1" hidden="1" customHeight="1" spans="1:126">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="14" t="s">
@@ -3633,7 +3683,7 @@
       <c r="DU8" s="43"/>
       <c r="DV8" s="43"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:126">
+    <row r="9" s="1" customFormat="1" ht="32.1" hidden="1" customHeight="1" spans="1:126">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
@@ -3773,7 +3823,7 @@
       <c r="DU9" s="43"/>
       <c r="DV9" s="43"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:126">
+    <row r="10" s="1" customFormat="1" ht="33.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
@@ -3913,7 +3963,7 @@
       <c r="DU10" s="43"/>
       <c r="DV10" s="43"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:126">
+    <row r="11" s="1" customFormat="1" ht="33.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
@@ -4053,7 +4103,7 @@
       <c r="DU11" s="43"/>
       <c r="DV11" s="43"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+    <row r="12" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
@@ -4193,7 +4243,7 @@
       <c r="DU12" s="43"/>
       <c r="DV12" s="43"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+    <row r="13" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="14" t="s">
@@ -4333,7 +4383,7 @@
       <c r="DU13" s="43"/>
       <c r="DV13" s="43"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="14" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="14" t="s">
@@ -4473,7 +4523,7 @@
       <c r="DU14" s="43"/>
       <c r="DV14" s="43"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="15" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="14" t="s">
@@ -4613,7 +4663,7 @@
       <c r="DU15" s="43"/>
       <c r="DV15" s="43"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="16" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="14" t="s">
@@ -4753,7 +4803,7 @@
       <c r="DU16" s="43"/>
       <c r="DV16" s="43"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="17" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
@@ -4893,7 +4943,7 @@
       <c r="DU17" s="43"/>
       <c r="DV17" s="43"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="18" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
@@ -5033,7 +5083,7 @@
       <c r="DU18" s="43"/>
       <c r="DV18" s="43"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="19" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
@@ -5173,7 +5223,7 @@
       <c r="DU19" s="43"/>
       <c r="DV19" s="43"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="20" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
@@ -5313,7 +5363,7 @@
       <c r="DU20" s="43"/>
       <c r="DV20" s="43"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="21" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A21" s="13"/>
       <c r="B21" s="5"/>
       <c r="C21" s="14" t="s">
@@ -5453,7 +5503,7 @@
       <c r="DU21" s="43"/>
       <c r="DV21" s="43"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="22" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A22" s="13"/>
       <c r="B22" s="5"/>
       <c r="C22" s="14" t="s">
@@ -5593,7 +5643,7 @@
       <c r="DU22" s="43"/>
       <c r="DV22" s="43"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="23" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A23" s="13"/>
       <c r="B23" s="5"/>
       <c r="C23" s="14" t="s">
@@ -5733,7 +5783,7 @@
       <c r="DU23" s="43"/>
       <c r="DV23" s="43"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="24" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A24" s="13"/>
       <c r="B24" s="5"/>
       <c r="C24" s="14" t="s">
@@ -5873,7 +5923,7 @@
       <c r="DU24" s="43"/>
       <c r="DV24" s="43"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="25" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A25" s="13"/>
       <c r="B25" s="5"/>
       <c r="C25" s="14" t="s">
@@ -6013,7 +6063,7 @@
       <c r="DU25" s="43"/>
       <c r="DV25" s="43"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="26" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="14" t="s">
@@ -6153,7 +6203,7 @@
       <c r="DU26" s="43"/>
       <c r="DV26" s="43"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="27" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="14" t="s">
@@ -6853,7 +6903,7 @@
       <c r="DU31" s="43"/>
       <c r="DV31" s="43"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="32" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="14" t="s">
@@ -6988,7 +7038,7 @@
       <c r="DU32" s="43"/>
       <c r="DV32" s="43"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="33" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="14" t="s">
@@ -7126,7 +7176,7 @@
       <c r="DU33" s="43"/>
       <c r="DV33" s="43"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="34" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A34" s="13"/>
       <c r="B34" s="5"/>
       <c r="C34" s="14" t="s">
@@ -7266,7 +7316,7 @@
       <c r="DU34" s="43"/>
       <c r="DV34" s="43"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="35" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
@@ -7406,7 +7456,7 @@
       <c r="DU35" s="43"/>
       <c r="DV35" s="43"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="36" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
@@ -7546,7 +7596,7 @@
       <c r="DU36" s="43"/>
       <c r="DV36" s="43"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="37" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A37" s="13"/>
       <c r="B37" s="5"/>
       <c r="C37" s="14" t="s">
@@ -7686,7 +7736,7 @@
       <c r="DU37" s="43"/>
       <c r="DV37" s="43"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="38" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A38" s="13"/>
       <c r="B38" s="5"/>
       <c r="C38" s="14" t="s">
@@ -7826,7 +7876,7 @@
       <c r="DU38" s="43"/>
       <c r="DV38" s="43"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="39" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A39" s="13"/>
       <c r="B39" s="5"/>
       <c r="C39" s="14" t="s">
@@ -7927,7 +7977,7 @@
       <c r="CH39" s="43"/>
       <c r="CI39" s="43"/>
       <c r="CJ39" s="43"/>
-      <c r="CK39" s="43"/>
+      <c r="CK39" s="60"/>
       <c r="CL39" s="43"/>
       <c r="CM39" s="43"/>
       <c r="CN39" s="43"/>
@@ -7966,7 +8016,7 @@
       <c r="DU39" s="43"/>
       <c r="DV39" s="43"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="40" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A40" s="13"/>
       <c r="B40" s="5"/>
       <c r="C40" s="14" t="s">
@@ -8106,7 +8156,7 @@
       <c r="DU40" s="43"/>
       <c r="DV40" s="43"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="41" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A41" s="13"/>
       <c r="B41" s="5"/>
       <c r="C41" s="14" t="s">
@@ -8246,7 +8296,7 @@
       <c r="DU41" s="43"/>
       <c r="DV41" s="43"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="42" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A42" s="13"/>
       <c r="B42" s="5"/>
       <c r="C42" s="14" t="s">
@@ -8386,7 +8436,7 @@
       <c r="DU42" s="43"/>
       <c r="DV42" s="43"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="43" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A43" s="13"/>
       <c r="B43" s="5"/>
       <c r="C43" s="14" t="s">
@@ -8526,7 +8576,7 @@
       <c r="DU43" s="43"/>
       <c r="DV43" s="43"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="44" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A44" s="13"/>
       <c r="B44" s="5"/>
       <c r="C44" s="14" t="s">
@@ -8666,7 +8716,7 @@
       <c r="DU44" s="43"/>
       <c r="DV44" s="43"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="45" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A45" s="13"/>
       <c r="B45" s="5"/>
       <c r="C45" s="14" t="s">
@@ -8806,7 +8856,7 @@
       <c r="DU45" s="43"/>
       <c r="DV45" s="43"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="46" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A46" s="13"/>
       <c r="B46" s="5"/>
       <c r="C46" s="14" t="s">
@@ -8907,7 +8957,7 @@
       <c r="CH46" s="43"/>
       <c r="CI46" s="43"/>
       <c r="CJ46" s="43"/>
-      <c r="CK46" s="43"/>
+      <c r="CK46" s="60"/>
       <c r="CL46" s="43"/>
       <c r="CM46" s="43"/>
       <c r="CN46" s="43"/>
@@ -8946,7 +8996,7 @@
       <c r="DU46" s="43"/>
       <c r="DV46" s="43"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="47" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A47" s="13"/>
       <c r="B47" s="5"/>
       <c r="C47" s="14" t="s">
@@ -9047,7 +9097,7 @@
       <c r="CH47" s="43"/>
       <c r="CI47" s="43"/>
       <c r="CJ47" s="43"/>
-      <c r="CK47" s="43"/>
+      <c r="CK47" s="60"/>
       <c r="CL47" s="43"/>
       <c r="CM47" s="43"/>
       <c r="CN47" s="43"/>
@@ -9086,7 +9136,7 @@
       <c r="DU47" s="43"/>
       <c r="DV47" s="43"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="48" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A48" s="13"/>
       <c r="B48" s="5"/>
       <c r="C48" s="14" t="s">
@@ -9226,7 +9276,7 @@
       <c r="DU48" s="43"/>
       <c r="DV48" s="43"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="49" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A49" s="13"/>
       <c r="B49" s="5"/>
       <c r="C49" s="14" t="s">
@@ -9366,7 +9416,7 @@
       <c r="DU49" s="43"/>
       <c r="DV49" s="43"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="50" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A50" s="13"/>
       <c r="B50" s="5"/>
       <c r="C50" s="14" t="s">
@@ -9506,7 +9556,7 @@
       <c r="DU50" s="43"/>
       <c r="DV50" s="43"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="51" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A51" s="13"/>
       <c r="B51" s="5"/>
       <c r="C51" s="14" t="s">
@@ -9646,7 +9696,7 @@
       <c r="DU51" s="43"/>
       <c r="DV51" s="43"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="52" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A52" s="13"/>
       <c r="B52" s="5"/>
       <c r="C52" s="14" t="s">
@@ -9786,7 +9836,7 @@
       <c r="DU52" s="43"/>
       <c r="DV52" s="43"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="53" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A53" s="13"/>
       <c r="B53" s="5"/>
       <c r="C53" s="14" t="s">
@@ -9926,7 +9976,7 @@
       <c r="DU53" s="43"/>
       <c r="DV53" s="43"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="54" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A54" s="13"/>
       <c r="B54" s="5"/>
       <c r="C54" s="14" t="s">
@@ -10066,7 +10116,7 @@
       <c r="DU54" s="43"/>
       <c r="DV54" s="43"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="55" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="14" t="s">
@@ -10206,7 +10256,7 @@
       <c r="DU55" s="43"/>
       <c r="DV55" s="43"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="56" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A56" s="13"/>
       <c r="B56" s="5"/>
       <c r="C56" s="14" t="s">
@@ -10345,7 +10395,7 @@
       <c r="DU56" s="43"/>
       <c r="DV56" s="43"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="57" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A57" s="13"/>
       <c r="B57" s="5"/>
       <c r="C57" s="14" t="s">
@@ -10446,7 +10496,7 @@
       <c r="CH57" s="43"/>
       <c r="CI57" s="43"/>
       <c r="CJ57" s="43"/>
-      <c r="CK57" s="43"/>
+      <c r="CK57" s="60"/>
       <c r="CL57" s="43"/>
       <c r="CM57" s="43"/>
       <c r="CN57" s="43"/>
@@ -10765,7 +10815,7 @@
       <c r="DU59" s="43"/>
       <c r="DV59" s="43"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="60" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A60" s="13"/>
       <c r="B60" s="5"/>
       <c r="C60" s="14" t="s">
@@ -10905,7 +10955,7 @@
       <c r="DU60" s="43"/>
       <c r="DV60" s="43"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="61" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A61" s="13"/>
       <c r="B61" s="5"/>
       <c r="C61" s="14" t="s">
@@ -11045,7 +11095,7 @@
       <c r="DU61" s="43"/>
       <c r="DV61" s="43"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="62" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A62" s="13"/>
       <c r="B62" s="5"/>
       <c r="C62" s="14" t="s">
@@ -11185,7 +11235,7 @@
       <c r="DU62" s="43"/>
       <c r="DV62" s="43"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="63" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A63" s="13"/>
       <c r="B63" s="5"/>
       <c r="C63" s="14" t="s">
@@ -11325,7 +11375,7 @@
       <c r="DU63" s="43"/>
       <c r="DV63" s="43"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="64" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A64" s="13"/>
       <c r="B64" s="5"/>
       <c r="C64" s="14" t="s">
@@ -11426,7 +11476,7 @@
       <c r="CH64" s="43"/>
       <c r="CI64" s="43"/>
       <c r="CJ64" s="43"/>
-      <c r="CK64" s="43"/>
+      <c r="CK64" s="60"/>
       <c r="CL64" s="65"/>
       <c r="CM64" s="43"/>
       <c r="CN64" s="43"/>
@@ -11465,7 +11515,7 @@
       <c r="DU64" s="43"/>
       <c r="DV64" s="43"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+    <row r="65" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A65" s="13"/>
       <c r="B65" s="5"/>
       <c r="C65" s="14" t="s">
@@ -11565,7 +11615,7 @@
       <c r="CG65" s="43"/>
       <c r="CH65" s="43"/>
       <c r="CI65" s="43"/>
-      <c r="CJ65" s="49"/>
+      <c r="CJ65" s="43"/>
       <c r="CK65" s="60"/>
       <c r="CL65" s="43"/>
       <c r="CM65" s="43"/>
@@ -11605,7 +11655,7 @@
       <c r="DU65" s="43"/>
       <c r="DV65" s="43"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+    <row r="66" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A66" s="13"/>
       <c r="B66" s="5"/>
       <c r="C66" s="14" t="s">
@@ -11705,7 +11755,7 @@
       <c r="CG66" s="43"/>
       <c r="CH66" s="43"/>
       <c r="CI66" s="43"/>
-      <c r="CJ66" s="49"/>
+      <c r="CJ66" s="43"/>
       <c r="CK66" s="60"/>
       <c r="CL66" s="43"/>
       <c r="CM66" s="43"/>
@@ -11745,7 +11795,7 @@
       <c r="DU66" s="43"/>
       <c r="DV66" s="43"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="67" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A67" s="13"/>
       <c r="B67" s="5"/>
       <c r="C67" s="14" t="s">
@@ -11885,7 +11935,7 @@
       <c r="DU67" s="43"/>
       <c r="DV67" s="43"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="68" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A68" s="13"/>
       <c r="B68" s="5"/>
       <c r="C68" s="14" t="s">
@@ -12025,7 +12075,7 @@
       <c r="DU68" s="43"/>
       <c r="DV68" s="43"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:126">
+    <row r="69" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A69" s="13"/>
       <c r="B69" s="5"/>
       <c r="C69" s="14" t="s">
@@ -12166,7 +12216,18 @@
       <c r="DV69" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AD69"/>
+  <autoFilter ref="C3:AD69">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="equal" val="2测"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="24">
+      <customFilters>
+        <customFilter operator="equal" val="华珊"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="361">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
@@ -12557,5 +12618,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -10,7 +10,7 @@
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$67</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Adelais</author>
   </authors>
   <commentList>
-    <comment ref="CL59" authorId="0">
+    <comment ref="CL57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>《暴走乐器》研发进度规划及版本计划</t>
   </si>
@@ -294,16 +294,13 @@
     <t>完成订单详情</t>
   </si>
   <si>
-    <t>完成“个人资料”页面</t>
-  </si>
-  <si>
-    <t>完成“预约订单”页面</t>
-  </si>
-  <si>
-    <t>完成“交易记录”页面</t>
-  </si>
-  <si>
-    <t>搜索界面交易记录改为更改</t>
+    <t>2测</t>
+  </si>
+  <si>
+    <t>完成“预约订单”接口</t>
+  </si>
+  <si>
+    <t>完成“交易记录”接口</t>
   </si>
   <si>
     <t>实现拍照，照完显示，调用相机</t>
@@ -324,9 +321,6 @@
     <t>对所有第一阶段的事情连接</t>
   </si>
   <si>
-    <t>2测</t>
-  </si>
-  <si>
     <t>实现“帮助中心”的接口的对接</t>
   </si>
   <si>
@@ -432,7 +426,7 @@
     <t>个人资料</t>
   </si>
   <si>
-    <t>乐器</t>
+    <t>完成交易记录界面</t>
   </si>
   <si>
     <t>完成“课程”界面除轮播图以外接口</t>
@@ -458,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -518,6 +512,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -525,7 +526,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,7 +541,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,74 +626,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,15 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -760,7 +754,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +808,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,127 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,6 +857,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,16 +1230,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1256,24 +1261,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,26 +1297,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,10 +1335,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1353,133 +1347,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2095,14 +2089,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ69"/>
+  <dimension ref="A1:EZ67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CH28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CF26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58:W58"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57:W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -5092,7 +5086,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -5100,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -5177,7 +5171,7 @@
       <c r="CA19" s="43"/>
       <c r="CB19" s="43"/>
       <c r="CC19" s="48"/>
-      <c r="CD19" s="64"/>
+      <c r="CD19" s="59"/>
       <c r="CE19" s="43"/>
       <c r="CF19" s="43"/>
       <c r="CG19" s="43"/>
@@ -5192,8 +5186,8 @@
       <c r="CP19" s="43"/>
       <c r="CQ19" s="48"/>
       <c r="CR19" s="59"/>
-      <c r="CS19" s="48"/>
-      <c r="CT19" s="48"/>
+      <c r="CS19" s="62"/>
+      <c r="CT19" s="64"/>
       <c r="CU19" s="48"/>
       <c r="CV19" s="43"/>
       <c r="CW19" s="43"/>
@@ -5232,7 +5226,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -5240,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -5318,7 +5312,7 @@
       <c r="CB20" s="43"/>
       <c r="CC20" s="48"/>
       <c r="CD20" s="59"/>
-      <c r="CE20" s="64"/>
+      <c r="CE20" s="43"/>
       <c r="CF20" s="43"/>
       <c r="CG20" s="43"/>
       <c r="CH20" s="43"/>
@@ -5330,8 +5324,8 @@
       <c r="CN20" s="43"/>
       <c r="CO20" s="43"/>
       <c r="CP20" s="43"/>
-      <c r="CQ20" s="48"/>
-      <c r="CR20" s="59"/>
+      <c r="CQ20" s="62"/>
+      <c r="CR20" s="64"/>
       <c r="CS20" s="48"/>
       <c r="CT20" s="48"/>
       <c r="CU20" s="48"/>
@@ -5380,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
@@ -5401,7 +5395,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB21" s="40"/>
       <c r="AC21" s="40"/>
@@ -5453,18 +5447,18 @@
       <c r="BW21" s="59"/>
       <c r="BX21" s="43"/>
       <c r="BY21" s="43"/>
-      <c r="BZ21" s="43"/>
+      <c r="BZ21" s="61"/>
       <c r="CA21" s="43"/>
       <c r="CB21" s="43"/>
       <c r="CC21" s="48"/>
       <c r="CD21" s="59"/>
       <c r="CE21" s="43"/>
-      <c r="CF21" s="64"/>
+      <c r="CF21" s="43"/>
       <c r="CG21" s="43"/>
       <c r="CH21" s="43"/>
       <c r="CI21" s="43"/>
-      <c r="CJ21" s="48"/>
-      <c r="CK21" s="59"/>
+      <c r="CJ21" s="43"/>
+      <c r="CK21" s="43"/>
       <c r="CL21" s="43"/>
       <c r="CM21" s="43"/>
       <c r="CN21" s="43"/>
@@ -5520,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -5541,7 +5535,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
@@ -5595,16 +5589,16 @@
       <c r="BY22" s="43"/>
       <c r="BZ22" s="43"/>
       <c r="CA22" s="43"/>
-      <c r="CB22" s="43"/>
+      <c r="CB22" s="61"/>
       <c r="CC22" s="48"/>
-      <c r="CD22" s="59"/>
+      <c r="CD22" s="66"/>
       <c r="CE22" s="43"/>
       <c r="CF22" s="43"/>
-      <c r="CG22" s="64"/>
+      <c r="CG22" s="43"/>
       <c r="CH22" s="43"/>
       <c r="CI22" s="43"/>
-      <c r="CJ22" s="48"/>
-      <c r="CK22" s="48"/>
+      <c r="CJ22" s="43"/>
+      <c r="CK22" s="43"/>
       <c r="CL22" s="43"/>
       <c r="CM22" s="43"/>
       <c r="CN22" s="43"/>
@@ -5660,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -5681,7 +5675,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
@@ -5733,11 +5727,11 @@
       <c r="BW23" s="59"/>
       <c r="BX23" s="43"/>
       <c r="BY23" s="43"/>
-      <c r="BZ23" s="61"/>
+      <c r="BZ23" s="43"/>
       <c r="CA23" s="43"/>
       <c r="CB23" s="43"/>
       <c r="CC23" s="48"/>
-      <c r="CD23" s="59"/>
+      <c r="CD23" s="61"/>
       <c r="CE23" s="43"/>
       <c r="CF23" s="43"/>
       <c r="CG23" s="43"/>
@@ -5800,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -5821,7 +5815,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB24" s="40"/>
       <c r="AC24" s="40"/>
@@ -5875,10 +5869,10 @@
       <c r="BY24" s="43"/>
       <c r="BZ24" s="43"/>
       <c r="CA24" s="43"/>
-      <c r="CB24" s="61"/>
+      <c r="CB24" s="43"/>
       <c r="CC24" s="48"/>
-      <c r="CD24" s="66"/>
-      <c r="CE24" s="43"/>
+      <c r="CD24" s="59"/>
+      <c r="CE24" s="61"/>
       <c r="CF24" s="43"/>
       <c r="CG24" s="43"/>
       <c r="CH24" s="43"/>
@@ -5940,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -5961,7 +5955,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="16"/>
       <c r="AA25" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
@@ -6017,10 +6011,10 @@
       <c r="CA25" s="43"/>
       <c r="CB25" s="43"/>
       <c r="CC25" s="48"/>
-      <c r="CD25" s="61"/>
+      <c r="CD25" s="59"/>
       <c r="CE25" s="43"/>
-      <c r="CF25" s="43"/>
-      <c r="CG25" s="43"/>
+      <c r="CF25" s="62"/>
+      <c r="CG25" s="61"/>
       <c r="CH25" s="43"/>
       <c r="CI25" s="43"/>
       <c r="CJ25" s="43"/>
@@ -6063,7 +6057,7 @@
       <c r="DU25" s="43"/>
       <c r="DV25" s="43"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="14" t="s">
@@ -6072,15 +6066,15 @@
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
       <c r="I26" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -6101,7 +6095,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="39" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
@@ -6158,13 +6152,13 @@
       <c r="CB26" s="43"/>
       <c r="CC26" s="48"/>
       <c r="CD26" s="59"/>
-      <c r="CE26" s="61"/>
+      <c r="CE26" s="43"/>
       <c r="CF26" s="43"/>
       <c r="CG26" s="43"/>
       <c r="CH26" s="43"/>
       <c r="CI26" s="43"/>
       <c r="CJ26" s="43"/>
-      <c r="CK26" s="43"/>
+      <c r="CK26" s="59"/>
       <c r="CL26" s="43"/>
       <c r="CM26" s="43"/>
       <c r="CN26" s="43"/>
@@ -6172,7 +6166,7 @@
       <c r="CP26" s="43"/>
       <c r="CQ26" s="48"/>
       <c r="CR26" s="59"/>
-      <c r="CS26" s="48"/>
+      <c r="CS26" s="64"/>
       <c r="CT26" s="48"/>
       <c r="CU26" s="48"/>
       <c r="CV26" s="43"/>
@@ -6203,7 +6197,7 @@
       <c r="DU26" s="43"/>
       <c r="DV26" s="43"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="14" t="s">
@@ -6212,15 +6206,15 @@
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -6241,7 +6235,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="39" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AB27" s="40"/>
       <c r="AC27" s="40"/>
@@ -6299,8 +6293,8 @@
       <c r="CC27" s="48"/>
       <c r="CD27" s="59"/>
       <c r="CE27" s="43"/>
-      <c r="CF27" s="62"/>
-      <c r="CG27" s="61"/>
+      <c r="CF27" s="43"/>
+      <c r="CG27" s="43"/>
       <c r="CH27" s="43"/>
       <c r="CI27" s="43"/>
       <c r="CJ27" s="43"/>
@@ -6311,7 +6305,7 @@
       <c r="CO27" s="43"/>
       <c r="CP27" s="43"/>
       <c r="CQ27" s="48"/>
-      <c r="CR27" s="59"/>
+      <c r="CR27" s="64"/>
       <c r="CS27" s="48"/>
       <c r="CT27" s="48"/>
       <c r="CU27" s="48"/>
@@ -6352,7 +6346,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="16"/>
@@ -6445,14 +6439,14 @@
       <c r="CI28" s="43"/>
       <c r="CJ28" s="43"/>
       <c r="CK28" s="59"/>
-      <c r="CL28" s="43"/>
-      <c r="CM28" s="43"/>
+      <c r="CL28" s="53"/>
+      <c r="CM28" s="53"/>
       <c r="CN28" s="43"/>
       <c r="CO28" s="43"/>
       <c r="CP28" s="43"/>
-      <c r="CQ28" s="48"/>
+      <c r="CQ28" s="64"/>
       <c r="CR28" s="59"/>
-      <c r="CS28" s="64"/>
+      <c r="CS28" s="48"/>
       <c r="CT28" s="48"/>
       <c r="CU28" s="48"/>
       <c r="CV28" s="43"/>
@@ -6492,12 +6486,12 @@
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>87</v>
@@ -6516,7 +6510,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="27"/>
       <c r="X29" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="15"/>
       <c r="Z29" s="16"/>
@@ -6583,15 +6577,15 @@
       <c r="CG29" s="43"/>
       <c r="CH29" s="43"/>
       <c r="CI29" s="43"/>
-      <c r="CJ29" s="43"/>
-      <c r="CK29" s="43"/>
+      <c r="CJ29" s="59"/>
+      <c r="CK29" s="59"/>
       <c r="CL29" s="43"/>
-      <c r="CM29" s="43"/>
-      <c r="CN29" s="43"/>
-      <c r="CO29" s="43"/>
-      <c r="CP29" s="43"/>
+      <c r="CM29" s="62"/>
+      <c r="CN29" s="62"/>
+      <c r="CO29" s="62"/>
+      <c r="CP29" s="64"/>
       <c r="CQ29" s="48"/>
-      <c r="CR29" s="64"/>
+      <c r="CR29" s="59"/>
       <c r="CS29" s="48"/>
       <c r="CT29" s="48"/>
       <c r="CU29" s="48"/>
@@ -6623,7 +6617,7 @@
       <c r="DU29" s="43"/>
       <c r="DV29" s="43"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="30" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A30" s="13"/>
       <c r="B30" s="5"/>
       <c r="C30" s="14" t="s">
@@ -6632,12 +6626,12 @@
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
       <c r="I30" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>88</v>
@@ -6656,114 +6650,109 @@
       <c r="V30" s="21"/>
       <c r="W30" s="27"/>
       <c r="X30" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30" s="15"/>
       <c r="Z30" s="16"/>
       <c r="AA30" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="46"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
       <c r="AG30" s="43"/>
       <c r="AH30" s="43"/>
       <c r="AI30" s="43"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
       <c r="AL30" s="43"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
       <c r="AP30" s="43"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
       <c r="AS30" s="43"/>
       <c r="AT30" s="43"/>
       <c r="AU30" s="43"/>
       <c r="AV30" s="43"/>
       <c r="AW30" s="43"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="48"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
       <c r="AZ30" s="43"/>
       <c r="BA30" s="43"/>
       <c r="BB30" s="43"/>
       <c r="BC30" s="43"/>
       <c r="BD30" s="43"/>
-      <c r="BE30" s="48"/>
-      <c r="BF30" s="48"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
       <c r="BG30" s="43"/>
-      <c r="BH30" s="18"/>
+      <c r="BH30" s="54"/>
       <c r="BI30" s="43"/>
       <c r="BJ30" s="43"/>
       <c r="BK30" s="43"/>
-      <c r="BL30" s="48"/>
-      <c r="BM30" s="48"/>
+      <c r="BL30" s="49"/>
+      <c r="BM30" s="49"/>
       <c r="BN30" s="43"/>
-      <c r="BO30" s="59"/>
-      <c r="BP30" s="48"/>
+      <c r="BO30" s="60"/>
+      <c r="BP30" s="49"/>
       <c r="BQ30" s="43"/>
       <c r="BR30" s="43"/>
       <c r="BS30" s="43"/>
       <c r="BT30" s="43"/>
       <c r="BU30" s="43"/>
-      <c r="BV30" s="48"/>
-      <c r="BW30" s="59"/>
+      <c r="BV30" s="49"/>
+      <c r="BW30" s="60"/>
       <c r="BX30" s="43"/>
       <c r="BY30" s="43"/>
       <c r="BZ30" s="43"/>
       <c r="CA30" s="43"/>
       <c r="CB30" s="43"/>
-      <c r="CC30" s="48"/>
-      <c r="CD30" s="59"/>
-      <c r="CE30" s="43"/>
-      <c r="CF30" s="43"/>
-      <c r="CG30" s="43"/>
+      <c r="CC30" s="49"/>
+      <c r="CD30" s="67"/>
       <c r="CH30" s="43"/>
-      <c r="CI30" s="43"/>
-      <c r="CJ30" s="43"/>
-      <c r="CK30" s="59"/>
-      <c r="CL30" s="53"/>
-      <c r="CM30" s="53"/>
+      <c r="CK30" s="60"/>
+      <c r="CL30" s="43"/>
+      <c r="CM30" s="43"/>
       <c r="CN30" s="43"/>
       <c r="CO30" s="43"/>
       <c r="CP30" s="43"/>
-      <c r="CQ30" s="64"/>
-      <c r="CR30" s="59"/>
-      <c r="CS30" s="48"/>
-      <c r="CT30" s="48"/>
-      <c r="CU30" s="48"/>
+      <c r="CQ30" s="43"/>
+      <c r="CR30" s="60"/>
+      <c r="CS30" s="62"/>
+      <c r="CT30" s="70"/>
+      <c r="CU30" s="49"/>
       <c r="CV30" s="43"/>
       <c r="CW30" s="43"/>
-      <c r="CX30" s="48"/>
-      <c r="CY30" s="59"/>
+      <c r="CX30" s="49"/>
+      <c r="CY30" s="60"/>
       <c r="CZ30" s="43"/>
       <c r="DA30" s="43"/>
       <c r="DB30" s="43"/>
       <c r="DC30" s="43"/>
       <c r="DD30" s="43"/>
-      <c r="DE30" s="48"/>
-      <c r="DF30" s="59"/>
+      <c r="DE30" s="49"/>
+      <c r="DF30" s="60"/>
       <c r="DG30" s="43"/>
       <c r="DH30" s="43"/>
       <c r="DI30" s="43"/>
       <c r="DJ30" s="43"/>
       <c r="DK30" s="43"/>
-      <c r="DL30" s="48"/>
-      <c r="DM30" s="59"/>
+      <c r="DL30" s="49"/>
+      <c r="DM30" s="60"/>
       <c r="DN30" s="43"/>
       <c r="DO30" s="43"/>
       <c r="DP30" s="43"/>
       <c r="DQ30" s="43"/>
       <c r="DR30" s="43"/>
-      <c r="DS30" s="48"/>
-      <c r="DT30" s="59"/>
+      <c r="DS30" s="49"/>
+      <c r="DT30" s="60"/>
       <c r="DU30" s="43"/>
       <c r="DV30" s="43"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="31" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A31" s="13"/>
       <c r="B31" s="5"/>
       <c r="C31" s="14" t="s">
@@ -6772,7 +6761,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
@@ -6796,110 +6785,108 @@
       <c r="V31" s="21"/>
       <c r="W31" s="27"/>
       <c r="X31" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="15"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="46"/>
       <c r="AE31" s="43"/>
       <c r="AF31" s="43"/>
       <c r="AG31" s="43"/>
       <c r="AH31" s="43"/>
       <c r="AI31" s="43"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
       <c r="AL31" s="43"/>
       <c r="AM31" s="43"/>
       <c r="AN31" s="43"/>
       <c r="AO31" s="43"/>
       <c r="AP31" s="43"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
       <c r="AS31" s="43"/>
       <c r="AT31" s="43"/>
       <c r="AU31" s="43"/>
       <c r="AV31" s="43"/>
       <c r="AW31" s="43"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="48"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
       <c r="AZ31" s="43"/>
       <c r="BA31" s="43"/>
       <c r="BB31" s="43"/>
       <c r="BC31" s="43"/>
       <c r="BD31" s="43"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
       <c r="BG31" s="43"/>
-      <c r="BH31" s="18"/>
+      <c r="BH31" s="54"/>
       <c r="BI31" s="43"/>
       <c r="BJ31" s="43"/>
       <c r="BK31" s="43"/>
-      <c r="BL31" s="48"/>
-      <c r="BM31" s="48"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
       <c r="BN31" s="43"/>
-      <c r="BO31" s="59"/>
-      <c r="BP31" s="48"/>
+      <c r="BO31" s="60"/>
+      <c r="BP31" s="49"/>
       <c r="BQ31" s="43"/>
       <c r="BR31" s="43"/>
       <c r="BS31" s="43"/>
       <c r="BT31" s="43"/>
       <c r="BU31" s="43"/>
-      <c r="BV31" s="48"/>
-      <c r="BW31" s="59"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="60"/>
       <c r="BX31" s="43"/>
       <c r="BY31" s="43"/>
       <c r="BZ31" s="43"/>
       <c r="CA31" s="43"/>
       <c r="CB31" s="43"/>
-      <c r="CC31" s="48"/>
-      <c r="CD31" s="59"/>
-      <c r="CE31" s="43"/>
-      <c r="CF31" s="43"/>
-      <c r="CG31" s="43"/>
-      <c r="CH31" s="43"/>
-      <c r="CI31" s="43"/>
-      <c r="CJ31" s="59"/>
-      <c r="CK31" s="59"/>
+      <c r="CC31" s="49"/>
+      <c r="CD31" s="67"/>
+      <c r="CE31" s="68"/>
+      <c r="CF31" s="68"/>
+      <c r="CI31" s="66"/>
+      <c r="CJ31" s="49"/>
+      <c r="CK31" s="60"/>
       <c r="CL31" s="43"/>
-      <c r="CM31" s="62"/>
-      <c r="CN31" s="62"/>
-      <c r="CO31" s="62"/>
-      <c r="CP31" s="64"/>
-      <c r="CQ31" s="48"/>
-      <c r="CR31" s="59"/>
-      <c r="CS31" s="48"/>
-      <c r="CT31" s="48"/>
-      <c r="CU31" s="48"/>
+      <c r="CM31" s="43"/>
+      <c r="CN31" s="43"/>
+      <c r="CO31" s="43"/>
+      <c r="CP31" s="43"/>
+      <c r="CQ31" s="49"/>
+      <c r="CR31" s="70"/>
+      <c r="CS31" s="49"/>
+      <c r="CT31" s="49"/>
+      <c r="CU31" s="49"/>
       <c r="CV31" s="43"/>
       <c r="CW31" s="43"/>
-      <c r="CX31" s="48"/>
-      <c r="CY31" s="59"/>
+      <c r="CX31" s="49"/>
+      <c r="CY31" s="60"/>
       <c r="CZ31" s="43"/>
       <c r="DA31" s="43"/>
       <c r="DB31" s="43"/>
       <c r="DC31" s="43"/>
       <c r="DD31" s="43"/>
-      <c r="DE31" s="48"/>
-      <c r="DF31" s="59"/>
+      <c r="DE31" s="49"/>
+      <c r="DF31" s="60"/>
       <c r="DG31" s="43"/>
       <c r="DH31" s="43"/>
       <c r="DI31" s="43"/>
       <c r="DJ31" s="43"/>
       <c r="DK31" s="43"/>
-      <c r="DL31" s="48"/>
-      <c r="DM31" s="59"/>
+      <c r="DL31" s="49"/>
+      <c r="DM31" s="60"/>
       <c r="DN31" s="43"/>
       <c r="DO31" s="43"/>
       <c r="DP31" s="43"/>
       <c r="DQ31" s="43"/>
       <c r="DR31" s="43"/>
-      <c r="DS31" s="48"/>
-      <c r="DT31" s="59"/>
+      <c r="DS31" s="49"/>
+      <c r="DT31" s="60"/>
       <c r="DU31" s="43"/>
       <c r="DV31" s="43"/>
     </row>
@@ -6912,7 +6899,7 @@
       <c r="D32" s="15"/>
       <c r="E32" s="16"/>
       <c r="F32" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
@@ -6998,17 +6985,22 @@
       <c r="CB32" s="43"/>
       <c r="CC32" s="49"/>
       <c r="CD32" s="67"/>
-      <c r="CH32" s="43"/>
+      <c r="CE32" s="68"/>
+      <c r="CF32" s="68"/>
+      <c r="CG32" s="43"/>
+      <c r="CH32" s="68"/>
+      <c r="CI32" s="43"/>
+      <c r="CJ32" s="60"/>
       <c r="CK32" s="60"/>
       <c r="CL32" s="43"/>
       <c r="CM32" s="43"/>
       <c r="CN32" s="43"/>
       <c r="CO32" s="43"/>
       <c r="CP32" s="43"/>
-      <c r="CQ32" s="43"/>
-      <c r="CR32" s="60"/>
-      <c r="CS32" s="62"/>
-      <c r="CT32" s="70"/>
+      <c r="CQ32" s="49"/>
+      <c r="CR32" s="70"/>
+      <c r="CS32" s="49"/>
+      <c r="CT32" s="49"/>
       <c r="CU32" s="49"/>
       <c r="CV32" s="43"/>
       <c r="CW32" s="43"/>
@@ -7047,12 +7039,12 @@
       <c r="D33" s="15"/>
       <c r="E33" s="16"/>
       <c r="F33" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
       <c r="I33" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>91</v>
@@ -7135,16 +7127,18 @@
       <c r="CD33" s="67"/>
       <c r="CE33" s="68"/>
       <c r="CF33" s="68"/>
-      <c r="CI33" s="66"/>
-      <c r="CJ33" s="49"/>
+      <c r="CG33" s="43"/>
+      <c r="CH33" s="43"/>
+      <c r="CI33" s="43"/>
+      <c r="CJ33" s="43"/>
       <c r="CK33" s="60"/>
       <c r="CL33" s="43"/>
       <c r="CM33" s="43"/>
       <c r="CN33" s="43"/>
       <c r="CO33" s="43"/>
       <c r="CP33" s="43"/>
-      <c r="CQ33" s="49"/>
-      <c r="CR33" s="70"/>
+      <c r="CQ33" s="70"/>
+      <c r="CR33" s="60"/>
       <c r="CS33" s="49"/>
       <c r="CT33" s="49"/>
       <c r="CU33" s="49"/>
@@ -7185,12 +7179,12 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
       <c r="F34" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="16"/>
       <c r="I34" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>92</v>
@@ -7209,7 +7203,7 @@
       <c r="V34" s="21"/>
       <c r="W34" s="27"/>
       <c r="X34" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34" s="15"/>
       <c r="Z34" s="16"/>
@@ -7274,17 +7268,17 @@
       <c r="CE34" s="68"/>
       <c r="CF34" s="68"/>
       <c r="CG34" s="43"/>
-      <c r="CH34" s="68"/>
-      <c r="CI34" s="43"/>
-      <c r="CJ34" s="60"/>
-      <c r="CK34" s="60"/>
+      <c r="CH34" s="43"/>
+      <c r="CI34" s="62"/>
+      <c r="CJ34" s="64"/>
+      <c r="CK34" s="61"/>
       <c r="CL34" s="43"/>
       <c r="CM34" s="43"/>
       <c r="CN34" s="43"/>
       <c r="CO34" s="43"/>
       <c r="CP34" s="43"/>
       <c r="CQ34" s="49"/>
-      <c r="CR34" s="70"/>
+      <c r="CR34" s="60"/>
       <c r="CS34" s="49"/>
       <c r="CT34" s="49"/>
       <c r="CU34" s="49"/>
@@ -7316,7 +7310,7 @@
       <c r="DU34" s="43"/>
       <c r="DV34" s="43"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="35" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
@@ -7325,7 +7319,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="16"/>
       <c r="F35" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="16"/>
@@ -7349,16 +7343,16 @@
       <c r="V35" s="21"/>
       <c r="W35" s="27"/>
       <c r="X35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="15"/>
       <c r="Z35" s="16"/>
       <c r="AA35" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="46"/>
+        <v>66</v>
+      </c>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="41"/>
       <c r="AE35" s="43"/>
       <c r="AF35" s="43"/>
       <c r="AG35" s="43"/>
@@ -7410,20 +7404,20 @@
       <c r="CA35" s="43"/>
       <c r="CB35" s="43"/>
       <c r="CC35" s="49"/>
-      <c r="CD35" s="67"/>
-      <c r="CE35" s="68"/>
-      <c r="CF35" s="68"/>
+      <c r="CD35" s="60"/>
+      <c r="CE35" s="43"/>
+      <c r="CF35" s="43"/>
       <c r="CG35" s="43"/>
       <c r="CH35" s="43"/>
-      <c r="CI35" s="43"/>
-      <c r="CJ35" s="43"/>
-      <c r="CK35" s="60"/>
-      <c r="CL35" s="43"/>
-      <c r="CM35" s="43"/>
+      <c r="CI35" s="69"/>
+      <c r="CJ35" s="64"/>
+      <c r="CK35" s="49"/>
+      <c r="CL35" s="65"/>
+      <c r="CM35" s="61"/>
       <c r="CN35" s="43"/>
       <c r="CO35" s="43"/>
       <c r="CP35" s="43"/>
-      <c r="CQ35" s="70"/>
+      <c r="CQ35" s="49"/>
       <c r="CR35" s="60"/>
       <c r="CS35" s="49"/>
       <c r="CT35" s="49"/>
@@ -7456,7 +7450,7 @@
       <c r="DU35" s="43"/>
       <c r="DV35" s="43"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="36" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
@@ -7465,7 +7459,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="16"/>
       <c r="F36" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="16"/>
@@ -7494,11 +7488,11 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="16"/>
       <c r="AA36" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="46"/>
+        <v>66</v>
+      </c>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="41"/>
       <c r="AE36" s="43"/>
       <c r="AF36" s="43"/>
       <c r="AG36" s="43"/>
@@ -7550,17 +7544,17 @@
       <c r="CA36" s="43"/>
       <c r="CB36" s="43"/>
       <c r="CC36" s="49"/>
-      <c r="CD36" s="67"/>
-      <c r="CE36" s="68"/>
-      <c r="CF36" s="68"/>
+      <c r="CD36" s="60"/>
+      <c r="CE36" s="43"/>
+      <c r="CF36" s="43"/>
       <c r="CG36" s="43"/>
       <c r="CH36" s="43"/>
-      <c r="CI36" s="62"/>
-      <c r="CJ36" s="64"/>
-      <c r="CK36" s="61"/>
+      <c r="CI36" s="43"/>
+      <c r="CJ36" s="43"/>
+      <c r="CK36" s="49"/>
       <c r="CL36" s="43"/>
-      <c r="CM36" s="43"/>
-      <c r="CN36" s="43"/>
+      <c r="CM36" s="69"/>
+      <c r="CN36" s="64"/>
       <c r="CO36" s="43"/>
       <c r="CP36" s="43"/>
       <c r="CQ36" s="49"/>
@@ -7605,12 +7599,12 @@
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="16"/>
       <c r="I37" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>95</v>
@@ -7629,7 +7623,7 @@
       <c r="V37" s="21"/>
       <c r="W37" s="27"/>
       <c r="X37" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="15"/>
       <c r="Z37" s="16"/>
@@ -7695,16 +7689,16 @@
       <c r="CF37" s="43"/>
       <c r="CG37" s="43"/>
       <c r="CH37" s="43"/>
-      <c r="CI37" s="69"/>
-      <c r="CJ37" s="64"/>
-      <c r="CK37" s="49"/>
-      <c r="CL37" s="65"/>
-      <c r="CM37" s="61"/>
+      <c r="CI37" s="43"/>
+      <c r="CJ37" s="43"/>
+      <c r="CK37" s="60"/>
+      <c r="CL37" s="43"/>
+      <c r="CM37" s="43"/>
       <c r="CN37" s="43"/>
       <c r="CO37" s="43"/>
       <c r="CP37" s="43"/>
       <c r="CQ37" s="49"/>
-      <c r="CR37" s="60"/>
+      <c r="CR37" s="64"/>
       <c r="CS37" s="49"/>
       <c r="CT37" s="49"/>
       <c r="CU37" s="49"/>
@@ -7745,7 +7739,7 @@
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
       <c r="F38" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="16"/>
@@ -7769,12 +7763,12 @@
       <c r="V38" s="21"/>
       <c r="W38" s="27"/>
       <c r="X38" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="15"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="39" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB38" s="40"/>
       <c r="AC38" s="40"/>
@@ -7784,95 +7778,95 @@
       <c r="AG38" s="43"/>
       <c r="AH38" s="43"/>
       <c r="AI38" s="43"/>
-      <c r="AJ38" s="49"/>
-      <c r="AK38" s="49"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
       <c r="AL38" s="43"/>
       <c r="AM38" s="43"/>
       <c r="AN38" s="43"/>
       <c r="AO38" s="43"/>
       <c r="AP38" s="43"/>
-      <c r="AQ38" s="49"/>
-      <c r="AR38" s="49"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
       <c r="AS38" s="43"/>
       <c r="AT38" s="43"/>
       <c r="AU38" s="43"/>
       <c r="AV38" s="43"/>
       <c r="AW38" s="43"/>
-      <c r="AX38" s="49"/>
-      <c r="AY38" s="49"/>
+      <c r="AX38" s="48"/>
+      <c r="AY38" s="48"/>
       <c r="AZ38" s="43"/>
       <c r="BA38" s="43"/>
       <c r="BB38" s="43"/>
       <c r="BC38" s="43"/>
       <c r="BD38" s="43"/>
-      <c r="BE38" s="49"/>
-      <c r="BF38" s="49"/>
+      <c r="BE38" s="48"/>
+      <c r="BF38" s="48"/>
       <c r="BG38" s="43"/>
-      <c r="BH38" s="54"/>
+      <c r="BH38" s="18"/>
       <c r="BI38" s="43"/>
       <c r="BJ38" s="43"/>
       <c r="BK38" s="43"/>
-      <c r="BL38" s="49"/>
-      <c r="BM38" s="49"/>
+      <c r="BL38" s="48"/>
+      <c r="BM38" s="48"/>
       <c r="BN38" s="43"/>
-      <c r="BO38" s="60"/>
-      <c r="BP38" s="49"/>
+      <c r="BO38" s="59"/>
+      <c r="BP38" s="48"/>
       <c r="BQ38" s="43"/>
       <c r="BR38" s="43"/>
       <c r="BS38" s="43"/>
       <c r="BT38" s="43"/>
       <c r="BU38" s="43"/>
-      <c r="BV38" s="49"/>
-      <c r="BW38" s="60"/>
+      <c r="BV38" s="48"/>
+      <c r="BW38" s="59"/>
       <c r="BX38" s="43"/>
       <c r="BY38" s="43"/>
       <c r="BZ38" s="43"/>
       <c r="CA38" s="43"/>
       <c r="CB38" s="43"/>
-      <c r="CC38" s="49"/>
-      <c r="CD38" s="60"/>
+      <c r="CC38" s="48"/>
+      <c r="CD38" s="59"/>
       <c r="CE38" s="43"/>
       <c r="CF38" s="43"/>
       <c r="CG38" s="43"/>
       <c r="CH38" s="43"/>
       <c r="CI38" s="43"/>
       <c r="CJ38" s="43"/>
-      <c r="CK38" s="49"/>
+      <c r="CK38" s="48"/>
       <c r="CL38" s="43"/>
-      <c r="CM38" s="69"/>
-      <c r="CN38" s="64"/>
+      <c r="CM38" s="61"/>
+      <c r="CN38" s="43"/>
       <c r="CO38" s="43"/>
       <c r="CP38" s="43"/>
-      <c r="CQ38" s="49"/>
-      <c r="CR38" s="60"/>
-      <c r="CS38" s="49"/>
-      <c r="CT38" s="49"/>
-      <c r="CU38" s="49"/>
+      <c r="CQ38" s="48"/>
+      <c r="CR38" s="59"/>
+      <c r="CS38" s="48"/>
+      <c r="CT38" s="48"/>
+      <c r="CU38" s="48"/>
       <c r="CV38" s="43"/>
       <c r="CW38" s="43"/>
-      <c r="CX38" s="49"/>
-      <c r="CY38" s="60"/>
+      <c r="CX38" s="48"/>
+      <c r="CY38" s="59"/>
       <c r="CZ38" s="43"/>
       <c r="DA38" s="43"/>
       <c r="DB38" s="43"/>
       <c r="DC38" s="43"/>
       <c r="DD38" s="43"/>
-      <c r="DE38" s="49"/>
-      <c r="DF38" s="60"/>
+      <c r="DE38" s="48"/>
+      <c r="DF38" s="59"/>
       <c r="DG38" s="43"/>
       <c r="DH38" s="43"/>
       <c r="DI38" s="43"/>
       <c r="DJ38" s="43"/>
       <c r="DK38" s="43"/>
-      <c r="DL38" s="49"/>
-      <c r="DM38" s="60"/>
+      <c r="DL38" s="48"/>
+      <c r="DM38" s="59"/>
       <c r="DN38" s="43"/>
       <c r="DO38" s="43"/>
       <c r="DP38" s="43"/>
       <c r="DQ38" s="43"/>
       <c r="DR38" s="43"/>
-      <c r="DS38" s="49"/>
-      <c r="DT38" s="60"/>
+      <c r="DS38" s="48"/>
+      <c r="DT38" s="59"/>
       <c r="DU38" s="43"/>
       <c r="DV38" s="43"/>
     </row>
@@ -7885,12 +7879,12 @@
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
       <c r="I39" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>97</v>
@@ -7909,12 +7903,12 @@
       <c r="V39" s="21"/>
       <c r="W39" s="27"/>
       <c r="X39" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="15"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="39" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
@@ -7924,95 +7918,95 @@
       <c r="AG39" s="43"/>
       <c r="AH39" s="43"/>
       <c r="AI39" s="43"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
       <c r="AL39" s="43"/>
       <c r="AM39" s="43"/>
       <c r="AN39" s="43"/>
       <c r="AO39" s="43"/>
       <c r="AP39" s="43"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="49"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
       <c r="AS39" s="43"/>
       <c r="AT39" s="43"/>
       <c r="AU39" s="43"/>
       <c r="AV39" s="43"/>
       <c r="AW39" s="43"/>
-      <c r="AX39" s="49"/>
-      <c r="AY39" s="49"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
       <c r="AZ39" s="43"/>
       <c r="BA39" s="43"/>
       <c r="BB39" s="43"/>
       <c r="BC39" s="43"/>
       <c r="BD39" s="43"/>
-      <c r="BE39" s="49"/>
-      <c r="BF39" s="49"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
       <c r="BG39" s="43"/>
-      <c r="BH39" s="54"/>
+      <c r="BH39" s="18"/>
       <c r="BI39" s="43"/>
       <c r="BJ39" s="43"/>
       <c r="BK39" s="43"/>
-      <c r="BL39" s="49"/>
-      <c r="BM39" s="49"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="48"/>
       <c r="BN39" s="43"/>
-      <c r="BO39" s="60"/>
-      <c r="BP39" s="49"/>
+      <c r="BO39" s="59"/>
+      <c r="BP39" s="48"/>
       <c r="BQ39" s="43"/>
       <c r="BR39" s="43"/>
       <c r="BS39" s="43"/>
       <c r="BT39" s="43"/>
       <c r="BU39" s="43"/>
-      <c r="BV39" s="49"/>
-      <c r="BW39" s="60"/>
+      <c r="BV39" s="48"/>
+      <c r="BW39" s="59"/>
       <c r="BX39" s="43"/>
       <c r="BY39" s="43"/>
       <c r="BZ39" s="43"/>
       <c r="CA39" s="43"/>
       <c r="CB39" s="43"/>
-      <c r="CC39" s="49"/>
-      <c r="CD39" s="60"/>
+      <c r="CC39" s="48"/>
+      <c r="CD39" s="59"/>
       <c r="CE39" s="43"/>
       <c r="CF39" s="43"/>
       <c r="CG39" s="43"/>
       <c r="CH39" s="43"/>
       <c r="CI39" s="43"/>
-      <c r="CJ39" s="43"/>
-      <c r="CK39" s="60"/>
-      <c r="CL39" s="43"/>
-      <c r="CM39" s="43"/>
+      <c r="CJ39" s="62"/>
+      <c r="CK39" s="48"/>
+      <c r="CL39" s="64"/>
+      <c r="CM39" s="65"/>
       <c r="CN39" s="43"/>
       <c r="CO39" s="43"/>
       <c r="CP39" s="43"/>
-      <c r="CQ39" s="49"/>
-      <c r="CR39" s="64"/>
-      <c r="CS39" s="49"/>
-      <c r="CT39" s="49"/>
-      <c r="CU39" s="49"/>
+      <c r="CQ39" s="48"/>
+      <c r="CR39" s="59"/>
+      <c r="CS39" s="48"/>
+      <c r="CT39" s="48"/>
+      <c r="CU39" s="48"/>
       <c r="CV39" s="43"/>
       <c r="CW39" s="43"/>
-      <c r="CX39" s="49"/>
-      <c r="CY39" s="60"/>
+      <c r="CX39" s="48"/>
+      <c r="CY39" s="59"/>
       <c r="CZ39" s="43"/>
       <c r="DA39" s="43"/>
       <c r="DB39" s="43"/>
       <c r="DC39" s="43"/>
       <c r="DD39" s="43"/>
-      <c r="DE39" s="49"/>
-      <c r="DF39" s="60"/>
+      <c r="DE39" s="48"/>
+      <c r="DF39" s="59"/>
       <c r="DG39" s="43"/>
       <c r="DH39" s="43"/>
       <c r="DI39" s="43"/>
       <c r="DJ39" s="43"/>
       <c r="DK39" s="43"/>
-      <c r="DL39" s="49"/>
-      <c r="DM39" s="60"/>
+      <c r="DL39" s="48"/>
+      <c r="DM39" s="59"/>
       <c r="DN39" s="43"/>
       <c r="DO39" s="43"/>
       <c r="DP39" s="43"/>
       <c r="DQ39" s="43"/>
       <c r="DR39" s="43"/>
-      <c r="DS39" s="49"/>
-      <c r="DT39" s="60"/>
+      <c r="DS39" s="48"/>
+      <c r="DT39" s="59"/>
       <c r="DU39" s="43"/>
       <c r="DV39" s="43"/>
     </row>
@@ -8025,7 +8019,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
       <c r="F40" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="16"/>
@@ -8049,7 +8043,7 @@
       <c r="V40" s="21"/>
       <c r="W40" s="27"/>
       <c r="X40" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y40" s="15"/>
       <c r="Z40" s="16"/>
@@ -8115,11 +8109,11 @@
       <c r="CF40" s="43"/>
       <c r="CG40" s="43"/>
       <c r="CH40" s="43"/>
-      <c r="CI40" s="43"/>
-      <c r="CJ40" s="43"/>
+      <c r="CI40" s="62"/>
+      <c r="CJ40" s="64"/>
       <c r="CK40" s="48"/>
       <c r="CL40" s="43"/>
-      <c r="CM40" s="64"/>
+      <c r="CM40" s="65"/>
       <c r="CN40" s="43"/>
       <c r="CO40" s="43"/>
       <c r="CP40" s="43"/>
@@ -8165,7 +8159,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
@@ -8189,12 +8183,12 @@
       <c r="V41" s="21"/>
       <c r="W41" s="27"/>
       <c r="X41" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="15"/>
       <c r="Z41" s="16"/>
       <c r="AA41" s="39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB41" s="40"/>
       <c r="AC41" s="40"/>
@@ -8256,8 +8250,8 @@
       <c r="CG41" s="43"/>
       <c r="CH41" s="43"/>
       <c r="CI41" s="43"/>
-      <c r="CJ41" s="62"/>
-      <c r="CK41" s="48"/>
+      <c r="CJ41" s="43"/>
+      <c r="CK41" s="62"/>
       <c r="CL41" s="64"/>
       <c r="CM41" s="43"/>
       <c r="CN41" s="43"/>
@@ -8305,7 +8299,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
       <c r="F42" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
@@ -8329,12 +8323,12 @@
       <c r="V42" s="21"/>
       <c r="W42" s="27"/>
       <c r="X42" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="15"/>
       <c r="Z42" s="16"/>
       <c r="AA42" s="39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB42" s="40"/>
       <c r="AC42" s="40"/>
@@ -8395,9 +8389,9 @@
       <c r="CF42" s="43"/>
       <c r="CG42" s="43"/>
       <c r="CH42" s="43"/>
-      <c r="CI42" s="62"/>
-      <c r="CJ42" s="64"/>
-      <c r="CK42" s="48"/>
+      <c r="CI42" s="43"/>
+      <c r="CJ42" s="62"/>
+      <c r="CK42" s="64"/>
       <c r="CL42" s="43"/>
       <c r="CM42" s="43"/>
       <c r="CN42" s="43"/>
@@ -8445,12 +8439,12 @@
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
       <c r="F43" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
       <c r="I43" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>101</v>
@@ -8474,7 +8468,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB43" s="40"/>
       <c r="AC43" s="40"/>
@@ -8537,12 +8531,12 @@
       <c r="CH43" s="43"/>
       <c r="CI43" s="43"/>
       <c r="CJ43" s="43"/>
-      <c r="CK43" s="62"/>
-      <c r="CL43" s="64"/>
+      <c r="CK43" s="43"/>
+      <c r="CL43" s="43"/>
       <c r="CM43" s="43"/>
-      <c r="CN43" s="43"/>
-      <c r="CO43" s="43"/>
-      <c r="CP43" s="43"/>
+      <c r="CN43" s="62"/>
+      <c r="CO43" s="62"/>
+      <c r="CP43" s="64"/>
       <c r="CQ43" s="48"/>
       <c r="CR43" s="59"/>
       <c r="CS43" s="48"/>
@@ -8585,12 +8579,12 @@
       <c r="D44" s="15"/>
       <c r="E44" s="16"/>
       <c r="F44" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>102</v>
@@ -8609,12 +8603,12 @@
       <c r="V44" s="21"/>
       <c r="W44" s="27"/>
       <c r="X44" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y44" s="15"/>
       <c r="Z44" s="16"/>
       <c r="AA44" s="39" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AB44" s="40"/>
       <c r="AC44" s="40"/>
@@ -8624,95 +8618,95 @@
       <c r="AG44" s="43"/>
       <c r="AH44" s="43"/>
       <c r="AI44" s="43"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="49"/>
       <c r="AL44" s="43"/>
       <c r="AM44" s="43"/>
       <c r="AN44" s="43"/>
       <c r="AO44" s="43"/>
       <c r="AP44" s="43"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="49"/>
       <c r="AS44" s="43"/>
       <c r="AT44" s="43"/>
       <c r="AU44" s="43"/>
       <c r="AV44" s="43"/>
       <c r="AW44" s="43"/>
-      <c r="AX44" s="48"/>
-      <c r="AY44" s="48"/>
+      <c r="AX44" s="49"/>
+      <c r="AY44" s="49"/>
       <c r="AZ44" s="43"/>
       <c r="BA44" s="43"/>
       <c r="BB44" s="43"/>
       <c r="BC44" s="43"/>
       <c r="BD44" s="43"/>
-      <c r="BE44" s="48"/>
-      <c r="BF44" s="48"/>
+      <c r="BE44" s="49"/>
+      <c r="BF44" s="49"/>
       <c r="BG44" s="43"/>
-      <c r="BH44" s="18"/>
+      <c r="BH44" s="54"/>
       <c r="BI44" s="43"/>
       <c r="BJ44" s="43"/>
       <c r="BK44" s="43"/>
-      <c r="BL44" s="48"/>
-      <c r="BM44" s="48"/>
+      <c r="BL44" s="49"/>
+      <c r="BM44" s="49"/>
       <c r="BN44" s="43"/>
-      <c r="BO44" s="59"/>
-      <c r="BP44" s="48"/>
+      <c r="BO44" s="60"/>
+      <c r="BP44" s="49"/>
       <c r="BQ44" s="43"/>
       <c r="BR44" s="43"/>
       <c r="BS44" s="43"/>
       <c r="BT44" s="43"/>
       <c r="BU44" s="43"/>
-      <c r="BV44" s="48"/>
-      <c r="BW44" s="59"/>
+      <c r="BV44" s="49"/>
+      <c r="BW44" s="60"/>
       <c r="BX44" s="43"/>
       <c r="BY44" s="43"/>
       <c r="BZ44" s="43"/>
       <c r="CA44" s="43"/>
       <c r="CB44" s="43"/>
-      <c r="CC44" s="48"/>
-      <c r="CD44" s="59"/>
+      <c r="CC44" s="49"/>
+      <c r="CD44" s="60"/>
       <c r="CE44" s="43"/>
       <c r="CF44" s="43"/>
       <c r="CG44" s="43"/>
       <c r="CH44" s="43"/>
       <c r="CI44" s="43"/>
-      <c r="CJ44" s="62"/>
-      <c r="CK44" s="64"/>
+      <c r="CJ44" s="43"/>
+      <c r="CK44" s="60"/>
       <c r="CL44" s="43"/>
       <c r="CM44" s="43"/>
       <c r="CN44" s="43"/>
-      <c r="CO44" s="43"/>
-      <c r="CP44" s="43"/>
-      <c r="CQ44" s="48"/>
-      <c r="CR44" s="59"/>
-      <c r="CS44" s="48"/>
-      <c r="CT44" s="48"/>
-      <c r="CU44" s="48"/>
+      <c r="CO44" s="69"/>
+      <c r="CP44" s="69"/>
+      <c r="CQ44" s="64"/>
+      <c r="CR44" s="60"/>
+      <c r="CS44" s="49"/>
+      <c r="CT44" s="49"/>
+      <c r="CU44" s="49"/>
       <c r="CV44" s="43"/>
       <c r="CW44" s="43"/>
-      <c r="CX44" s="48"/>
-      <c r="CY44" s="59"/>
+      <c r="CX44" s="49"/>
+      <c r="CY44" s="60"/>
       <c r="CZ44" s="43"/>
       <c r="DA44" s="43"/>
       <c r="DB44" s="43"/>
       <c r="DC44" s="43"/>
       <c r="DD44" s="43"/>
-      <c r="DE44" s="48"/>
-      <c r="DF44" s="59"/>
+      <c r="DE44" s="49"/>
+      <c r="DF44" s="60"/>
       <c r="DG44" s="43"/>
       <c r="DH44" s="43"/>
       <c r="DI44" s="43"/>
       <c r="DJ44" s="43"/>
       <c r="DK44" s="43"/>
-      <c r="DL44" s="48"/>
-      <c r="DM44" s="59"/>
+      <c r="DL44" s="49"/>
+      <c r="DM44" s="60"/>
       <c r="DN44" s="43"/>
       <c r="DO44" s="43"/>
       <c r="DP44" s="43"/>
       <c r="DQ44" s="43"/>
       <c r="DR44" s="43"/>
-      <c r="DS44" s="48"/>
-      <c r="DT44" s="59"/>
+      <c r="DS44" s="49"/>
+      <c r="DT44" s="60"/>
       <c r="DU44" s="43"/>
       <c r="DV44" s="43"/>
     </row>
@@ -8725,12 +8719,12 @@
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="16"/>
       <c r="I45" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>103</v>
@@ -8754,7 +8748,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="39" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AB45" s="40"/>
       <c r="AC45" s="40"/>
@@ -8764,95 +8758,95 @@
       <c r="AG45" s="43"/>
       <c r="AH45" s="43"/>
       <c r="AI45" s="43"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="48"/>
+      <c r="AJ45" s="49"/>
+      <c r="AK45" s="49"/>
       <c r="AL45" s="43"/>
       <c r="AM45" s="43"/>
       <c r="AN45" s="43"/>
       <c r="AO45" s="43"/>
       <c r="AP45" s="43"/>
-      <c r="AQ45" s="48"/>
-      <c r="AR45" s="48"/>
+      <c r="AQ45" s="49"/>
+      <c r="AR45" s="49"/>
       <c r="AS45" s="43"/>
       <c r="AT45" s="43"/>
       <c r="AU45" s="43"/>
       <c r="AV45" s="43"/>
       <c r="AW45" s="43"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="48"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
       <c r="AZ45" s="43"/>
       <c r="BA45" s="43"/>
       <c r="BB45" s="43"/>
       <c r="BC45" s="43"/>
       <c r="BD45" s="43"/>
-      <c r="BE45" s="48"/>
-      <c r="BF45" s="48"/>
+      <c r="BE45" s="49"/>
+      <c r="BF45" s="49"/>
       <c r="BG45" s="43"/>
-      <c r="BH45" s="18"/>
+      <c r="BH45" s="54"/>
       <c r="BI45" s="43"/>
       <c r="BJ45" s="43"/>
       <c r="BK45" s="43"/>
-      <c r="BL45" s="48"/>
-      <c r="BM45" s="48"/>
+      <c r="BL45" s="49"/>
+      <c r="BM45" s="49"/>
       <c r="BN45" s="43"/>
-      <c r="BO45" s="59"/>
-      <c r="BP45" s="48"/>
+      <c r="BO45" s="60"/>
+      <c r="BP45" s="49"/>
       <c r="BQ45" s="43"/>
       <c r="BR45" s="43"/>
       <c r="BS45" s="43"/>
       <c r="BT45" s="43"/>
       <c r="BU45" s="43"/>
-      <c r="BV45" s="48"/>
-      <c r="BW45" s="59"/>
+      <c r="BV45" s="49"/>
+      <c r="BW45" s="60"/>
       <c r="BX45" s="43"/>
       <c r="BY45" s="43"/>
       <c r="BZ45" s="43"/>
       <c r="CA45" s="43"/>
       <c r="CB45" s="43"/>
-      <c r="CC45" s="48"/>
-      <c r="CD45" s="59"/>
+      <c r="CC45" s="49"/>
+      <c r="CD45" s="60"/>
       <c r="CE45" s="43"/>
       <c r="CF45" s="43"/>
       <c r="CG45" s="43"/>
       <c r="CH45" s="43"/>
       <c r="CI45" s="43"/>
       <c r="CJ45" s="43"/>
-      <c r="CK45" s="43"/>
+      <c r="CK45" s="60"/>
       <c r="CL45" s="43"/>
       <c r="CM45" s="43"/>
-      <c r="CN45" s="62"/>
-      <c r="CO45" s="62"/>
-      <c r="CP45" s="64"/>
-      <c r="CQ45" s="48"/>
-      <c r="CR45" s="59"/>
-      <c r="CS45" s="48"/>
-      <c r="CT45" s="48"/>
-      <c r="CU45" s="48"/>
+      <c r="CN45" s="43"/>
+      <c r="CO45" s="43"/>
+      <c r="CP45" s="43"/>
+      <c r="CQ45" s="43"/>
+      <c r="CR45" s="60"/>
+      <c r="CS45" s="60"/>
+      <c r="CT45" s="64"/>
+      <c r="CU45" s="49"/>
       <c r="CV45" s="43"/>
       <c r="CW45" s="43"/>
-      <c r="CX45" s="48"/>
-      <c r="CY45" s="59"/>
+      <c r="CX45" s="49"/>
+      <c r="CY45" s="60"/>
       <c r="CZ45" s="43"/>
       <c r="DA45" s="43"/>
       <c r="DB45" s="43"/>
       <c r="DC45" s="43"/>
       <c r="DD45" s="43"/>
-      <c r="DE45" s="48"/>
-      <c r="DF45" s="59"/>
+      <c r="DE45" s="49"/>
+      <c r="DF45" s="60"/>
       <c r="DG45" s="43"/>
       <c r="DH45" s="43"/>
       <c r="DI45" s="43"/>
       <c r="DJ45" s="43"/>
       <c r="DK45" s="43"/>
-      <c r="DL45" s="48"/>
-      <c r="DM45" s="59"/>
+      <c r="DL45" s="49"/>
+      <c r="DM45" s="60"/>
       <c r="DN45" s="43"/>
       <c r="DO45" s="43"/>
       <c r="DP45" s="43"/>
       <c r="DQ45" s="43"/>
       <c r="DR45" s="43"/>
-      <c r="DS45" s="48"/>
-      <c r="DT45" s="59"/>
+      <c r="DS45" s="49"/>
+      <c r="DT45" s="60"/>
       <c r="DU45" s="43"/>
       <c r="DV45" s="43"/>
     </row>
@@ -8865,7 +8859,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="16"/>
       <c r="F46" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
@@ -8889,12 +8883,12 @@
       <c r="V46" s="21"/>
       <c r="W46" s="27"/>
       <c r="X46" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y46" s="15"/>
       <c r="Z46" s="16"/>
       <c r="AA46" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB46" s="40"/>
       <c r="AC46" s="40"/>
@@ -8958,12 +8952,12 @@
       <c r="CI46" s="43"/>
       <c r="CJ46" s="43"/>
       <c r="CK46" s="60"/>
-      <c r="CL46" s="43"/>
-      <c r="CM46" s="43"/>
+      <c r="CL46" s="62"/>
+      <c r="CM46" s="61"/>
       <c r="CN46" s="43"/>
-      <c r="CO46" s="69"/>
-      <c r="CP46" s="69"/>
-      <c r="CQ46" s="64"/>
+      <c r="CO46" s="43"/>
+      <c r="CP46" s="43"/>
+      <c r="CQ46" s="49"/>
       <c r="CR46" s="60"/>
       <c r="CS46" s="49"/>
       <c r="CT46" s="49"/>
@@ -9005,12 +8999,12 @@
       <c r="D47" s="15"/>
       <c r="E47" s="16"/>
       <c r="F47" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="16"/>
       <c r="I47" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>105</v>
@@ -9034,7 +9028,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="16"/>
       <c r="AA47" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB47" s="40"/>
       <c r="AC47" s="40"/>
@@ -9103,12 +9097,12 @@
       <c r="CN47" s="43"/>
       <c r="CO47" s="43"/>
       <c r="CP47" s="43"/>
-      <c r="CQ47" s="43"/>
-      <c r="CR47" s="60"/>
-      <c r="CS47" s="60"/>
-      <c r="CT47" s="64"/>
+      <c r="CQ47" s="49"/>
+      <c r="CR47" s="49"/>
+      <c r="CS47" s="49"/>
+      <c r="CT47" s="49"/>
       <c r="CU47" s="49"/>
-      <c r="CV47" s="43"/>
+      <c r="CV47" s="64"/>
       <c r="CW47" s="43"/>
       <c r="CX47" s="49"/>
       <c r="CY47" s="60"/>
@@ -9145,12 +9139,12 @@
       <c r="D48" s="15"/>
       <c r="E48" s="16"/>
       <c r="F48" s="14" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="16"/>
       <c r="I48" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>106</v>
@@ -9169,12 +9163,12 @@
       <c r="V48" s="21"/>
       <c r="W48" s="27"/>
       <c r="X48" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y48" s="15"/>
       <c r="Z48" s="16"/>
       <c r="AA48" s="39" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AB48" s="40"/>
       <c r="AC48" s="40"/>
@@ -9184,95 +9178,95 @@
       <c r="AG48" s="43"/>
       <c r="AH48" s="43"/>
       <c r="AI48" s="43"/>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
+      <c r="AJ48" s="48"/>
+      <c r="AK48" s="48"/>
       <c r="AL48" s="43"/>
       <c r="AM48" s="43"/>
       <c r="AN48" s="43"/>
       <c r="AO48" s="43"/>
       <c r="AP48" s="43"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="49"/>
+      <c r="AQ48" s="48"/>
+      <c r="AR48" s="48"/>
       <c r="AS48" s="43"/>
       <c r="AT48" s="43"/>
       <c r="AU48" s="43"/>
       <c r="AV48" s="43"/>
       <c r="AW48" s="43"/>
-      <c r="AX48" s="49"/>
-      <c r="AY48" s="49"/>
+      <c r="AX48" s="48"/>
+      <c r="AY48" s="48"/>
       <c r="AZ48" s="43"/>
       <c r="BA48" s="43"/>
       <c r="BB48" s="43"/>
       <c r="BC48" s="43"/>
       <c r="BD48" s="43"/>
-      <c r="BE48" s="49"/>
-      <c r="BF48" s="49"/>
+      <c r="BE48" s="48"/>
+      <c r="BF48" s="48"/>
       <c r="BG48" s="43"/>
-      <c r="BH48" s="54"/>
+      <c r="BH48" s="18"/>
       <c r="BI48" s="43"/>
       <c r="BJ48" s="43"/>
       <c r="BK48" s="43"/>
-      <c r="BL48" s="49"/>
-      <c r="BM48" s="49"/>
+      <c r="BL48" s="48"/>
+      <c r="BM48" s="48"/>
       <c r="BN48" s="43"/>
-      <c r="BO48" s="60"/>
-      <c r="BP48" s="49"/>
+      <c r="BO48" s="59"/>
+      <c r="BP48" s="48"/>
       <c r="BQ48" s="43"/>
       <c r="BR48" s="43"/>
       <c r="BS48" s="43"/>
       <c r="BT48" s="43"/>
       <c r="BU48" s="43"/>
-      <c r="BV48" s="49"/>
-      <c r="BW48" s="60"/>
+      <c r="BV48" s="48"/>
+      <c r="BW48" s="59"/>
       <c r="BX48" s="43"/>
       <c r="BY48" s="43"/>
       <c r="BZ48" s="43"/>
       <c r="CA48" s="43"/>
       <c r="CB48" s="43"/>
-      <c r="CC48" s="49"/>
-      <c r="CD48" s="60"/>
+      <c r="CC48" s="48"/>
+      <c r="CD48" s="59"/>
       <c r="CE48" s="43"/>
       <c r="CF48" s="43"/>
       <c r="CG48" s="43"/>
       <c r="CH48" s="43"/>
       <c r="CI48" s="43"/>
       <c r="CJ48" s="43"/>
-      <c r="CK48" s="60"/>
-      <c r="CL48" s="62"/>
-      <c r="CM48" s="61"/>
+      <c r="CK48" s="43"/>
+      <c r="CL48" s="43"/>
+      <c r="CM48" s="43"/>
       <c r="CN48" s="43"/>
       <c r="CO48" s="43"/>
       <c r="CP48" s="43"/>
-      <c r="CQ48" s="49"/>
-      <c r="CR48" s="60"/>
-      <c r="CS48" s="49"/>
-      <c r="CT48" s="49"/>
-      <c r="CU48" s="49"/>
+      <c r="CQ48" s="48"/>
+      <c r="CR48" s="59"/>
+      <c r="CS48" s="48"/>
+      <c r="CT48" s="48"/>
+      <c r="CU48" s="48"/>
       <c r="CV48" s="43"/>
       <c r="CW48" s="43"/>
-      <c r="CX48" s="49"/>
-      <c r="CY48" s="60"/>
+      <c r="CX48" s="48"/>
+      <c r="CY48" s="59"/>
       <c r="CZ48" s="43"/>
       <c r="DA48" s="43"/>
       <c r="DB48" s="43"/>
       <c r="DC48" s="43"/>
       <c r="DD48" s="43"/>
-      <c r="DE48" s="49"/>
-      <c r="DF48" s="60"/>
+      <c r="DE48" s="48"/>
+      <c r="DF48" s="59"/>
       <c r="DG48" s="43"/>
       <c r="DH48" s="43"/>
       <c r="DI48" s="43"/>
       <c r="DJ48" s="43"/>
       <c r="DK48" s="43"/>
-      <c r="DL48" s="49"/>
-      <c r="DM48" s="60"/>
+      <c r="DL48" s="48"/>
+      <c r="DM48" s="59"/>
       <c r="DN48" s="43"/>
       <c r="DO48" s="43"/>
       <c r="DP48" s="43"/>
       <c r="DQ48" s="43"/>
       <c r="DR48" s="43"/>
-      <c r="DS48" s="49"/>
-      <c r="DT48" s="60"/>
+      <c r="DS48" s="48"/>
+      <c r="DT48" s="59"/>
       <c r="DU48" s="43"/>
       <c r="DV48" s="43"/>
     </row>
@@ -9285,7 +9279,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="16"/>
       <c r="F49" s="14" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="16"/>
@@ -9309,12 +9303,12 @@
       <c r="V49" s="21"/>
       <c r="W49" s="27"/>
       <c r="X49" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y49" s="15"/>
       <c r="Z49" s="16"/>
       <c r="AA49" s="39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB49" s="40"/>
       <c r="AC49" s="40"/>
@@ -9373,8 +9367,8 @@
       <c r="CD49" s="60"/>
       <c r="CE49" s="43"/>
       <c r="CF49" s="43"/>
-      <c r="CG49" s="43"/>
-      <c r="CH49" s="43"/>
+      <c r="CG49" s="55"/>
+      <c r="CH49" s="61"/>
       <c r="CI49" s="43"/>
       <c r="CJ49" s="43"/>
       <c r="CK49" s="60"/>
@@ -9384,11 +9378,11 @@
       <c r="CO49" s="43"/>
       <c r="CP49" s="43"/>
       <c r="CQ49" s="49"/>
-      <c r="CR49" s="49"/>
+      <c r="CR49" s="60"/>
       <c r="CS49" s="49"/>
       <c r="CT49" s="49"/>
       <c r="CU49" s="49"/>
-      <c r="CV49" s="64"/>
+      <c r="CV49" s="43"/>
       <c r="CW49" s="43"/>
       <c r="CX49" s="49"/>
       <c r="CY49" s="60"/>
@@ -9416,7 +9410,7 @@
       <c r="DU49" s="43"/>
       <c r="DV49" s="43"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="50" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A50" s="13"/>
       <c r="B50" s="5"/>
       <c r="C50" s="14" t="s">
@@ -9449,110 +9443,110 @@
       <c r="V50" s="21"/>
       <c r="W50" s="27"/>
       <c r="X50" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="15"/>
       <c r="Z50" s="16"/>
       <c r="AA50" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="46"/>
       <c r="AE50" s="43"/>
       <c r="AF50" s="43"/>
       <c r="AG50" s="43"/>
       <c r="AH50" s="43"/>
       <c r="AI50" s="43"/>
-      <c r="AJ50" s="48"/>
-      <c r="AK50" s="48"/>
+      <c r="AJ50" s="49"/>
+      <c r="AK50" s="49"/>
       <c r="AL50" s="43"/>
       <c r="AM50" s="43"/>
       <c r="AN50" s="43"/>
       <c r="AO50" s="43"/>
       <c r="AP50" s="43"/>
-      <c r="AQ50" s="48"/>
-      <c r="AR50" s="48"/>
+      <c r="AQ50" s="49"/>
+      <c r="AR50" s="49"/>
       <c r="AS50" s="43"/>
       <c r="AT50" s="43"/>
       <c r="AU50" s="43"/>
       <c r="AV50" s="43"/>
       <c r="AW50" s="43"/>
-      <c r="AX50" s="48"/>
-      <c r="AY50" s="48"/>
+      <c r="AX50" s="49"/>
+      <c r="AY50" s="49"/>
       <c r="AZ50" s="43"/>
       <c r="BA50" s="43"/>
       <c r="BB50" s="43"/>
       <c r="BC50" s="43"/>
       <c r="BD50" s="43"/>
-      <c r="BE50" s="48"/>
-      <c r="BF50" s="48"/>
+      <c r="BE50" s="49"/>
+      <c r="BF50" s="49"/>
       <c r="BG50" s="43"/>
-      <c r="BH50" s="18"/>
+      <c r="BH50" s="54"/>
       <c r="BI50" s="43"/>
       <c r="BJ50" s="43"/>
       <c r="BK50" s="43"/>
-      <c r="BL50" s="48"/>
-      <c r="BM50" s="48"/>
+      <c r="BL50" s="49"/>
+      <c r="BM50" s="49"/>
       <c r="BN50" s="43"/>
-      <c r="BO50" s="59"/>
-      <c r="BP50" s="48"/>
+      <c r="BO50" s="60"/>
+      <c r="BP50" s="49"/>
       <c r="BQ50" s="43"/>
       <c r="BR50" s="43"/>
       <c r="BS50" s="43"/>
       <c r="BT50" s="43"/>
       <c r="BU50" s="43"/>
-      <c r="BV50" s="48"/>
-      <c r="BW50" s="59"/>
+      <c r="BV50" s="49"/>
+      <c r="BW50" s="60"/>
       <c r="BX50" s="43"/>
       <c r="BY50" s="43"/>
       <c r="BZ50" s="43"/>
       <c r="CA50" s="43"/>
       <c r="CB50" s="43"/>
-      <c r="CC50" s="48"/>
-      <c r="CD50" s="59"/>
-      <c r="CE50" s="43"/>
-      <c r="CF50" s="43"/>
-      <c r="CG50" s="43"/>
+      <c r="CC50" s="49"/>
+      <c r="CD50" s="67"/>
+      <c r="CE50" s="68"/>
+      <c r="CF50" s="68"/>
+      <c r="CG50" s="61"/>
       <c r="CH50" s="43"/>
       <c r="CI50" s="43"/>
-      <c r="CJ50" s="43"/>
-      <c r="CK50" s="43"/>
+      <c r="CJ50" s="49"/>
+      <c r="CK50" s="60"/>
       <c r="CL50" s="43"/>
       <c r="CM50" s="43"/>
       <c r="CN50" s="43"/>
       <c r="CO50" s="43"/>
       <c r="CP50" s="43"/>
-      <c r="CQ50" s="48"/>
-      <c r="CR50" s="59"/>
-      <c r="CS50" s="48"/>
-      <c r="CT50" s="48"/>
-      <c r="CU50" s="48"/>
+      <c r="CQ50" s="49"/>
+      <c r="CR50" s="60"/>
+      <c r="CS50" s="49"/>
+      <c r="CT50" s="49"/>
+      <c r="CU50" s="49"/>
       <c r="CV50" s="43"/>
       <c r="CW50" s="43"/>
-      <c r="CX50" s="48"/>
-      <c r="CY50" s="59"/>
+      <c r="CX50" s="49"/>
+      <c r="CY50" s="60"/>
       <c r="CZ50" s="43"/>
       <c r="DA50" s="43"/>
       <c r="DB50" s="43"/>
       <c r="DC50" s="43"/>
       <c r="DD50" s="43"/>
-      <c r="DE50" s="48"/>
-      <c r="DF50" s="59"/>
+      <c r="DE50" s="49"/>
+      <c r="DF50" s="60"/>
       <c r="DG50" s="43"/>
       <c r="DH50" s="43"/>
       <c r="DI50" s="43"/>
       <c r="DJ50" s="43"/>
       <c r="DK50" s="43"/>
-      <c r="DL50" s="48"/>
-      <c r="DM50" s="59"/>
+      <c r="DL50" s="49"/>
+      <c r="DM50" s="60"/>
       <c r="DN50" s="43"/>
       <c r="DO50" s="43"/>
       <c r="DP50" s="43"/>
       <c r="DQ50" s="43"/>
       <c r="DR50" s="43"/>
-      <c r="DS50" s="48"/>
-      <c r="DT50" s="59"/>
+      <c r="DS50" s="49"/>
+      <c r="DT50" s="60"/>
       <c r="DU50" s="43"/>
       <c r="DV50" s="43"/>
     </row>
@@ -9589,12 +9583,12 @@
       <c r="V51" s="21"/>
       <c r="W51" s="27"/>
       <c r="X51" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="15"/>
       <c r="Z51" s="16"/>
       <c r="AA51" s="39" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AB51" s="40"/>
       <c r="AC51" s="40"/>
@@ -9604,99 +9598,99 @@
       <c r="AG51" s="43"/>
       <c r="AH51" s="43"/>
       <c r="AI51" s="43"/>
-      <c r="AJ51" s="49"/>
-      <c r="AK51" s="49"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="48"/>
       <c r="AL51" s="43"/>
       <c r="AM51" s="43"/>
       <c r="AN51" s="43"/>
       <c r="AO51" s="43"/>
       <c r="AP51" s="43"/>
-      <c r="AQ51" s="49"/>
-      <c r="AR51" s="49"/>
+      <c r="AQ51" s="48"/>
+      <c r="AR51" s="48"/>
       <c r="AS51" s="43"/>
       <c r="AT51" s="43"/>
       <c r="AU51" s="43"/>
       <c r="AV51" s="43"/>
       <c r="AW51" s="43"/>
-      <c r="AX51" s="49"/>
-      <c r="AY51" s="49"/>
+      <c r="AX51" s="48"/>
+      <c r="AY51" s="48"/>
       <c r="AZ51" s="43"/>
       <c r="BA51" s="43"/>
       <c r="BB51" s="43"/>
       <c r="BC51" s="43"/>
       <c r="BD51" s="43"/>
-      <c r="BE51" s="49"/>
-      <c r="BF51" s="49"/>
+      <c r="BE51" s="48"/>
+      <c r="BF51" s="48"/>
       <c r="BG51" s="43"/>
-      <c r="BH51" s="54"/>
+      <c r="BH51" s="18"/>
       <c r="BI51" s="43"/>
       <c r="BJ51" s="43"/>
       <c r="BK51" s="43"/>
-      <c r="BL51" s="49"/>
-      <c r="BM51" s="49"/>
+      <c r="BL51" s="48"/>
+      <c r="BM51" s="48"/>
       <c r="BN51" s="43"/>
-      <c r="BO51" s="60"/>
-      <c r="BP51" s="49"/>
+      <c r="BO51" s="59"/>
+      <c r="BP51" s="48"/>
       <c r="BQ51" s="43"/>
       <c r="BR51" s="43"/>
       <c r="BS51" s="43"/>
       <c r="BT51" s="43"/>
       <c r="BU51" s="43"/>
-      <c r="BV51" s="49"/>
-      <c r="BW51" s="60"/>
+      <c r="BV51" s="48"/>
+      <c r="BW51" s="59"/>
       <c r="BX51" s="43"/>
       <c r="BY51" s="43"/>
       <c r="BZ51" s="43"/>
       <c r="CA51" s="43"/>
       <c r="CB51" s="43"/>
-      <c r="CC51" s="49"/>
-      <c r="CD51" s="60"/>
+      <c r="CC51" s="48"/>
+      <c r="CD51" s="68"/>
       <c r="CE51" s="43"/>
-      <c r="CF51" s="43"/>
-      <c r="CG51" s="55"/>
-      <c r="CH51" s="61"/>
+      <c r="CF51" s="61"/>
+      <c r="CG51" s="43"/>
+      <c r="CH51" s="43"/>
       <c r="CI51" s="43"/>
-      <c r="CJ51" s="43"/>
-      <c r="CK51" s="60"/>
+      <c r="CJ51" s="48"/>
+      <c r="CK51" s="59"/>
       <c r="CL51" s="43"/>
       <c r="CM51" s="43"/>
       <c r="CN51" s="43"/>
       <c r="CO51" s="43"/>
       <c r="CP51" s="43"/>
-      <c r="CQ51" s="49"/>
-      <c r="CR51" s="60"/>
-      <c r="CS51" s="49"/>
-      <c r="CT51" s="49"/>
-      <c r="CU51" s="49"/>
+      <c r="CQ51" s="48"/>
+      <c r="CR51" s="59"/>
+      <c r="CS51" s="48"/>
+      <c r="CT51" s="48"/>
+      <c r="CU51" s="48"/>
       <c r="CV51" s="43"/>
       <c r="CW51" s="43"/>
-      <c r="CX51" s="49"/>
-      <c r="CY51" s="60"/>
+      <c r="CX51" s="48"/>
+      <c r="CY51" s="59"/>
       <c r="CZ51" s="43"/>
       <c r="DA51" s="43"/>
       <c r="DB51" s="43"/>
       <c r="DC51" s="43"/>
       <c r="DD51" s="43"/>
-      <c r="DE51" s="49"/>
-      <c r="DF51" s="60"/>
+      <c r="DE51" s="48"/>
+      <c r="DF51" s="59"/>
       <c r="DG51" s="43"/>
       <c r="DH51" s="43"/>
       <c r="DI51" s="43"/>
       <c r="DJ51" s="43"/>
       <c r="DK51" s="43"/>
-      <c r="DL51" s="49"/>
-      <c r="DM51" s="60"/>
+      <c r="DL51" s="48"/>
+      <c r="DM51" s="59"/>
       <c r="DN51" s="43"/>
       <c r="DO51" s="43"/>
       <c r="DP51" s="43"/>
       <c r="DQ51" s="43"/>
       <c r="DR51" s="43"/>
-      <c r="DS51" s="49"/>
-      <c r="DT51" s="60"/>
+      <c r="DS51" s="48"/>
+      <c r="DT51" s="59"/>
       <c r="DU51" s="43"/>
       <c r="DV51" s="43"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="52" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A52" s="13"/>
       <c r="B52" s="5"/>
       <c r="C52" s="14" t="s">
@@ -9705,12 +9699,12 @@
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
       <c r="F52" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="16"/>
       <c r="I52" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>110</v>
@@ -9729,114 +9723,114 @@
       <c r="V52" s="21"/>
       <c r="W52" s="27"/>
       <c r="X52" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y52" s="15"/>
       <c r="Z52" s="16"/>
       <c r="AA52" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="41"/>
       <c r="AE52" s="43"/>
       <c r="AF52" s="43"/>
       <c r="AG52" s="43"/>
       <c r="AH52" s="43"/>
       <c r="AI52" s="43"/>
-      <c r="AJ52" s="49"/>
-      <c r="AK52" s="49"/>
+      <c r="AJ52" s="48"/>
+      <c r="AK52" s="48"/>
       <c r="AL52" s="43"/>
       <c r="AM52" s="43"/>
       <c r="AN52" s="43"/>
       <c r="AO52" s="43"/>
       <c r="AP52" s="43"/>
-      <c r="AQ52" s="49"/>
-      <c r="AR52" s="49"/>
+      <c r="AQ52" s="48"/>
+      <c r="AR52" s="48"/>
       <c r="AS52" s="43"/>
       <c r="AT52" s="43"/>
       <c r="AU52" s="43"/>
       <c r="AV52" s="43"/>
       <c r="AW52" s="43"/>
-      <c r="AX52" s="49"/>
-      <c r="AY52" s="49"/>
+      <c r="AX52" s="48"/>
+      <c r="AY52" s="48"/>
       <c r="AZ52" s="43"/>
       <c r="BA52" s="43"/>
       <c r="BB52" s="43"/>
       <c r="BC52" s="43"/>
       <c r="BD52" s="43"/>
-      <c r="BE52" s="49"/>
-      <c r="BF52" s="49"/>
+      <c r="BE52" s="48"/>
+      <c r="BF52" s="48"/>
       <c r="BG52" s="43"/>
-      <c r="BH52" s="54"/>
+      <c r="BH52" s="18"/>
       <c r="BI52" s="43"/>
       <c r="BJ52" s="43"/>
       <c r="BK52" s="43"/>
-      <c r="BL52" s="49"/>
-      <c r="BM52" s="49"/>
+      <c r="BL52" s="48"/>
+      <c r="BM52" s="48"/>
       <c r="BN52" s="43"/>
-      <c r="BO52" s="60"/>
-      <c r="BP52" s="49"/>
+      <c r="BO52" s="59"/>
+      <c r="BP52" s="48"/>
       <c r="BQ52" s="43"/>
       <c r="BR52" s="43"/>
       <c r="BS52" s="43"/>
       <c r="BT52" s="43"/>
       <c r="BU52" s="43"/>
-      <c r="BV52" s="49"/>
-      <c r="BW52" s="60"/>
+      <c r="BV52" s="48"/>
+      <c r="BW52" s="59"/>
       <c r="BX52" s="43"/>
       <c r="BY52" s="43"/>
       <c r="BZ52" s="43"/>
       <c r="CA52" s="43"/>
       <c r="CB52" s="43"/>
-      <c r="CC52" s="49"/>
-      <c r="CD52" s="67"/>
-      <c r="CE52" s="68"/>
-      <c r="CF52" s="68"/>
-      <c r="CG52" s="61"/>
+      <c r="CC52" s="48"/>
+      <c r="CD52" s="59"/>
+      <c r="CE52" s="43"/>
+      <c r="CF52" s="43"/>
+      <c r="CG52" s="43"/>
       <c r="CH52" s="43"/>
       <c r="CI52" s="43"/>
-      <c r="CJ52" s="49"/>
-      <c r="CK52" s="60"/>
+      <c r="CJ52" s="43"/>
+      <c r="CK52" s="43"/>
       <c r="CL52" s="43"/>
-      <c r="CM52" s="43"/>
+      <c r="CM52" s="62"/>
       <c r="CN52" s="43"/>
       <c r="CO52" s="43"/>
       <c r="CP52" s="43"/>
-      <c r="CQ52" s="49"/>
-      <c r="CR52" s="60"/>
-      <c r="CS52" s="49"/>
-      <c r="CT52" s="49"/>
-      <c r="CU52" s="49"/>
+      <c r="CQ52" s="48"/>
+      <c r="CR52" s="59"/>
+      <c r="CS52" s="48"/>
+      <c r="CT52" s="48"/>
+      <c r="CU52" s="48"/>
       <c r="CV52" s="43"/>
       <c r="CW52" s="43"/>
-      <c r="CX52" s="49"/>
-      <c r="CY52" s="60"/>
+      <c r="CX52" s="48"/>
+      <c r="CY52" s="59"/>
       <c r="CZ52" s="43"/>
       <c r="DA52" s="43"/>
       <c r="DB52" s="43"/>
       <c r="DC52" s="43"/>
       <c r="DD52" s="43"/>
-      <c r="DE52" s="49"/>
-      <c r="DF52" s="60"/>
+      <c r="DE52" s="48"/>
+      <c r="DF52" s="59"/>
       <c r="DG52" s="43"/>
       <c r="DH52" s="43"/>
       <c r="DI52" s="43"/>
       <c r="DJ52" s="43"/>
       <c r="DK52" s="43"/>
-      <c r="DL52" s="49"/>
-      <c r="DM52" s="60"/>
+      <c r="DL52" s="48"/>
+      <c r="DM52" s="59"/>
       <c r="DN52" s="43"/>
       <c r="DO52" s="43"/>
       <c r="DP52" s="43"/>
       <c r="DQ52" s="43"/>
       <c r="DR52" s="43"/>
-      <c r="DS52" s="49"/>
-      <c r="DT52" s="60"/>
+      <c r="DS52" s="48"/>
+      <c r="DT52" s="59"/>
       <c r="DU52" s="43"/>
       <c r="DV52" s="43"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="53" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A53" s="13"/>
       <c r="B53" s="5"/>
       <c r="C53" s="14" t="s">
@@ -9845,7 +9839,7 @@
       <c r="D53" s="15"/>
       <c r="E53" s="16"/>
       <c r="F53" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="16"/>
@@ -9869,114 +9863,114 @@
       <c r="V53" s="21"/>
       <c r="W53" s="27"/>
       <c r="X53" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y53" s="15"/>
       <c r="Z53" s="16"/>
       <c r="AA53" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="40"/>
-      <c r="AD53" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="46"/>
       <c r="AE53" s="43"/>
       <c r="AF53" s="43"/>
       <c r="AG53" s="43"/>
       <c r="AH53" s="43"/>
       <c r="AI53" s="43"/>
-      <c r="AJ53" s="48"/>
-      <c r="AK53" s="48"/>
+      <c r="AJ53" s="49"/>
+      <c r="AK53" s="49"/>
       <c r="AL53" s="43"/>
       <c r="AM53" s="43"/>
       <c r="AN53" s="43"/>
       <c r="AO53" s="43"/>
       <c r="AP53" s="43"/>
-      <c r="AQ53" s="48"/>
-      <c r="AR53" s="48"/>
+      <c r="AQ53" s="49"/>
+      <c r="AR53" s="49"/>
       <c r="AS53" s="43"/>
       <c r="AT53" s="43"/>
       <c r="AU53" s="43"/>
       <c r="AV53" s="43"/>
       <c r="AW53" s="43"/>
-      <c r="AX53" s="48"/>
-      <c r="AY53" s="48"/>
+      <c r="AX53" s="49"/>
+      <c r="AY53" s="49"/>
       <c r="AZ53" s="43"/>
       <c r="BA53" s="43"/>
       <c r="BB53" s="43"/>
       <c r="BC53" s="43"/>
       <c r="BD53" s="43"/>
-      <c r="BE53" s="48"/>
-      <c r="BF53" s="48"/>
+      <c r="BE53" s="49"/>
+      <c r="BF53" s="49"/>
       <c r="BG53" s="43"/>
-      <c r="BH53" s="18"/>
+      <c r="BH53" s="54"/>
       <c r="BI53" s="43"/>
       <c r="BJ53" s="43"/>
       <c r="BK53" s="43"/>
-      <c r="BL53" s="48"/>
-      <c r="BM53" s="48"/>
+      <c r="BL53" s="49"/>
+      <c r="BM53" s="49"/>
       <c r="BN53" s="43"/>
-      <c r="BO53" s="59"/>
-      <c r="BP53" s="48"/>
+      <c r="BO53" s="60"/>
+      <c r="BP53" s="49"/>
       <c r="BQ53" s="43"/>
       <c r="BR53" s="43"/>
       <c r="BS53" s="43"/>
       <c r="BT53" s="43"/>
       <c r="BU53" s="43"/>
-      <c r="BV53" s="48"/>
-      <c r="BW53" s="59"/>
+      <c r="BV53" s="49"/>
+      <c r="BW53" s="60"/>
       <c r="BX53" s="43"/>
       <c r="BY53" s="43"/>
       <c r="BZ53" s="43"/>
       <c r="CA53" s="43"/>
       <c r="CB53" s="43"/>
-      <c r="CC53" s="48"/>
-      <c r="CD53" s="68"/>
-      <c r="CE53" s="43"/>
-      <c r="CF53" s="61"/>
-      <c r="CG53" s="43"/>
+      <c r="CC53" s="49"/>
+      <c r="CD53" s="67"/>
+      <c r="CE53" s="68"/>
+      <c r="CF53" s="68"/>
+      <c r="CG53" s="68"/>
       <c r="CH53" s="43"/>
       <c r="CI53" s="43"/>
-      <c r="CJ53" s="48"/>
-      <c r="CK53" s="59"/>
+      <c r="CJ53" s="43"/>
+      <c r="CK53" s="60"/>
       <c r="CL53" s="43"/>
-      <c r="CM53" s="43"/>
-      <c r="CN53" s="43"/>
+      <c r="CM53" s="62"/>
+      <c r="CN53" s="64"/>
       <c r="CO53" s="43"/>
       <c r="CP53" s="43"/>
-      <c r="CQ53" s="48"/>
-      <c r="CR53" s="59"/>
-      <c r="CS53" s="48"/>
-      <c r="CT53" s="48"/>
-      <c r="CU53" s="48"/>
+      <c r="CQ53" s="49"/>
+      <c r="CR53" s="60"/>
+      <c r="CS53" s="49"/>
+      <c r="CT53" s="49"/>
+      <c r="CU53" s="49"/>
       <c r="CV53" s="43"/>
       <c r="CW53" s="43"/>
-      <c r="CX53" s="48"/>
-      <c r="CY53" s="59"/>
+      <c r="CX53" s="49"/>
+      <c r="CY53" s="60"/>
       <c r="CZ53" s="43"/>
       <c r="DA53" s="43"/>
       <c r="DB53" s="43"/>
       <c r="DC53" s="43"/>
       <c r="DD53" s="43"/>
-      <c r="DE53" s="48"/>
-      <c r="DF53" s="59"/>
+      <c r="DE53" s="49"/>
+      <c r="DF53" s="60"/>
       <c r="DG53" s="43"/>
       <c r="DH53" s="43"/>
       <c r="DI53" s="43"/>
       <c r="DJ53" s="43"/>
       <c r="DK53" s="43"/>
-      <c r="DL53" s="48"/>
-      <c r="DM53" s="59"/>
+      <c r="DL53" s="49"/>
+      <c r="DM53" s="60"/>
       <c r="DN53" s="43"/>
       <c r="DO53" s="43"/>
       <c r="DP53" s="43"/>
       <c r="DQ53" s="43"/>
       <c r="DR53" s="43"/>
-      <c r="DS53" s="48"/>
-      <c r="DT53" s="59"/>
+      <c r="DS53" s="49"/>
+      <c r="DT53" s="60"/>
       <c r="DU53" s="43"/>
       <c r="DV53" s="43"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="54" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A54" s="13"/>
       <c r="B54" s="5"/>
       <c r="C54" s="14" t="s">
@@ -9985,7 +9979,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
       <c r="F54" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
@@ -10009,114 +10003,113 @@
       <c r="V54" s="21"/>
       <c r="W54" s="27"/>
       <c r="X54" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="15"/>
       <c r="Z54" s="16"/>
       <c r="AA54" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB54" s="40"/>
-      <c r="AC54" s="40"/>
-      <c r="AD54" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="46"/>
       <c r="AE54" s="43"/>
       <c r="AF54" s="43"/>
       <c r="AG54" s="43"/>
       <c r="AH54" s="43"/>
       <c r="AI54" s="43"/>
-      <c r="AJ54" s="48"/>
-      <c r="AK54" s="48"/>
+      <c r="AJ54" s="49"/>
+      <c r="AK54" s="49"/>
       <c r="AL54" s="43"/>
       <c r="AM54" s="43"/>
       <c r="AN54" s="43"/>
       <c r="AO54" s="43"/>
       <c r="AP54" s="43"/>
-      <c r="AQ54" s="48"/>
-      <c r="AR54" s="48"/>
+      <c r="AQ54" s="49"/>
+      <c r="AR54" s="49"/>
       <c r="AS54" s="43"/>
       <c r="AT54" s="43"/>
       <c r="AU54" s="43"/>
       <c r="AV54" s="43"/>
       <c r="AW54" s="43"/>
-      <c r="AX54" s="48"/>
-      <c r="AY54" s="48"/>
+      <c r="AX54" s="49"/>
+      <c r="AY54" s="49"/>
       <c r="AZ54" s="43"/>
       <c r="BA54" s="43"/>
       <c r="BB54" s="43"/>
       <c r="BC54" s="43"/>
       <c r="BD54" s="43"/>
-      <c r="BE54" s="48"/>
-      <c r="BF54" s="48"/>
+      <c r="BE54" s="49"/>
+      <c r="BF54" s="49"/>
       <c r="BG54" s="43"/>
-      <c r="BH54" s="18"/>
+      <c r="BH54" s="54"/>
       <c r="BI54" s="43"/>
       <c r="BJ54" s="43"/>
       <c r="BK54" s="43"/>
-      <c r="BL54" s="48"/>
-      <c r="BM54" s="48"/>
+      <c r="BL54" s="49"/>
+      <c r="BM54" s="49"/>
       <c r="BN54" s="43"/>
-      <c r="BO54" s="59"/>
-      <c r="BP54" s="48"/>
+      <c r="BO54" s="60"/>
+      <c r="BP54" s="49"/>
       <c r="BQ54" s="43"/>
       <c r="BR54" s="43"/>
       <c r="BS54" s="43"/>
       <c r="BT54" s="43"/>
       <c r="BU54" s="43"/>
-      <c r="BV54" s="48"/>
-      <c r="BW54" s="59"/>
+      <c r="BV54" s="49"/>
+      <c r="BW54" s="60"/>
       <c r="BX54" s="43"/>
       <c r="BY54" s="43"/>
       <c r="BZ54" s="43"/>
       <c r="CA54" s="43"/>
       <c r="CB54" s="43"/>
-      <c r="CC54" s="48"/>
-      <c r="CD54" s="59"/>
-      <c r="CE54" s="43"/>
-      <c r="CF54" s="43"/>
-      <c r="CG54" s="43"/>
+      <c r="CC54" s="49"/>
+      <c r="CD54" s="67"/>
+      <c r="CE54" s="68"/>
+      <c r="CF54" s="68"/>
+      <c r="CG54" s="68"/>
       <c r="CH54" s="43"/>
       <c r="CI54" s="43"/>
       <c r="CJ54" s="43"/>
-      <c r="CK54" s="43"/>
-      <c r="CL54" s="43"/>
-      <c r="CM54" s="62"/>
-      <c r="CN54" s="43"/>
-      <c r="CO54" s="43"/>
+      <c r="CK54" s="60"/>
+      <c r="CM54" s="43"/>
+      <c r="CN54" s="62"/>
+      <c r="CO54" s="64"/>
       <c r="CP54" s="43"/>
-      <c r="CQ54" s="48"/>
-      <c r="CR54" s="59"/>
-      <c r="CS54" s="48"/>
-      <c r="CT54" s="48"/>
-      <c r="CU54" s="48"/>
+      <c r="CQ54" s="49"/>
+      <c r="CR54" s="60"/>
+      <c r="CS54" s="49"/>
+      <c r="CT54" s="49"/>
+      <c r="CU54" s="49"/>
       <c r="CV54" s="43"/>
       <c r="CW54" s="43"/>
-      <c r="CX54" s="48"/>
-      <c r="CY54" s="59"/>
+      <c r="CX54" s="49"/>
+      <c r="CY54" s="60"/>
       <c r="CZ54" s="43"/>
       <c r="DA54" s="43"/>
       <c r="DB54" s="43"/>
       <c r="DC54" s="43"/>
       <c r="DD54" s="43"/>
-      <c r="DE54" s="48"/>
-      <c r="DF54" s="59"/>
+      <c r="DE54" s="49"/>
+      <c r="DF54" s="60"/>
       <c r="DG54" s="43"/>
       <c r="DH54" s="43"/>
       <c r="DI54" s="43"/>
       <c r="DJ54" s="43"/>
       <c r="DK54" s="43"/>
-      <c r="DL54" s="48"/>
-      <c r="DM54" s="59"/>
+      <c r="DL54" s="49"/>
+      <c r="DM54" s="60"/>
       <c r="DN54" s="43"/>
       <c r="DO54" s="43"/>
       <c r="DP54" s="43"/>
       <c r="DQ54" s="43"/>
       <c r="DR54" s="43"/>
-      <c r="DS54" s="48"/>
-      <c r="DT54" s="59"/>
+      <c r="DS54" s="49"/>
+      <c r="DT54" s="60"/>
       <c r="DU54" s="43"/>
       <c r="DV54" s="43"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="55" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="14" t="s">
@@ -10125,12 +10118,12 @@
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
       <c r="F55" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="16"/>
       <c r="I55" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>113</v>
@@ -10149,16 +10142,16 @@
       <c r="V55" s="21"/>
       <c r="W55" s="27"/>
       <c r="X55" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="15"/>
       <c r="Z55" s="16"/>
       <c r="AA55" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="46"/>
+        <v>66</v>
+      </c>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="40"/>
+      <c r="AD55" s="41"/>
       <c r="AE55" s="43"/>
       <c r="AF55" s="43"/>
       <c r="AG55" s="43"/>
@@ -10210,22 +10203,22 @@
       <c r="CA55" s="43"/>
       <c r="CB55" s="43"/>
       <c r="CC55" s="49"/>
-      <c r="CD55" s="67"/>
-      <c r="CE55" s="68"/>
-      <c r="CF55" s="68"/>
-      <c r="CG55" s="68"/>
+      <c r="CD55" s="60"/>
+      <c r="CE55" s="43"/>
+      <c r="CF55" s="43"/>
+      <c r="CG55" s="43"/>
       <c r="CH55" s="43"/>
       <c r="CI55" s="43"/>
       <c r="CJ55" s="43"/>
       <c r="CK55" s="60"/>
       <c r="CL55" s="43"/>
-      <c r="CM55" s="62"/>
-      <c r="CN55" s="64"/>
+      <c r="CM55" s="43"/>
+      <c r="CN55" s="43"/>
       <c r="CO55" s="43"/>
       <c r="CP55" s="43"/>
       <c r="CQ55" s="49"/>
-      <c r="CR55" s="60"/>
-      <c r="CS55" s="49"/>
+      <c r="CR55" s="49"/>
+      <c r="CS55" s="64"/>
       <c r="CT55" s="49"/>
       <c r="CU55" s="49"/>
       <c r="CV55" s="43"/>
@@ -10256,7 +10249,7 @@
       <c r="DU55" s="43"/>
       <c r="DV55" s="43"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
+    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A56" s="13"/>
       <c r="B56" s="5"/>
       <c r="C56" s="14" t="s">
@@ -10265,12 +10258,12 @@
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
       <c r="F56" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="16"/>
       <c r="I56" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>114</v>
@@ -10289,113 +10282,114 @@
       <c r="V56" s="21"/>
       <c r="W56" s="27"/>
       <c r="X56" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y56" s="15"/>
       <c r="Z56" s="16"/>
       <c r="AA56" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="46"/>
+        <v>57</v>
+      </c>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="41"/>
       <c r="AE56" s="43"/>
       <c r="AF56" s="43"/>
       <c r="AG56" s="43"/>
       <c r="AH56" s="43"/>
       <c r="AI56" s="43"/>
-      <c r="AJ56" s="49"/>
-      <c r="AK56" s="49"/>
+      <c r="AJ56" s="48"/>
+      <c r="AK56" s="48"/>
       <c r="AL56" s="43"/>
       <c r="AM56" s="43"/>
       <c r="AN56" s="43"/>
       <c r="AO56" s="43"/>
       <c r="AP56" s="43"/>
-      <c r="AQ56" s="49"/>
-      <c r="AR56" s="49"/>
+      <c r="AQ56" s="48"/>
+      <c r="AR56" s="48"/>
       <c r="AS56" s="43"/>
       <c r="AT56" s="43"/>
       <c r="AU56" s="43"/>
       <c r="AV56" s="43"/>
       <c r="AW56" s="43"/>
-      <c r="AX56" s="49"/>
-      <c r="AY56" s="49"/>
+      <c r="AX56" s="48"/>
+      <c r="AY56" s="48"/>
       <c r="AZ56" s="43"/>
       <c r="BA56" s="43"/>
       <c r="BB56" s="43"/>
       <c r="BC56" s="43"/>
       <c r="BD56" s="43"/>
-      <c r="BE56" s="49"/>
-      <c r="BF56" s="49"/>
+      <c r="BE56" s="48"/>
+      <c r="BF56" s="48"/>
       <c r="BG56" s="43"/>
-      <c r="BH56" s="54"/>
+      <c r="BH56" s="18"/>
       <c r="BI56" s="43"/>
       <c r="BJ56" s="43"/>
       <c r="BK56" s="43"/>
-      <c r="BL56" s="49"/>
-      <c r="BM56" s="49"/>
+      <c r="BL56" s="48"/>
+      <c r="BM56" s="48"/>
       <c r="BN56" s="43"/>
-      <c r="BO56" s="60"/>
-      <c r="BP56" s="49"/>
+      <c r="BO56" s="59"/>
+      <c r="BP56" s="48"/>
       <c r="BQ56" s="43"/>
       <c r="BR56" s="43"/>
       <c r="BS56" s="43"/>
       <c r="BT56" s="43"/>
       <c r="BU56" s="43"/>
-      <c r="BV56" s="49"/>
-      <c r="BW56" s="60"/>
+      <c r="BV56" s="48"/>
+      <c r="BW56" s="59"/>
       <c r="BX56" s="43"/>
       <c r="BY56" s="43"/>
       <c r="BZ56" s="43"/>
       <c r="CA56" s="43"/>
       <c r="CB56" s="43"/>
-      <c r="CC56" s="49"/>
-      <c r="CD56" s="67"/>
-      <c r="CE56" s="68"/>
-      <c r="CF56" s="68"/>
-      <c r="CG56" s="68"/>
+      <c r="CC56" s="48"/>
+      <c r="CD56" s="59"/>
+      <c r="CE56" s="43"/>
+      <c r="CF56" s="43"/>
+      <c r="CG56" s="43"/>
       <c r="CH56" s="43"/>
-      <c r="CI56" s="43"/>
-      <c r="CJ56" s="43"/>
-      <c r="CK56" s="60"/>
+      <c r="CI56" s="62"/>
+      <c r="CJ56" s="61"/>
+      <c r="CK56" s="59"/>
+      <c r="CL56" s="43"/>
       <c r="CM56" s="43"/>
-      <c r="CN56" s="62"/>
-      <c r="CO56" s="64"/>
+      <c r="CN56" s="43"/>
+      <c r="CO56" s="43"/>
       <c r="CP56" s="43"/>
-      <c r="CQ56" s="49"/>
-      <c r="CR56" s="60"/>
-      <c r="CS56" s="49"/>
-      <c r="CT56" s="49"/>
-      <c r="CU56" s="49"/>
+      <c r="CQ56" s="48"/>
+      <c r="CR56" s="59"/>
+      <c r="CS56" s="48"/>
+      <c r="CT56" s="48"/>
+      <c r="CU56" s="48"/>
       <c r="CV56" s="43"/>
       <c r="CW56" s="43"/>
-      <c r="CX56" s="49"/>
-      <c r="CY56" s="60"/>
+      <c r="CX56" s="48"/>
+      <c r="CY56" s="59"/>
       <c r="CZ56" s="43"/>
       <c r="DA56" s="43"/>
       <c r="DB56" s="43"/>
       <c r="DC56" s="43"/>
       <c r="DD56" s="43"/>
-      <c r="DE56" s="49"/>
-      <c r="DF56" s="60"/>
+      <c r="DE56" s="48"/>
+      <c r="DF56" s="59"/>
       <c r="DG56" s="43"/>
       <c r="DH56" s="43"/>
       <c r="DI56" s="43"/>
       <c r="DJ56" s="43"/>
       <c r="DK56" s="43"/>
-      <c r="DL56" s="49"/>
-      <c r="DM56" s="60"/>
+      <c r="DL56" s="48"/>
+      <c r="DM56" s="59"/>
       <c r="DN56" s="43"/>
       <c r="DO56" s="43"/>
       <c r="DP56" s="43"/>
       <c r="DQ56" s="43"/>
       <c r="DR56" s="43"/>
-      <c r="DS56" s="49"/>
-      <c r="DT56" s="60"/>
+      <c r="DS56" s="48"/>
+      <c r="DT56" s="59"/>
       <c r="DU56" s="43"/>
       <c r="DV56" s="43"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A57" s="13"/>
       <c r="B57" s="5"/>
       <c r="C57" s="14" t="s">
@@ -10404,12 +10398,12 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
       <c r="F57" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
       <c r="I57" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>115</v>
@@ -10428,12 +10422,12 @@
       <c r="V57" s="21"/>
       <c r="W57" s="27"/>
       <c r="X57" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y57" s="15"/>
       <c r="Z57" s="16"/>
       <c r="AA57" s="39" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AB57" s="40"/>
       <c r="AC57" s="40"/>
@@ -10443,99 +10437,99 @@
       <c r="AG57" s="43"/>
       <c r="AH57" s="43"/>
       <c r="AI57" s="43"/>
-      <c r="AJ57" s="49"/>
-      <c r="AK57" s="49"/>
+      <c r="AJ57" s="48"/>
+      <c r="AK57" s="48"/>
       <c r="AL57" s="43"/>
       <c r="AM57" s="43"/>
       <c r="AN57" s="43"/>
       <c r="AO57" s="43"/>
       <c r="AP57" s="43"/>
-      <c r="AQ57" s="49"/>
-      <c r="AR57" s="49"/>
+      <c r="AQ57" s="48"/>
+      <c r="AR57" s="48"/>
       <c r="AS57" s="43"/>
       <c r="AT57" s="43"/>
       <c r="AU57" s="43"/>
       <c r="AV57" s="43"/>
       <c r="AW57" s="43"/>
-      <c r="AX57" s="49"/>
-      <c r="AY57" s="49"/>
+      <c r="AX57" s="48"/>
+      <c r="AY57" s="48"/>
       <c r="AZ57" s="43"/>
       <c r="BA57" s="43"/>
       <c r="BB57" s="43"/>
       <c r="BC57" s="43"/>
       <c r="BD57" s="43"/>
-      <c r="BE57" s="49"/>
-      <c r="BF57" s="49"/>
+      <c r="BE57" s="48"/>
+      <c r="BF57" s="48"/>
       <c r="BG57" s="43"/>
-      <c r="BH57" s="54"/>
+      <c r="BH57" s="18"/>
       <c r="BI57" s="43"/>
       <c r="BJ57" s="43"/>
       <c r="BK57" s="43"/>
-      <c r="BL57" s="49"/>
-      <c r="BM57" s="49"/>
+      <c r="BL57" s="48"/>
+      <c r="BM57" s="48"/>
       <c r="BN57" s="43"/>
-      <c r="BO57" s="60"/>
-      <c r="BP57" s="49"/>
+      <c r="BO57" s="59"/>
+      <c r="BP57" s="48"/>
       <c r="BQ57" s="43"/>
       <c r="BR57" s="43"/>
       <c r="BS57" s="43"/>
       <c r="BT57" s="43"/>
       <c r="BU57" s="43"/>
-      <c r="BV57" s="49"/>
-      <c r="BW57" s="60"/>
+      <c r="BV57" s="48"/>
+      <c r="BW57" s="59"/>
       <c r="BX57" s="43"/>
       <c r="BY57" s="43"/>
       <c r="BZ57" s="43"/>
       <c r="CA57" s="43"/>
       <c r="CB57" s="43"/>
-      <c r="CC57" s="49"/>
-      <c r="CD57" s="60"/>
+      <c r="CC57" s="48"/>
+      <c r="CD57" s="59"/>
       <c r="CE57" s="43"/>
       <c r="CF57" s="43"/>
       <c r="CG57" s="43"/>
       <c r="CH57" s="43"/>
       <c r="CI57" s="43"/>
-      <c r="CJ57" s="43"/>
-      <c r="CK57" s="60"/>
-      <c r="CL57" s="43"/>
+      <c r="CJ57" s="59"/>
+      <c r="CK57" s="62"/>
+      <c r="CL57" s="64"/>
       <c r="CM57" s="43"/>
       <c r="CN57" s="43"/>
       <c r="CO57" s="43"/>
       <c r="CP57" s="43"/>
-      <c r="CQ57" s="49"/>
-      <c r="CR57" s="49"/>
-      <c r="CS57" s="64"/>
-      <c r="CT57" s="49"/>
-      <c r="CU57" s="49"/>
+      <c r="CQ57" s="48"/>
+      <c r="CR57" s="59"/>
+      <c r="CS57" s="48"/>
+      <c r="CT57" s="48"/>
+      <c r="CU57" s="48"/>
       <c r="CV57" s="43"/>
       <c r="CW57" s="43"/>
-      <c r="CX57" s="49"/>
-      <c r="CY57" s="60"/>
+      <c r="CX57" s="48"/>
+      <c r="CY57" s="59"/>
       <c r="CZ57" s="43"/>
       <c r="DA57" s="43"/>
       <c r="DB57" s="43"/>
       <c r="DC57" s="43"/>
       <c r="DD57" s="43"/>
-      <c r="DE57" s="49"/>
-      <c r="DF57" s="60"/>
+      <c r="DE57" s="48"/>
+      <c r="DF57" s="59"/>
       <c r="DG57" s="43"/>
       <c r="DH57" s="43"/>
       <c r="DI57" s="43"/>
       <c r="DJ57" s="43"/>
       <c r="DK57" s="43"/>
-      <c r="DL57" s="49"/>
-      <c r="DM57" s="60"/>
+      <c r="DL57" s="48"/>
+      <c r="DM57" s="59"/>
       <c r="DN57" s="43"/>
       <c r="DO57" s="43"/>
       <c r="DP57" s="43"/>
       <c r="DQ57" s="43"/>
       <c r="DR57" s="43"/>
-      <c r="DS57" s="49"/>
-      <c r="DT57" s="60"/>
+      <c r="DS57" s="48"/>
+      <c r="DT57" s="59"/>
       <c r="DU57" s="43"/>
       <c r="DV57" s="43"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="58" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A58" s="13"/>
       <c r="B58" s="5"/>
       <c r="C58" s="14" t="s">
@@ -10544,12 +10538,12 @@
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
       <c r="F58" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
       <c r="I58" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>116</v>
@@ -10568,12 +10562,12 @@
       <c r="V58" s="21"/>
       <c r="W58" s="27"/>
       <c r="X58" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="15"/>
       <c r="Z58" s="16"/>
       <c r="AA58" s="39" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AB58" s="40"/>
       <c r="AC58" s="40"/>
@@ -10625,7 +10619,7 @@
       <c r="BW58" s="59"/>
       <c r="BX58" s="43"/>
       <c r="BY58" s="43"/>
-      <c r="BZ58" s="43"/>
+      <c r="BZ58" s="61"/>
       <c r="CA58" s="43"/>
       <c r="CB58" s="43"/>
       <c r="CC58" s="48"/>
@@ -10634,15 +10628,15 @@
       <c r="CF58" s="43"/>
       <c r="CG58" s="43"/>
       <c r="CH58" s="43"/>
-      <c r="CI58" s="62"/>
-      <c r="CJ58" s="61"/>
-      <c r="CK58" s="59"/>
+      <c r="CI58" s="43"/>
+      <c r="CJ58" s="43"/>
+      <c r="CK58" s="43"/>
       <c r="CL58" s="43"/>
       <c r="CM58" s="43"/>
       <c r="CN58" s="43"/>
       <c r="CO58" s="43"/>
       <c r="CP58" s="43"/>
-      <c r="CQ58" s="48"/>
+      <c r="CQ58" s="64"/>
       <c r="CR58" s="59"/>
       <c r="CS58" s="48"/>
       <c r="CT58" s="48"/>
@@ -10675,7 +10669,7 @@
       <c r="DU58" s="43"/>
       <c r="DV58" s="43"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="59" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A59" s="13"/>
       <c r="B59" s="5"/>
       <c r="C59" s="14" t="s">
@@ -10684,12 +10678,12 @@
       <c r="D59" s="15"/>
       <c r="E59" s="16"/>
       <c r="F59" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="16"/>
       <c r="I59" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>117</v>
@@ -10708,12 +10702,12 @@
       <c r="V59" s="21"/>
       <c r="W59" s="27"/>
       <c r="X59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y59" s="15"/>
       <c r="Z59" s="16"/>
       <c r="AA59" s="39" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AB59" s="40"/>
       <c r="AC59" s="40"/>
@@ -10768,19 +10762,19 @@
       <c r="BZ59" s="43"/>
       <c r="CA59" s="43"/>
       <c r="CB59" s="43"/>
-      <c r="CC59" s="48"/>
-      <c r="CD59" s="59"/>
+      <c r="CC59" s="43"/>
+      <c r="CD59" s="43"/>
       <c r="CE59" s="43"/>
       <c r="CF59" s="43"/>
       <c r="CG59" s="43"/>
       <c r="CH59" s="43"/>
       <c r="CI59" s="43"/>
-      <c r="CJ59" s="59"/>
-      <c r="CK59" s="62"/>
-      <c r="CL59" s="64"/>
+      <c r="CJ59" s="48"/>
+      <c r="CK59" s="59"/>
+      <c r="CL59" s="43"/>
       <c r="CM59" s="43"/>
       <c r="CN59" s="43"/>
-      <c r="CO59" s="43"/>
+      <c r="CO59" s="64"/>
       <c r="CP59" s="43"/>
       <c r="CQ59" s="48"/>
       <c r="CR59" s="59"/>
@@ -10815,7 +10809,7 @@
       <c r="DU59" s="43"/>
       <c r="DV59" s="43"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="60" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A60" s="13"/>
       <c r="B60" s="5"/>
       <c r="C60" s="14" t="s">
@@ -10824,12 +10818,12 @@
       <c r="D60" s="15"/>
       <c r="E60" s="16"/>
       <c r="F60" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="16"/>
       <c r="I60" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>118</v>
@@ -10853,7 +10847,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="16"/>
       <c r="AA60" s="39" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AB60" s="40"/>
       <c r="AC60" s="40"/>
@@ -10905,24 +10899,24 @@
       <c r="BW60" s="59"/>
       <c r="BX60" s="43"/>
       <c r="BY60" s="43"/>
-      <c r="BZ60" s="61"/>
+      <c r="BZ60" s="43"/>
       <c r="CA60" s="43"/>
       <c r="CB60" s="43"/>
-      <c r="CC60" s="48"/>
-      <c r="CD60" s="59"/>
+      <c r="CC60" s="43"/>
+      <c r="CD60" s="43"/>
       <c r="CE60" s="43"/>
       <c r="CF60" s="43"/>
       <c r="CG60" s="43"/>
       <c r="CH60" s="43"/>
       <c r="CI60" s="43"/>
-      <c r="CJ60" s="43"/>
-      <c r="CK60" s="43"/>
+      <c r="CJ60" s="48"/>
+      <c r="CK60" s="59"/>
       <c r="CL60" s="43"/>
       <c r="CM60" s="43"/>
-      <c r="CN60" s="43"/>
+      <c r="CN60" s="64"/>
       <c r="CO60" s="43"/>
       <c r="CP60" s="43"/>
-      <c r="CQ60" s="64"/>
+      <c r="CQ60" s="48"/>
       <c r="CR60" s="59"/>
       <c r="CS60" s="48"/>
       <c r="CT60" s="48"/>
@@ -10964,7 +10958,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="16"/>
       <c r="F61" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="16"/>
@@ -10988,7 +10982,7 @@
       <c r="V61" s="21"/>
       <c r="W61" s="27"/>
       <c r="X61" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y61" s="15"/>
       <c r="Z61" s="16"/>
@@ -11061,8 +11055,8 @@
       <c r="CM61" s="43"/>
       <c r="CN61" s="43"/>
       <c r="CO61" s="43"/>
-      <c r="CP61" s="43"/>
-      <c r="CQ61" s="48"/>
+      <c r="CP61" s="62"/>
+      <c r="CQ61" s="64"/>
       <c r="CR61" s="59"/>
       <c r="CS61" s="48"/>
       <c r="CT61" s="48"/>
@@ -11095,7 +11089,7 @@
       <c r="DU61" s="43"/>
       <c r="DV61" s="43"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="62" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A62" s="13"/>
       <c r="B62" s="5"/>
       <c r="C62" s="14" t="s">
@@ -11104,7 +11098,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="16"/>
       <c r="F62" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="16"/>
@@ -11133,7 +11127,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="16"/>
       <c r="AA62" s="39" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AB62" s="40"/>
       <c r="AC62" s="40"/>
@@ -11143,99 +11137,99 @@
       <c r="AG62" s="43"/>
       <c r="AH62" s="43"/>
       <c r="AI62" s="43"/>
-      <c r="AJ62" s="48"/>
-      <c r="AK62" s="48"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
       <c r="AL62" s="43"/>
       <c r="AM62" s="43"/>
       <c r="AN62" s="43"/>
       <c r="AO62" s="43"/>
       <c r="AP62" s="43"/>
-      <c r="AQ62" s="48"/>
-      <c r="AR62" s="48"/>
+      <c r="AQ62" s="49"/>
+      <c r="AR62" s="49"/>
       <c r="AS62" s="43"/>
       <c r="AT62" s="43"/>
       <c r="AU62" s="43"/>
       <c r="AV62" s="43"/>
       <c r="AW62" s="43"/>
-      <c r="AX62" s="48"/>
-      <c r="AY62" s="48"/>
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="49"/>
       <c r="AZ62" s="43"/>
       <c r="BA62" s="43"/>
       <c r="BB62" s="43"/>
       <c r="BC62" s="43"/>
       <c r="BD62" s="43"/>
-      <c r="BE62" s="48"/>
-      <c r="BF62" s="48"/>
+      <c r="BE62" s="49"/>
+      <c r="BF62" s="49"/>
       <c r="BG62" s="43"/>
-      <c r="BH62" s="18"/>
+      <c r="BH62" s="54"/>
       <c r="BI62" s="43"/>
       <c r="BJ62" s="43"/>
       <c r="BK62" s="43"/>
-      <c r="BL62" s="48"/>
-      <c r="BM62" s="48"/>
+      <c r="BL62" s="49"/>
+      <c r="BM62" s="49"/>
       <c r="BN62" s="43"/>
-      <c r="BO62" s="59"/>
-      <c r="BP62" s="48"/>
+      <c r="BO62" s="60"/>
+      <c r="BP62" s="49"/>
       <c r="BQ62" s="43"/>
       <c r="BR62" s="43"/>
       <c r="BS62" s="43"/>
       <c r="BT62" s="43"/>
       <c r="BU62" s="43"/>
-      <c r="BV62" s="48"/>
-      <c r="BW62" s="59"/>
+      <c r="BV62" s="49"/>
+      <c r="BW62" s="60"/>
       <c r="BX62" s="43"/>
       <c r="BY62" s="43"/>
       <c r="BZ62" s="43"/>
       <c r="CA62" s="43"/>
       <c r="CB62" s="43"/>
-      <c r="CC62" s="43"/>
-      <c r="CD62" s="43"/>
+      <c r="CC62" s="49"/>
+      <c r="CD62" s="60"/>
       <c r="CE62" s="43"/>
       <c r="CF62" s="43"/>
       <c r="CG62" s="43"/>
       <c r="CH62" s="43"/>
       <c r="CI62" s="43"/>
-      <c r="CJ62" s="48"/>
-      <c r="CK62" s="59"/>
-      <c r="CL62" s="43"/>
+      <c r="CJ62" s="43"/>
+      <c r="CK62" s="60"/>
+      <c r="CL62" s="65"/>
       <c r="CM62" s="43"/>
-      <c r="CN62" s="64"/>
+      <c r="CN62" s="43"/>
       <c r="CO62" s="43"/>
       <c r="CP62" s="43"/>
-      <c r="CQ62" s="48"/>
-      <c r="CR62" s="59"/>
-      <c r="CS62" s="48"/>
-      <c r="CT62" s="48"/>
-      <c r="CU62" s="48"/>
+      <c r="CQ62" s="49"/>
+      <c r="CR62" s="60"/>
+      <c r="CS62" s="49"/>
+      <c r="CT62" s="49"/>
+      <c r="CU62" s="49"/>
       <c r="CV62" s="43"/>
       <c r="CW62" s="43"/>
-      <c r="CX62" s="48"/>
-      <c r="CY62" s="59"/>
+      <c r="CX62" s="49"/>
+      <c r="CY62" s="60"/>
       <c r="CZ62" s="43"/>
       <c r="DA62" s="43"/>
       <c r="DB62" s="43"/>
       <c r="DC62" s="43"/>
       <c r="DD62" s="43"/>
-      <c r="DE62" s="48"/>
-      <c r="DF62" s="59"/>
+      <c r="DE62" s="49"/>
+      <c r="DF62" s="60"/>
       <c r="DG62" s="43"/>
       <c r="DH62" s="43"/>
       <c r="DI62" s="43"/>
       <c r="DJ62" s="43"/>
       <c r="DK62" s="43"/>
-      <c r="DL62" s="48"/>
-      <c r="DM62" s="59"/>
+      <c r="DL62" s="49"/>
+      <c r="DM62" s="60"/>
       <c r="DN62" s="43"/>
       <c r="DO62" s="43"/>
       <c r="DP62" s="43"/>
       <c r="DQ62" s="43"/>
       <c r="DR62" s="43"/>
-      <c r="DS62" s="48"/>
-      <c r="DT62" s="59"/>
+      <c r="DS62" s="49"/>
+      <c r="DT62" s="60"/>
       <c r="DU62" s="43"/>
       <c r="DV62" s="43"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="63" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A63" s="13"/>
       <c r="B63" s="5"/>
       <c r="C63" s="14" t="s">
@@ -11244,7 +11238,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="16"/>
       <c r="F63" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="16"/>
@@ -11268,12 +11262,12 @@
       <c r="V63" s="21"/>
       <c r="W63" s="27"/>
       <c r="X63" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="15"/>
       <c r="Z63" s="16"/>
       <c r="AA63" s="39" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AB63" s="40"/>
       <c r="AC63" s="40"/>
@@ -11283,99 +11277,99 @@
       <c r="AG63" s="43"/>
       <c r="AH63" s="43"/>
       <c r="AI63" s="43"/>
-      <c r="AJ63" s="48"/>
-      <c r="AK63" s="48"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
       <c r="AL63" s="43"/>
       <c r="AM63" s="43"/>
       <c r="AN63" s="43"/>
       <c r="AO63" s="43"/>
       <c r="AP63" s="43"/>
-      <c r="AQ63" s="48"/>
-      <c r="AR63" s="48"/>
+      <c r="AQ63" s="49"/>
+      <c r="AR63" s="49"/>
       <c r="AS63" s="43"/>
       <c r="AT63" s="43"/>
       <c r="AU63" s="43"/>
       <c r="AV63" s="43"/>
       <c r="AW63" s="43"/>
-      <c r="AX63" s="48"/>
-      <c r="AY63" s="48"/>
+      <c r="AX63" s="49"/>
+      <c r="AY63" s="49"/>
       <c r="AZ63" s="43"/>
       <c r="BA63" s="43"/>
       <c r="BB63" s="43"/>
       <c r="BC63" s="43"/>
       <c r="BD63" s="43"/>
-      <c r="BE63" s="48"/>
-      <c r="BF63" s="48"/>
+      <c r="BE63" s="49"/>
+      <c r="BF63" s="43"/>
       <c r="BG63" s="43"/>
-      <c r="BH63" s="18"/>
+      <c r="BH63" s="54"/>
       <c r="BI63" s="43"/>
       <c r="BJ63" s="43"/>
       <c r="BK63" s="43"/>
-      <c r="BL63" s="48"/>
-      <c r="BM63" s="48"/>
+      <c r="BL63" s="49"/>
+      <c r="BM63" s="49"/>
       <c r="BN63" s="43"/>
-      <c r="BO63" s="59"/>
-      <c r="BP63" s="48"/>
+      <c r="BO63" s="60"/>
+      <c r="BP63" s="49"/>
       <c r="BQ63" s="43"/>
       <c r="BR63" s="43"/>
       <c r="BS63" s="43"/>
       <c r="BT63" s="43"/>
       <c r="BU63" s="43"/>
-      <c r="BV63" s="48"/>
-      <c r="BW63" s="59"/>
+      <c r="BV63" s="49"/>
+      <c r="BW63" s="60"/>
       <c r="BX63" s="43"/>
       <c r="BY63" s="43"/>
       <c r="BZ63" s="43"/>
       <c r="CA63" s="43"/>
       <c r="CB63" s="43"/>
-      <c r="CC63" s="43"/>
-      <c r="CD63" s="43"/>
+      <c r="CC63" s="49"/>
+      <c r="CD63" s="60"/>
       <c r="CE63" s="43"/>
       <c r="CF63" s="43"/>
       <c r="CG63" s="43"/>
       <c r="CH63" s="43"/>
       <c r="CI63" s="43"/>
-      <c r="CJ63" s="48"/>
-      <c r="CK63" s="59"/>
+      <c r="CJ63" s="43"/>
+      <c r="CK63" s="60"/>
       <c r="CL63" s="43"/>
       <c r="CM63" s="43"/>
       <c r="CN63" s="43"/>
-      <c r="CO63" s="62"/>
-      <c r="CP63" s="64"/>
-      <c r="CQ63" s="48"/>
-      <c r="CR63" s="59"/>
-      <c r="CS63" s="48"/>
-      <c r="CT63" s="48"/>
-      <c r="CU63" s="48"/>
+      <c r="CO63" s="43"/>
+      <c r="CP63" s="43"/>
+      <c r="CQ63" s="49"/>
+      <c r="CR63" s="60"/>
+      <c r="CS63" s="49"/>
+      <c r="CT63" s="49"/>
+      <c r="CU63" s="64"/>
       <c r="CV63" s="43"/>
       <c r="CW63" s="43"/>
-      <c r="CX63" s="48"/>
-      <c r="CY63" s="59"/>
+      <c r="CX63" s="49"/>
+      <c r="CY63" s="60"/>
       <c r="CZ63" s="43"/>
       <c r="DA63" s="43"/>
       <c r="DB63" s="43"/>
       <c r="DC63" s="43"/>
       <c r="DD63" s="43"/>
-      <c r="DE63" s="48"/>
-      <c r="DF63" s="59"/>
+      <c r="DE63" s="49"/>
+      <c r="DF63" s="60"/>
       <c r="DG63" s="43"/>
       <c r="DH63" s="43"/>
       <c r="DI63" s="43"/>
       <c r="DJ63" s="43"/>
       <c r="DK63" s="43"/>
-      <c r="DL63" s="48"/>
-      <c r="DM63" s="59"/>
+      <c r="DL63" s="49"/>
+      <c r="DM63" s="60"/>
       <c r="DN63" s="43"/>
       <c r="DO63" s="43"/>
       <c r="DP63" s="43"/>
       <c r="DQ63" s="43"/>
       <c r="DR63" s="43"/>
-      <c r="DS63" s="48"/>
-      <c r="DT63" s="59"/>
+      <c r="DS63" s="49"/>
+      <c r="DT63" s="60"/>
       <c r="DU63" s="43"/>
       <c r="DV63" s="43"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="64" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
       <c r="A64" s="13"/>
       <c r="B64" s="5"/>
       <c r="C64" s="14" t="s">
@@ -11384,7 +11378,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="16"/>
       <c r="F64" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="16"/>
@@ -11408,7 +11402,7 @@
       <c r="V64" s="21"/>
       <c r="W64" s="27"/>
       <c r="X64" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y64" s="15"/>
       <c r="Z64" s="16"/>
@@ -11445,7 +11439,7 @@
       <c r="BC64" s="43"/>
       <c r="BD64" s="43"/>
       <c r="BE64" s="49"/>
-      <c r="BF64" s="49"/>
+      <c r="BF64" s="43"/>
       <c r="BG64" s="43"/>
       <c r="BH64" s="54"/>
       <c r="BI64" s="43"/>
@@ -11477,7 +11471,7 @@
       <c r="CI64" s="43"/>
       <c r="CJ64" s="43"/>
       <c r="CK64" s="60"/>
-      <c r="CL64" s="65"/>
+      <c r="CL64" s="43"/>
       <c r="CM64" s="43"/>
       <c r="CN64" s="43"/>
       <c r="CO64" s="43"/>
@@ -11487,8 +11481,8 @@
       <c r="CS64" s="49"/>
       <c r="CT64" s="49"/>
       <c r="CU64" s="49"/>
-      <c r="CV64" s="43"/>
-      <c r="CW64" s="43"/>
+      <c r="CV64" s="69"/>
+      <c r="CW64" s="64"/>
       <c r="CX64" s="49"/>
       <c r="CY64" s="60"/>
       <c r="CZ64" s="43"/>
@@ -11515,7 +11509,7 @@
       <c r="DU64" s="43"/>
       <c r="DV64" s="43"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="65" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A65" s="13"/>
       <c r="B65" s="5"/>
       <c r="C65" s="14" t="s">
@@ -11524,7 +11518,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="16"/>
       <c r="F65" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="16"/>
@@ -11553,11 +11547,11 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="16"/>
       <c r="AA65" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB65" s="40"/>
-      <c r="AC65" s="40"/>
-      <c r="AD65" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
+      <c r="AD65" s="46"/>
       <c r="AE65" s="43"/>
       <c r="AF65" s="43"/>
       <c r="AG65" s="43"/>
@@ -11585,7 +11579,7 @@
       <c r="BC65" s="43"/>
       <c r="BD65" s="43"/>
       <c r="BE65" s="49"/>
-      <c r="BF65" s="43"/>
+      <c r="BF65" s="49"/>
       <c r="BG65" s="43"/>
       <c r="BH65" s="54"/>
       <c r="BI65" s="43"/>
@@ -11609,10 +11603,10 @@
       <c r="CA65" s="43"/>
       <c r="CB65" s="43"/>
       <c r="CC65" s="49"/>
-      <c r="CD65" s="60"/>
-      <c r="CE65" s="43"/>
-      <c r="CF65" s="43"/>
-      <c r="CG65" s="43"/>
+      <c r="CD65" s="67"/>
+      <c r="CE65" s="68"/>
+      <c r="CF65" s="68"/>
+      <c r="CG65" s="68"/>
       <c r="CH65" s="43"/>
       <c r="CI65" s="43"/>
       <c r="CJ65" s="43"/>
@@ -11620,13 +11614,13 @@
       <c r="CL65" s="43"/>
       <c r="CM65" s="43"/>
       <c r="CN65" s="43"/>
-      <c r="CO65" s="43"/>
-      <c r="CP65" s="43"/>
+      <c r="CO65" s="62"/>
+      <c r="CP65" s="64"/>
       <c r="CQ65" s="49"/>
       <c r="CR65" s="60"/>
       <c r="CS65" s="49"/>
       <c r="CT65" s="49"/>
-      <c r="CU65" s="64"/>
+      <c r="CU65" s="49"/>
       <c r="CV65" s="43"/>
       <c r="CW65" s="43"/>
       <c r="CX65" s="49"/>
@@ -11655,7 +11649,7 @@
       <c r="DU65" s="43"/>
       <c r="DV65" s="43"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="66" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A66" s="13"/>
       <c r="B66" s="5"/>
       <c r="C66" s="14" t="s">
@@ -11664,7 +11658,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
       <c r="F66" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="16"/>
@@ -11688,16 +11682,16 @@
       <c r="V66" s="21"/>
       <c r="W66" s="27"/>
       <c r="X66" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y66" s="15"/>
       <c r="Z66" s="16"/>
       <c r="AA66" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB66" s="45"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="46"/>
       <c r="AE66" s="43"/>
       <c r="AF66" s="43"/>
       <c r="AG66" s="43"/>
@@ -11725,7 +11719,7 @@
       <c r="BC66" s="43"/>
       <c r="BD66" s="43"/>
       <c r="BE66" s="49"/>
-      <c r="BF66" s="43"/>
+      <c r="BF66" s="49"/>
       <c r="BG66" s="43"/>
       <c r="BH66" s="54"/>
       <c r="BI66" s="43"/>
@@ -11749,10 +11743,10 @@
       <c r="CA66" s="43"/>
       <c r="CB66" s="43"/>
       <c r="CC66" s="49"/>
-      <c r="CD66" s="60"/>
-      <c r="CE66" s="43"/>
-      <c r="CF66" s="43"/>
-      <c r="CG66" s="43"/>
+      <c r="CD66" s="67"/>
+      <c r="CE66" s="68"/>
+      <c r="CF66" s="68"/>
+      <c r="CG66" s="68"/>
       <c r="CH66" s="43"/>
       <c r="CI66" s="43"/>
       <c r="CJ66" s="43"/>
@@ -11766,9 +11760,9 @@
       <c r="CR66" s="60"/>
       <c r="CS66" s="49"/>
       <c r="CT66" s="49"/>
-      <c r="CU66" s="49"/>
-      <c r="CV66" s="69"/>
-      <c r="CW66" s="64"/>
+      <c r="CU66" s="64"/>
+      <c r="CV66" s="43"/>
+      <c r="CW66" s="43"/>
       <c r="CX66" s="49"/>
       <c r="CY66" s="60"/>
       <c r="CZ66" s="43"/>
@@ -11804,7 +11798,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="16"/>
       <c r="F67" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="16"/>
@@ -11828,7 +11822,7 @@
       <c r="V67" s="21"/>
       <c r="W67" s="27"/>
       <c r="X67" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y67" s="15"/>
       <c r="Z67" s="16"/>
@@ -11900,17 +11894,17 @@
       <c r="CL67" s="43"/>
       <c r="CM67" s="43"/>
       <c r="CN67" s="43"/>
-      <c r="CO67" s="62"/>
-      <c r="CP67" s="64"/>
+      <c r="CO67" s="43"/>
+      <c r="CP67" s="43"/>
       <c r="CQ67" s="49"/>
       <c r="CR67" s="60"/>
       <c r="CS67" s="49"/>
       <c r="CT67" s="49"/>
       <c r="CU67" s="49"/>
       <c r="CV67" s="43"/>
-      <c r="CW67" s="43"/>
-      <c r="CX67" s="49"/>
-      <c r="CY67" s="60"/>
+      <c r="CW67" s="62"/>
+      <c r="CX67" s="62"/>
+      <c r="CY67" s="64"/>
       <c r="CZ67" s="43"/>
       <c r="DA67" s="43"/>
       <c r="DB67" s="43"/>
@@ -11935,288 +11929,8 @@
       <c r="DU67" s="43"/>
       <c r="DV67" s="43"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
-      <c r="A68" s="13"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="19">
-        <v>1</v>
-      </c>
-      <c r="J68" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB68" s="45"/>
-      <c r="AC68" s="45"/>
-      <c r="AD68" s="46"/>
-      <c r="AE68" s="43"/>
-      <c r="AF68" s="43"/>
-      <c r="AG68" s="43"/>
-      <c r="AH68" s="43"/>
-      <c r="AI68" s="43"/>
-      <c r="AJ68" s="49"/>
-      <c r="AK68" s="49"/>
-      <c r="AL68" s="43"/>
-      <c r="AM68" s="43"/>
-      <c r="AN68" s="43"/>
-      <c r="AO68" s="43"/>
-      <c r="AP68" s="43"/>
-      <c r="AQ68" s="49"/>
-      <c r="AR68" s="49"/>
-      <c r="AS68" s="43"/>
-      <c r="AT68" s="43"/>
-      <c r="AU68" s="43"/>
-      <c r="AV68" s="43"/>
-      <c r="AW68" s="43"/>
-      <c r="AX68" s="49"/>
-      <c r="AY68" s="49"/>
-      <c r="AZ68" s="43"/>
-      <c r="BA68" s="43"/>
-      <c r="BB68" s="43"/>
-      <c r="BC68" s="43"/>
-      <c r="BD68" s="43"/>
-      <c r="BE68" s="49"/>
-      <c r="BF68" s="49"/>
-      <c r="BG68" s="43"/>
-      <c r="BH68" s="54"/>
-      <c r="BI68" s="43"/>
-      <c r="BJ68" s="43"/>
-      <c r="BK68" s="43"/>
-      <c r="BL68" s="49"/>
-      <c r="BM68" s="49"/>
-      <c r="BN68" s="43"/>
-      <c r="BO68" s="60"/>
-      <c r="BP68" s="49"/>
-      <c r="BQ68" s="43"/>
-      <c r="BR68" s="43"/>
-      <c r="BS68" s="43"/>
-      <c r="BT68" s="43"/>
-      <c r="BU68" s="43"/>
-      <c r="BV68" s="49"/>
-      <c r="BW68" s="60"/>
-      <c r="BX68" s="43"/>
-      <c r="BY68" s="43"/>
-      <c r="BZ68" s="43"/>
-      <c r="CA68" s="43"/>
-      <c r="CB68" s="43"/>
-      <c r="CC68" s="49"/>
-      <c r="CD68" s="67"/>
-      <c r="CE68" s="68"/>
-      <c r="CF68" s="68"/>
-      <c r="CG68" s="68"/>
-      <c r="CH68" s="43"/>
-      <c r="CI68" s="43"/>
-      <c r="CJ68" s="43"/>
-      <c r="CK68" s="60"/>
-      <c r="CL68" s="43"/>
-      <c r="CM68" s="43"/>
-      <c r="CN68" s="43"/>
-      <c r="CO68" s="43"/>
-      <c r="CP68" s="43"/>
-      <c r="CQ68" s="49"/>
-      <c r="CR68" s="60"/>
-      <c r="CS68" s="49"/>
-      <c r="CT68" s="49"/>
-      <c r="CU68" s="64"/>
-      <c r="CV68" s="43"/>
-      <c r="CW68" s="43"/>
-      <c r="CX68" s="49"/>
-      <c r="CY68" s="60"/>
-      <c r="CZ68" s="43"/>
-      <c r="DA68" s="43"/>
-      <c r="DB68" s="43"/>
-      <c r="DC68" s="43"/>
-      <c r="DD68" s="43"/>
-      <c r="DE68" s="49"/>
-      <c r="DF68" s="60"/>
-      <c r="DG68" s="43"/>
-      <c r="DH68" s="43"/>
-      <c r="DI68" s="43"/>
-      <c r="DJ68" s="43"/>
-      <c r="DK68" s="43"/>
-      <c r="DL68" s="49"/>
-      <c r="DM68" s="60"/>
-      <c r="DN68" s="43"/>
-      <c r="DO68" s="43"/>
-      <c r="DP68" s="43"/>
-      <c r="DQ68" s="43"/>
-      <c r="DR68" s="43"/>
-      <c r="DS68" s="49"/>
-      <c r="DT68" s="60"/>
-      <c r="DU68" s="43"/>
-      <c r="DV68" s="43"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
-      <c r="A69" s="13"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="19">
-        <v>1</v>
-      </c>
-      <c r="J69" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB69" s="45"/>
-      <c r="AC69" s="45"/>
-      <c r="AD69" s="46"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="43"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="43"/>
-      <c r="AM69" s="43"/>
-      <c r="AN69" s="43"/>
-      <c r="AO69" s="43"/>
-      <c r="AP69" s="43"/>
-      <c r="AQ69" s="49"/>
-      <c r="AR69" s="49"/>
-      <c r="AS69" s="43"/>
-      <c r="AT69" s="43"/>
-      <c r="AU69" s="43"/>
-      <c r="AV69" s="43"/>
-      <c r="AW69" s="43"/>
-      <c r="AX69" s="49"/>
-      <c r="AY69" s="49"/>
-      <c r="AZ69" s="43"/>
-      <c r="BA69" s="43"/>
-      <c r="BB69" s="43"/>
-      <c r="BC69" s="43"/>
-      <c r="BD69" s="43"/>
-      <c r="BE69" s="49"/>
-      <c r="BF69" s="49"/>
-      <c r="BG69" s="43"/>
-      <c r="BH69" s="54"/>
-      <c r="BI69" s="43"/>
-      <c r="BJ69" s="43"/>
-      <c r="BK69" s="43"/>
-      <c r="BL69" s="49"/>
-      <c r="BM69" s="49"/>
-      <c r="BN69" s="43"/>
-      <c r="BO69" s="60"/>
-      <c r="BP69" s="49"/>
-      <c r="BQ69" s="43"/>
-      <c r="BR69" s="43"/>
-      <c r="BS69" s="43"/>
-      <c r="BT69" s="43"/>
-      <c r="BU69" s="43"/>
-      <c r="BV69" s="49"/>
-      <c r="BW69" s="60"/>
-      <c r="BX69" s="43"/>
-      <c r="BY69" s="43"/>
-      <c r="BZ69" s="43"/>
-      <c r="CA69" s="43"/>
-      <c r="CB69" s="43"/>
-      <c r="CC69" s="49"/>
-      <c r="CD69" s="67"/>
-      <c r="CE69" s="68"/>
-      <c r="CF69" s="68"/>
-      <c r="CG69" s="68"/>
-      <c r="CH69" s="43"/>
-      <c r="CI69" s="43"/>
-      <c r="CJ69" s="43"/>
-      <c r="CK69" s="60"/>
-      <c r="CL69" s="43"/>
-      <c r="CM69" s="43"/>
-      <c r="CN69" s="43"/>
-      <c r="CO69" s="43"/>
-      <c r="CP69" s="43"/>
-      <c r="CQ69" s="49"/>
-      <c r="CR69" s="60"/>
-      <c r="CS69" s="49"/>
-      <c r="CT69" s="49"/>
-      <c r="CU69" s="49"/>
-      <c r="CV69" s="43"/>
-      <c r="CW69" s="62"/>
-      <c r="CX69" s="62"/>
-      <c r="CY69" s="64"/>
-      <c r="CZ69" s="43"/>
-      <c r="DA69" s="43"/>
-      <c r="DB69" s="43"/>
-      <c r="DC69" s="43"/>
-      <c r="DD69" s="43"/>
-      <c r="DE69" s="49"/>
-      <c r="DF69" s="60"/>
-      <c r="DG69" s="43"/>
-      <c r="DH69" s="43"/>
-      <c r="DI69" s="43"/>
-      <c r="DJ69" s="43"/>
-      <c r="DK69" s="43"/>
-      <c r="DL69" s="49"/>
-      <c r="DM69" s="60"/>
-      <c r="DN69" s="43"/>
-      <c r="DO69" s="43"/>
-      <c r="DP69" s="43"/>
-      <c r="DQ69" s="43"/>
-      <c r="DR69" s="43"/>
-      <c r="DS69" s="49"/>
-      <c r="DT69" s="60"/>
-      <c r="DU69" s="43"/>
-      <c r="DV69" s="43"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C3:AD69">
+  <autoFilter ref="C3:AD67">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="equal" val="2测"/>
@@ -12228,7 +11942,7 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="361">
+  <mergeCells count="351">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AT1:BM1"/>
@@ -12579,16 +12293,6 @@
     <mergeCell ref="J67:W67"/>
     <mergeCell ref="X67:Z67"/>
     <mergeCell ref="AA67:AD67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="J68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="AA68:AD68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="J69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AD69"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="X2">

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="7950" tabRatio="564"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="564"/>
   </bookViews>
   <sheets>
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
@@ -452,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -512,13 +512,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -526,84 +519,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +542,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +618,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,19 +754,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,31 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,55 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +850,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,11 +1232,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,46 +1297,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,15 +1327,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1335,10 +1335,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1347,133 +1347,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2092,11 +2092,11 @@
   <dimension ref="A1:EZ67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CF26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CF19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57:W57"/>
+      <selection pane="bottomRight" activeCell="CN39" sqref="CN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -5077,7 +5077,7 @@
       <c r="DU18" s="43"/>
       <c r="DV18" s="43"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
@@ -5217,7 +5217,7 @@
       <c r="DU19" s="43"/>
       <c r="DV19" s="43"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
@@ -6057,7 +6057,7 @@
       <c r="DU25" s="43"/>
       <c r="DV25" s="43"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="26" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="14" t="s">
@@ -6197,7 +6197,7 @@
       <c r="DU26" s="43"/>
       <c r="DV26" s="43"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="27" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="14" t="s">
@@ -6337,7 +6337,7 @@
       <c r="DU27" s="43"/>
       <c r="DV27" s="43"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="28" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A28" s="13"/>
       <c r="B28" s="5"/>
       <c r="C28" s="14" t="s">
@@ -6477,7 +6477,7 @@
       <c r="DU28" s="43"/>
       <c r="DV28" s="43"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="29" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A29" s="13"/>
       <c r="B29" s="5"/>
       <c r="C29" s="14" t="s">
@@ -7134,10 +7134,10 @@
       <c r="CK33" s="60"/>
       <c r="CL33" s="43"/>
       <c r="CM33" s="43"/>
-      <c r="CN33" s="43"/>
+      <c r="CN33" s="61"/>
       <c r="CO33" s="43"/>
       <c r="CP33" s="43"/>
-      <c r="CQ33" s="70"/>
+      <c r="CQ33" s="49"/>
       <c r="CR33" s="60"/>
       <c r="CS33" s="49"/>
       <c r="CT33" s="49"/>
@@ -7730,7 +7730,7 @@
       <c r="DU37" s="43"/>
       <c r="DV37" s="43"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="38" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A38" s="13"/>
       <c r="B38" s="5"/>
       <c r="C38" s="14" t="s">
@@ -7870,7 +7870,7 @@
       <c r="DU38" s="43"/>
       <c r="DV38" s="43"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="39" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A39" s="13"/>
       <c r="B39" s="5"/>
       <c r="C39" s="14" t="s">
@@ -7974,7 +7974,7 @@
       <c r="CK39" s="48"/>
       <c r="CL39" s="64"/>
       <c r="CM39" s="65"/>
-      <c r="CN39" s="43"/>
+      <c r="CN39" s="61"/>
       <c r="CO39" s="43"/>
       <c r="CP39" s="43"/>
       <c r="CQ39" s="48"/>
@@ -8010,7 +8010,7 @@
       <c r="DU39" s="43"/>
       <c r="DV39" s="43"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A40" s="13"/>
       <c r="B40" s="5"/>
       <c r="C40" s="14" t="s">
@@ -9933,9 +9933,9 @@
       <c r="CJ53" s="43"/>
       <c r="CK53" s="60"/>
       <c r="CL53" s="43"/>
-      <c r="CM53" s="62"/>
-      <c r="CN53" s="64"/>
-      <c r="CO53" s="43"/>
+      <c r="CM53" s="43"/>
+      <c r="CN53" s="62"/>
+      <c r="CO53" s="64"/>
       <c r="CP53" s="43"/>
       <c r="CQ53" s="49"/>
       <c r="CR53" s="60"/>
@@ -10073,9 +10073,9 @@
       <c r="CJ54" s="43"/>
       <c r="CK54" s="60"/>
       <c r="CM54" s="43"/>
-      <c r="CN54" s="62"/>
-      <c r="CO54" s="64"/>
-      <c r="CP54" s="43"/>
+      <c r="CN54" s="43"/>
+      <c r="CO54" s="62"/>
+      <c r="CP54" s="64"/>
       <c r="CQ54" s="49"/>
       <c r="CR54" s="60"/>
       <c r="CS54" s="49"/>
@@ -10249,7 +10249,7 @@
       <c r="DU55" s="43"/>
       <c r="DV55" s="43"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="56" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A56" s="13"/>
       <c r="B56" s="5"/>
       <c r="C56" s="14" t="s">
@@ -10389,7 +10389,7 @@
       <c r="DU56" s="43"/>
       <c r="DV56" s="43"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="57" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A57" s="13"/>
       <c r="B57" s="5"/>
       <c r="C57" s="14" t="s">
@@ -10669,7 +10669,7 @@
       <c r="DU58" s="43"/>
       <c r="DV58" s="43"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="59" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A59" s="13"/>
       <c r="B59" s="5"/>
       <c r="C59" s="14" t="s">
@@ -10809,7 +10809,7 @@
       <c r="DU59" s="43"/>
       <c r="DV59" s="43"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="60" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A60" s="13"/>
       <c r="B60" s="5"/>
       <c r="C60" s="14" t="s">
@@ -10949,7 +10949,7 @@
       <c r="DU60" s="43"/>
       <c r="DV60" s="43"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
       <c r="A61" s="13"/>
       <c r="B61" s="5"/>
       <c r="C61" s="14" t="s">
@@ -11192,8 +11192,8 @@
       <c r="CJ62" s="43"/>
       <c r="CK62" s="60"/>
       <c r="CL62" s="65"/>
-      <c r="CM62" s="43"/>
-      <c r="CN62" s="43"/>
+      <c r="CM62" s="65"/>
+      <c r="CN62" s="61"/>
       <c r="CO62" s="43"/>
       <c r="CP62" s="43"/>
       <c r="CQ62" s="49"/>
@@ -11614,9 +11614,9 @@
       <c r="CL65" s="43"/>
       <c r="CM65" s="43"/>
       <c r="CN65" s="43"/>
-      <c r="CO65" s="62"/>
-      <c r="CP65" s="64"/>
-      <c r="CQ65" s="49"/>
+      <c r="CO65" s="43"/>
+      <c r="CP65" s="62"/>
+      <c r="CQ65" s="64"/>
       <c r="CR65" s="60"/>
       <c r="CS65" s="49"/>
       <c r="CT65" s="49"/>
@@ -11938,7 +11938,7 @@
     </filterColumn>
     <filterColumn colId="24">
       <customFilters>
-        <customFilter operator="equal" val="华珊"/>
+        <customFilter operator="equal" val="苏春雨"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -10,7 +10,7 @@
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$66</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>《暴走乐器》研发进度规划及版本计划</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>完成订单详情接口</t>
-  </si>
-  <si>
-    <t>微信支付第三方</t>
   </si>
 </sst>
 </file>
@@ -452,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -511,8 +508,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +525,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,38 +546,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +561,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,8 +606,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,21 +637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -632,24 +645,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,13 +751,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +817,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,91 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,6 +1227,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1264,16 +1276,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,41 +1324,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1335,10 +1332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1347,7 +1344,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,124 +1353,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2089,14 +2086,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ67"/>
+  <dimension ref="A1:EZ66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CF19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CF35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN39" sqref="CN39"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45:W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -5077,7 +5074,7 @@
       <c r="DU18" s="43"/>
       <c r="DV18" s="43"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="19" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
@@ -5217,7 +5214,7 @@
       <c r="DU19" s="43"/>
       <c r="DV19" s="43"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="20" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
@@ -7310,7 +7307,7 @@
       <c r="DU34" s="43"/>
       <c r="DV34" s="43"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="35" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
@@ -7450,7 +7447,7 @@
       <c r="DU35" s="43"/>
       <c r="DV35" s="43"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="36" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
@@ -7590,7 +7587,7 @@
       <c r="DU36" s="43"/>
       <c r="DV36" s="43"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="37" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A37" s="13"/>
       <c r="B37" s="5"/>
       <c r="C37" s="14" t="s">
@@ -7730,7 +7727,7 @@
       <c r="DU37" s="43"/>
       <c r="DV37" s="43"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="38" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A38" s="13"/>
       <c r="B38" s="5"/>
       <c r="C38" s="14" t="s">
@@ -7870,7 +7867,7 @@
       <c r="DU38" s="43"/>
       <c r="DV38" s="43"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="39" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A39" s="13"/>
       <c r="B39" s="5"/>
       <c r="C39" s="14" t="s">
@@ -8010,7 +8007,7 @@
       <c r="DU39" s="43"/>
       <c r="DV39" s="43"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="40" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
       <c r="A40" s="13"/>
       <c r="B40" s="5"/>
       <c r="C40" s="14" t="s">
@@ -8570,7 +8567,7 @@
       <c r="DU43" s="43"/>
       <c r="DV43" s="43"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="44" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A44" s="13"/>
       <c r="B44" s="5"/>
       <c r="C44" s="14" t="s">
@@ -8710,7 +8707,7 @@
       <c r="DU44" s="43"/>
       <c r="DV44" s="43"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="45" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A45" s="13"/>
       <c r="B45" s="5"/>
       <c r="C45" s="14" t="s">
@@ -9934,7 +9931,7 @@
       <c r="CK53" s="60"/>
       <c r="CL53" s="43"/>
       <c r="CM53" s="43"/>
-      <c r="CN53" s="62"/>
+      <c r="CN53" s="61"/>
       <c r="CO53" s="64"/>
       <c r="CP53" s="43"/>
       <c r="CQ53" s="49"/>
@@ -10109,7 +10106,7 @@
       <c r="DU54" s="43"/>
       <c r="DV54" s="43"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="55" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="14" t="s">
@@ -10669,7 +10666,7 @@
       <c r="DU58" s="43"/>
       <c r="DV58" s="43"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="59" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A59" s="13"/>
       <c r="B59" s="5"/>
       <c r="C59" s="14" t="s">
@@ -10809,7 +10806,7 @@
       <c r="DU59" s="43"/>
       <c r="DV59" s="43"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="60" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A60" s="13"/>
       <c r="B60" s="5"/>
       <c r="C60" s="14" t="s">
@@ -10949,7 +10946,7 @@
       <c r="DU60" s="43"/>
       <c r="DV60" s="43"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:126">
+    <row r="61" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A61" s="13"/>
       <c r="B61" s="5"/>
       <c r="C61" s="14" t="s">
@@ -11089,7 +11086,7 @@
       <c r="DU61" s="43"/>
       <c r="DV61" s="43"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A62" s="13"/>
       <c r="B62" s="5"/>
       <c r="C62" s="14" t="s">
@@ -11229,7 +11226,7 @@
       <c r="DU62" s="43"/>
       <c r="DV62" s="43"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="63" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
       <c r="A63" s="13"/>
       <c r="B63" s="5"/>
       <c r="C63" s="14" t="s">
@@ -11369,7 +11366,7 @@
       <c r="DU63" s="43"/>
       <c r="DV63" s="43"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" spans="1:126">
+    <row r="64" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
       <c r="A64" s="13"/>
       <c r="B64" s="5"/>
       <c r="C64" s="14" t="s">
@@ -11789,148 +11786,8 @@
       <c r="DU66" s="43"/>
       <c r="DV66" s="43"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
-      <c r="A67" s="13"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="19">
-        <v>1</v>
-      </c>
-      <c r="J67" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB67" s="45"/>
-      <c r="AC67" s="45"/>
-      <c r="AD67" s="46"/>
-      <c r="AE67" s="43"/>
-      <c r="AF67" s="43"/>
-      <c r="AG67" s="43"/>
-      <c r="AH67" s="43"/>
-      <c r="AI67" s="43"/>
-      <c r="AJ67" s="49"/>
-      <c r="AK67" s="49"/>
-      <c r="AL67" s="43"/>
-      <c r="AM67" s="43"/>
-      <c r="AN67" s="43"/>
-      <c r="AO67" s="43"/>
-      <c r="AP67" s="43"/>
-      <c r="AQ67" s="49"/>
-      <c r="AR67" s="49"/>
-      <c r="AS67" s="43"/>
-      <c r="AT67" s="43"/>
-      <c r="AU67" s="43"/>
-      <c r="AV67" s="43"/>
-      <c r="AW67" s="43"/>
-      <c r="AX67" s="49"/>
-      <c r="AY67" s="49"/>
-      <c r="AZ67" s="43"/>
-      <c r="BA67" s="43"/>
-      <c r="BB67" s="43"/>
-      <c r="BC67" s="43"/>
-      <c r="BD67" s="43"/>
-      <c r="BE67" s="49"/>
-      <c r="BF67" s="49"/>
-      <c r="BG67" s="43"/>
-      <c r="BH67" s="54"/>
-      <c r="BI67" s="43"/>
-      <c r="BJ67" s="43"/>
-      <c r="BK67" s="43"/>
-      <c r="BL67" s="49"/>
-      <c r="BM67" s="49"/>
-      <c r="BN67" s="43"/>
-      <c r="BO67" s="60"/>
-      <c r="BP67" s="49"/>
-      <c r="BQ67" s="43"/>
-      <c r="BR67" s="43"/>
-      <c r="BS67" s="43"/>
-      <c r="BT67" s="43"/>
-      <c r="BU67" s="43"/>
-      <c r="BV67" s="49"/>
-      <c r="BW67" s="60"/>
-      <c r="BX67" s="43"/>
-      <c r="BY67" s="43"/>
-      <c r="BZ67" s="43"/>
-      <c r="CA67" s="43"/>
-      <c r="CB67" s="43"/>
-      <c r="CC67" s="49"/>
-      <c r="CD67" s="67"/>
-      <c r="CE67" s="68"/>
-      <c r="CF67" s="68"/>
-      <c r="CG67" s="68"/>
-      <c r="CH67" s="43"/>
-      <c r="CI67" s="43"/>
-      <c r="CJ67" s="43"/>
-      <c r="CK67" s="60"/>
-      <c r="CL67" s="43"/>
-      <c r="CM67" s="43"/>
-      <c r="CN67" s="43"/>
-      <c r="CO67" s="43"/>
-      <c r="CP67" s="43"/>
-      <c r="CQ67" s="49"/>
-      <c r="CR67" s="60"/>
-      <c r="CS67" s="49"/>
-      <c r="CT67" s="49"/>
-      <c r="CU67" s="49"/>
-      <c r="CV67" s="43"/>
-      <c r="CW67" s="62"/>
-      <c r="CX67" s="62"/>
-      <c r="CY67" s="64"/>
-      <c r="CZ67" s="43"/>
-      <c r="DA67" s="43"/>
-      <c r="DB67" s="43"/>
-      <c r="DC67" s="43"/>
-      <c r="DD67" s="43"/>
-      <c r="DE67" s="49"/>
-      <c r="DF67" s="60"/>
-      <c r="DG67" s="43"/>
-      <c r="DH67" s="43"/>
-      <c r="DI67" s="43"/>
-      <c r="DJ67" s="43"/>
-      <c r="DK67" s="43"/>
-      <c r="DL67" s="49"/>
-      <c r="DM67" s="60"/>
-      <c r="DN67" s="43"/>
-      <c r="DO67" s="43"/>
-      <c r="DP67" s="43"/>
-      <c r="DQ67" s="43"/>
-      <c r="DR67" s="43"/>
-      <c r="DS67" s="49"/>
-      <c r="DT67" s="60"/>
-      <c r="DU67" s="43"/>
-      <c r="DV67" s="43"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C3:AD67">
+  <autoFilter ref="C3:AD66">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="equal" val="2测"/>
@@ -11938,11 +11795,11 @@
     </filterColumn>
     <filterColumn colId="24">
       <customFilters>
-        <customFilter operator="equal" val="苏春雨"/>
+        <customFilter operator="equal" val="温清洁"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="351">
+  <mergeCells count="346">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AT1:BM1"/>
@@ -12288,11 +12145,6 @@
     <mergeCell ref="J66:W66"/>
     <mergeCell ref="X66:Z66"/>
     <mergeCell ref="AA66:AD66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="J67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA67:AD67"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="X2">

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -10,7 +10,7 @@
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$65</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -22,6 +22,66 @@
     <author>Adelais</author>
   </authors>
   <commentList>
+    <comment ref="CP43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Adelais:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个客服需要付费，只有一个客服。每个客服的token也只是使用的测试token。服务器那边也没有api</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Adelais:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按照api文档做了，服务器那边没有。不能测试</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="CL57" authorId="0">
       <text>
         <r>
@@ -48,17 +108,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">基础代码写完，差url。服务器那边还没有出接口，还不能测试。
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>基础代码写完。只等服务端出接口测试。</t>
         </r>
       </text>
     </comment>
@@ -67,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>《暴走乐器》研发进度规划及版本计划</t>
   </si>
@@ -415,9 +465,6 @@
   </si>
   <si>
     <t>完成“系统消息”接口</t>
-  </si>
-  <si>
-    <t>tablayout，bug修复</t>
   </si>
   <si>
     <t>系统消息</t>
@@ -450,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -517,7 +564,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,68 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,16 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,11 +615,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,7 +798,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,61 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,49 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,19 +924,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,6 +1274,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1244,18 +1300,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,6 +1320,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,20 +1350,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,10 +1379,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,10 +1391,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,115 +1409,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2086,14 +2133,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ66"/>
+  <dimension ref="A1:EZ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="30" ySplit="3" topLeftCell="CF35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45:W45"/>
+      <selection pane="bottomRight" activeCell="CM55" sqref="CM55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -7551,7 +7598,7 @@
       <c r="CK36" s="49"/>
       <c r="CL36" s="43"/>
       <c r="CM36" s="69"/>
-      <c r="CN36" s="64"/>
+      <c r="CN36" s="61"/>
       <c r="CO36" s="43"/>
       <c r="CP36" s="43"/>
       <c r="CQ36" s="49"/>
@@ -8111,8 +8158,8 @@
       <c r="CK40" s="48"/>
       <c r="CL40" s="43"/>
       <c r="CM40" s="65"/>
-      <c r="CN40" s="43"/>
-      <c r="CO40" s="43"/>
+      <c r="CN40" s="65"/>
+      <c r="CO40" s="65"/>
       <c r="CP40" s="43"/>
       <c r="CQ40" s="48"/>
       <c r="CR40" s="59"/>
@@ -8248,7 +8295,7 @@
       <c r="CH41" s="43"/>
       <c r="CI41" s="43"/>
       <c r="CJ41" s="43"/>
-      <c r="CK41" s="62"/>
+      <c r="CK41" s="61"/>
       <c r="CL41" s="64"/>
       <c r="CM41" s="43"/>
       <c r="CN41" s="43"/>
@@ -8388,7 +8435,7 @@
       <c r="CH42" s="43"/>
       <c r="CI42" s="43"/>
       <c r="CJ42" s="62"/>
-      <c r="CK42" s="64"/>
+      <c r="CK42" s="61"/>
       <c r="CL42" s="43"/>
       <c r="CM42" s="43"/>
       <c r="CN42" s="43"/>
@@ -8533,7 +8580,7 @@
       <c r="CM43" s="43"/>
       <c r="CN43" s="62"/>
       <c r="CO43" s="62"/>
-      <c r="CP43" s="64"/>
+      <c r="CP43" s="62"/>
       <c r="CQ43" s="48"/>
       <c r="CR43" s="59"/>
       <c r="CS43" s="48"/>
@@ -9790,7 +9837,7 @@
       <c r="CJ52" s="43"/>
       <c r="CK52" s="43"/>
       <c r="CL52" s="43"/>
-      <c r="CM52" s="62"/>
+      <c r="CM52" s="61"/>
       <c r="CN52" s="43"/>
       <c r="CO52" s="43"/>
       <c r="CP52" s="43"/>
@@ -10488,7 +10535,7 @@
       <c r="CI57" s="43"/>
       <c r="CJ57" s="59"/>
       <c r="CK57" s="62"/>
-      <c r="CL57" s="64"/>
+      <c r="CL57" s="62"/>
       <c r="CM57" s="43"/>
       <c r="CN57" s="43"/>
       <c r="CO57" s="43"/>
@@ -10526,7 +10573,7 @@
       <c r="DU57" s="43"/>
       <c r="DV57" s="43"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" spans="1:126">
+    <row r="58" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
       <c r="A58" s="13"/>
       <c r="B58" s="5"/>
       <c r="C58" s="14" t="s">
@@ -10540,7 +10587,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
       <c r="I58" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>116</v>
@@ -10564,7 +10611,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="16"/>
       <c r="AA58" s="39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AB58" s="40"/>
       <c r="AC58" s="40"/>
@@ -10616,24 +10663,24 @@
       <c r="BW58" s="59"/>
       <c r="BX58" s="43"/>
       <c r="BY58" s="43"/>
-      <c r="BZ58" s="61"/>
+      <c r="BZ58" s="43"/>
       <c r="CA58" s="43"/>
       <c r="CB58" s="43"/>
-      <c r="CC58" s="48"/>
-      <c r="CD58" s="59"/>
+      <c r="CC58" s="43"/>
+      <c r="CD58" s="43"/>
       <c r="CE58" s="43"/>
       <c r="CF58" s="43"/>
       <c r="CG58" s="43"/>
       <c r="CH58" s="43"/>
       <c r="CI58" s="43"/>
-      <c r="CJ58" s="43"/>
-      <c r="CK58" s="43"/>
+      <c r="CJ58" s="48"/>
+      <c r="CK58" s="59"/>
       <c r="CL58" s="43"/>
       <c r="CM58" s="43"/>
       <c r="CN58" s="43"/>
-      <c r="CO58" s="43"/>
+      <c r="CO58" s="64"/>
       <c r="CP58" s="43"/>
-      <c r="CQ58" s="64"/>
+      <c r="CQ58" s="48"/>
       <c r="CR58" s="59"/>
       <c r="CS58" s="48"/>
       <c r="CT58" s="48"/>
@@ -10770,8 +10817,8 @@
       <c r="CK59" s="59"/>
       <c r="CL59" s="43"/>
       <c r="CM59" s="43"/>
-      <c r="CN59" s="43"/>
-      <c r="CO59" s="64"/>
+      <c r="CN59" s="64"/>
+      <c r="CO59" s="43"/>
       <c r="CP59" s="43"/>
       <c r="CQ59" s="48"/>
       <c r="CR59" s="59"/>
@@ -10839,7 +10886,7 @@
       <c r="V60" s="21"/>
       <c r="W60" s="27"/>
       <c r="X60" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y60" s="15"/>
       <c r="Z60" s="16"/>
@@ -10910,10 +10957,10 @@
       <c r="CK60" s="59"/>
       <c r="CL60" s="43"/>
       <c r="CM60" s="43"/>
-      <c r="CN60" s="64"/>
+      <c r="CN60" s="43"/>
       <c r="CO60" s="43"/>
-      <c r="CP60" s="43"/>
-      <c r="CQ60" s="48"/>
+      <c r="CP60" s="62"/>
+      <c r="CQ60" s="64"/>
       <c r="CR60" s="59"/>
       <c r="CS60" s="48"/>
       <c r="CT60" s="48"/>
@@ -10946,7 +10993,7 @@
       <c r="DU60" s="43"/>
       <c r="DV60" s="43"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:126">
+    <row r="61" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
       <c r="A61" s="13"/>
       <c r="B61" s="5"/>
       <c r="C61" s="14" t="s">
@@ -10979,12 +11026,12 @@
       <c r="V61" s="21"/>
       <c r="W61" s="27"/>
       <c r="X61" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="15"/>
       <c r="Z61" s="16"/>
       <c r="AA61" s="39" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AB61" s="40"/>
       <c r="AC61" s="40"/>
@@ -10994,99 +11041,99 @@
       <c r="AG61" s="43"/>
       <c r="AH61" s="43"/>
       <c r="AI61" s="43"/>
-      <c r="AJ61" s="48"/>
-      <c r="AK61" s="48"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
       <c r="AL61" s="43"/>
       <c r="AM61" s="43"/>
       <c r="AN61" s="43"/>
       <c r="AO61" s="43"/>
       <c r="AP61" s="43"/>
-      <c r="AQ61" s="48"/>
-      <c r="AR61" s="48"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="49"/>
       <c r="AS61" s="43"/>
       <c r="AT61" s="43"/>
       <c r="AU61" s="43"/>
       <c r="AV61" s="43"/>
       <c r="AW61" s="43"/>
-      <c r="AX61" s="48"/>
-      <c r="AY61" s="48"/>
+      <c r="AX61" s="49"/>
+      <c r="AY61" s="49"/>
       <c r="AZ61" s="43"/>
       <c r="BA61" s="43"/>
       <c r="BB61" s="43"/>
       <c r="BC61" s="43"/>
       <c r="BD61" s="43"/>
-      <c r="BE61" s="48"/>
-      <c r="BF61" s="48"/>
+      <c r="BE61" s="49"/>
+      <c r="BF61" s="49"/>
       <c r="BG61" s="43"/>
-      <c r="BH61" s="18"/>
+      <c r="BH61" s="54"/>
       <c r="BI61" s="43"/>
       <c r="BJ61" s="43"/>
       <c r="BK61" s="43"/>
-      <c r="BL61" s="48"/>
-      <c r="BM61" s="48"/>
+      <c r="BL61" s="49"/>
+      <c r="BM61" s="49"/>
       <c r="BN61" s="43"/>
-      <c r="BO61" s="59"/>
-      <c r="BP61" s="48"/>
+      <c r="BO61" s="60"/>
+      <c r="BP61" s="49"/>
       <c r="BQ61" s="43"/>
       <c r="BR61" s="43"/>
       <c r="BS61" s="43"/>
       <c r="BT61" s="43"/>
       <c r="BU61" s="43"/>
-      <c r="BV61" s="48"/>
-      <c r="BW61" s="59"/>
+      <c r="BV61" s="49"/>
+      <c r="BW61" s="60"/>
       <c r="BX61" s="43"/>
       <c r="BY61" s="43"/>
       <c r="BZ61" s="43"/>
       <c r="CA61" s="43"/>
       <c r="CB61" s="43"/>
-      <c r="CC61" s="43"/>
-      <c r="CD61" s="43"/>
+      <c r="CC61" s="49"/>
+      <c r="CD61" s="60"/>
       <c r="CE61" s="43"/>
       <c r="CF61" s="43"/>
       <c r="CG61" s="43"/>
       <c r="CH61" s="43"/>
       <c r="CI61" s="43"/>
-      <c r="CJ61" s="48"/>
-      <c r="CK61" s="59"/>
+      <c r="CJ61" s="43"/>
+      <c r="CK61" s="60"/>
       <c r="CL61" s="43"/>
-      <c r="CM61" s="43"/>
-      <c r="CN61" s="43"/>
+      <c r="CM61" s="69"/>
+      <c r="CN61" s="61"/>
       <c r="CO61" s="43"/>
-      <c r="CP61" s="62"/>
-      <c r="CQ61" s="64"/>
-      <c r="CR61" s="59"/>
-      <c r="CS61" s="48"/>
-      <c r="CT61" s="48"/>
-      <c r="CU61" s="48"/>
+      <c r="CP61" s="43"/>
+      <c r="CQ61" s="49"/>
+      <c r="CR61" s="60"/>
+      <c r="CS61" s="49"/>
+      <c r="CT61" s="49"/>
+      <c r="CU61" s="49"/>
       <c r="CV61" s="43"/>
       <c r="CW61" s="43"/>
-      <c r="CX61" s="48"/>
-      <c r="CY61" s="59"/>
+      <c r="CX61" s="49"/>
+      <c r="CY61" s="60"/>
       <c r="CZ61" s="43"/>
       <c r="DA61" s="43"/>
       <c r="DB61" s="43"/>
       <c r="DC61" s="43"/>
       <c r="DD61" s="43"/>
-      <c r="DE61" s="48"/>
-      <c r="DF61" s="59"/>
+      <c r="DE61" s="49"/>
+      <c r="DF61" s="60"/>
       <c r="DG61" s="43"/>
       <c r="DH61" s="43"/>
       <c r="DI61" s="43"/>
       <c r="DJ61" s="43"/>
       <c r="DK61" s="43"/>
-      <c r="DL61" s="48"/>
-      <c r="DM61" s="59"/>
+      <c r="DL61" s="49"/>
+      <c r="DM61" s="60"/>
       <c r="DN61" s="43"/>
       <c r="DO61" s="43"/>
       <c r="DP61" s="43"/>
       <c r="DQ61" s="43"/>
       <c r="DR61" s="43"/>
-      <c r="DS61" s="48"/>
-      <c r="DT61" s="59"/>
+      <c r="DS61" s="49"/>
+      <c r="DT61" s="60"/>
       <c r="DU61" s="43"/>
       <c r="DV61" s="43"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:126">
+    <row r="62" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
       <c r="A62" s="13"/>
       <c r="B62" s="5"/>
       <c r="C62" s="14" t="s">
@@ -11156,7 +11203,7 @@
       <c r="BC62" s="43"/>
       <c r="BD62" s="43"/>
       <c r="BE62" s="49"/>
-      <c r="BF62" s="49"/>
+      <c r="BF62" s="43"/>
       <c r="BG62" s="43"/>
       <c r="BH62" s="54"/>
       <c r="BI62" s="43"/>
@@ -11188,16 +11235,16 @@
       <c r="CI62" s="43"/>
       <c r="CJ62" s="43"/>
       <c r="CK62" s="60"/>
-      <c r="CL62" s="65"/>
-      <c r="CM62" s="65"/>
-      <c r="CN62" s="61"/>
+      <c r="CL62" s="43"/>
+      <c r="CM62" s="43"/>
+      <c r="CN62" s="43"/>
       <c r="CO62" s="43"/>
       <c r="CP62" s="43"/>
       <c r="CQ62" s="49"/>
       <c r="CR62" s="60"/>
       <c r="CS62" s="49"/>
       <c r="CT62" s="49"/>
-      <c r="CU62" s="49"/>
+      <c r="CU62" s="64"/>
       <c r="CV62" s="43"/>
       <c r="CW62" s="43"/>
       <c r="CX62" s="49"/>
@@ -11259,7 +11306,7 @@
       <c r="V63" s="21"/>
       <c r="W63" s="27"/>
       <c r="X63" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y63" s="15"/>
       <c r="Z63" s="16"/>
@@ -11337,9 +11384,9 @@
       <c r="CR63" s="60"/>
       <c r="CS63" s="49"/>
       <c r="CT63" s="49"/>
-      <c r="CU63" s="64"/>
-      <c r="CV63" s="43"/>
-      <c r="CW63" s="43"/>
+      <c r="CU63" s="49"/>
+      <c r="CV63" s="69"/>
+      <c r="CW63" s="64"/>
       <c r="CX63" s="49"/>
       <c r="CY63" s="60"/>
       <c r="CZ63" s="43"/>
@@ -11366,7 +11413,7 @@
       <c r="DU63" s="43"/>
       <c r="DV63" s="43"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:126">
+    <row r="64" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
       <c r="A64" s="13"/>
       <c r="B64" s="5"/>
       <c r="C64" s="14" t="s">
@@ -11399,16 +11446,16 @@
       <c r="V64" s="21"/>
       <c r="W64" s="27"/>
       <c r="X64" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="15"/>
       <c r="Z64" s="16"/>
       <c r="AA64" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB64" s="40"/>
-      <c r="AC64" s="40"/>
-      <c r="AD64" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="AB64" s="45"/>
+      <c r="AC64" s="45"/>
+      <c r="AD64" s="46"/>
       <c r="AE64" s="43"/>
       <c r="AF64" s="43"/>
       <c r="AG64" s="43"/>
@@ -11436,7 +11483,7 @@
       <c r="BC64" s="43"/>
       <c r="BD64" s="43"/>
       <c r="BE64" s="49"/>
-      <c r="BF64" s="43"/>
+      <c r="BF64" s="49"/>
       <c r="BG64" s="43"/>
       <c r="BH64" s="54"/>
       <c r="BI64" s="43"/>
@@ -11460,10 +11507,10 @@
       <c r="CA64" s="43"/>
       <c r="CB64" s="43"/>
       <c r="CC64" s="49"/>
-      <c r="CD64" s="60"/>
-      <c r="CE64" s="43"/>
-      <c r="CF64" s="43"/>
-      <c r="CG64" s="43"/>
+      <c r="CD64" s="67"/>
+      <c r="CE64" s="68"/>
+      <c r="CF64" s="68"/>
+      <c r="CG64" s="68"/>
       <c r="CH64" s="43"/>
       <c r="CI64" s="43"/>
       <c r="CJ64" s="43"/>
@@ -11472,14 +11519,14 @@
       <c r="CM64" s="43"/>
       <c r="CN64" s="43"/>
       <c r="CO64" s="43"/>
-      <c r="CP64" s="43"/>
-      <c r="CQ64" s="49"/>
+      <c r="CP64" s="62"/>
+      <c r="CQ64" s="64"/>
       <c r="CR64" s="60"/>
       <c r="CS64" s="49"/>
       <c r="CT64" s="49"/>
       <c r="CU64" s="49"/>
-      <c r="CV64" s="69"/>
-      <c r="CW64" s="64"/>
+      <c r="CV64" s="43"/>
+      <c r="CW64" s="43"/>
       <c r="CX64" s="49"/>
       <c r="CY64" s="60"/>
       <c r="CZ64" s="43"/>
@@ -11612,12 +11659,12 @@
       <c r="CM65" s="43"/>
       <c r="CN65" s="43"/>
       <c r="CO65" s="43"/>
-      <c r="CP65" s="62"/>
-      <c r="CQ65" s="64"/>
+      <c r="CP65" s="43"/>
+      <c r="CQ65" s="49"/>
       <c r="CR65" s="60"/>
       <c r="CS65" s="49"/>
       <c r="CT65" s="49"/>
-      <c r="CU65" s="49"/>
+      <c r="CU65" s="64"/>
       <c r="CV65" s="43"/>
       <c r="CW65" s="43"/>
       <c r="CX65" s="49"/>
@@ -11646,148 +11693,8 @@
       <c r="DU65" s="43"/>
       <c r="DV65" s="43"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" spans="1:126">
-      <c r="A66" s="13"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="19">
-        <v>1</v>
-      </c>
-      <c r="J66" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB66" s="45"/>
-      <c r="AC66" s="45"/>
-      <c r="AD66" s="46"/>
-      <c r="AE66" s="43"/>
-      <c r="AF66" s="43"/>
-      <c r="AG66" s="43"/>
-      <c r="AH66" s="43"/>
-      <c r="AI66" s="43"/>
-      <c r="AJ66" s="49"/>
-      <c r="AK66" s="49"/>
-      <c r="AL66" s="43"/>
-      <c r="AM66" s="43"/>
-      <c r="AN66" s="43"/>
-      <c r="AO66" s="43"/>
-      <c r="AP66" s="43"/>
-      <c r="AQ66" s="49"/>
-      <c r="AR66" s="49"/>
-      <c r="AS66" s="43"/>
-      <c r="AT66" s="43"/>
-      <c r="AU66" s="43"/>
-      <c r="AV66" s="43"/>
-      <c r="AW66" s="43"/>
-      <c r="AX66" s="49"/>
-      <c r="AY66" s="49"/>
-      <c r="AZ66" s="43"/>
-      <c r="BA66" s="43"/>
-      <c r="BB66" s="43"/>
-      <c r="BC66" s="43"/>
-      <c r="BD66" s="43"/>
-      <c r="BE66" s="49"/>
-      <c r="BF66" s="49"/>
-      <c r="BG66" s="43"/>
-      <c r="BH66" s="54"/>
-      <c r="BI66" s="43"/>
-      <c r="BJ66" s="43"/>
-      <c r="BK66" s="43"/>
-      <c r="BL66" s="49"/>
-      <c r="BM66" s="49"/>
-      <c r="BN66" s="43"/>
-      <c r="BO66" s="60"/>
-      <c r="BP66" s="49"/>
-      <c r="BQ66" s="43"/>
-      <c r="BR66" s="43"/>
-      <c r="BS66" s="43"/>
-      <c r="BT66" s="43"/>
-      <c r="BU66" s="43"/>
-      <c r="BV66" s="49"/>
-      <c r="BW66" s="60"/>
-      <c r="BX66" s="43"/>
-      <c r="BY66" s="43"/>
-      <c r="BZ66" s="43"/>
-      <c r="CA66" s="43"/>
-      <c r="CB66" s="43"/>
-      <c r="CC66" s="49"/>
-      <c r="CD66" s="67"/>
-      <c r="CE66" s="68"/>
-      <c r="CF66" s="68"/>
-      <c r="CG66" s="68"/>
-      <c r="CH66" s="43"/>
-      <c r="CI66" s="43"/>
-      <c r="CJ66" s="43"/>
-      <c r="CK66" s="60"/>
-      <c r="CL66" s="43"/>
-      <c r="CM66" s="43"/>
-      <c r="CN66" s="43"/>
-      <c r="CO66" s="43"/>
-      <c r="CP66" s="43"/>
-      <c r="CQ66" s="49"/>
-      <c r="CR66" s="60"/>
-      <c r="CS66" s="49"/>
-      <c r="CT66" s="49"/>
-      <c r="CU66" s="64"/>
-      <c r="CV66" s="43"/>
-      <c r="CW66" s="43"/>
-      <c r="CX66" s="49"/>
-      <c r="CY66" s="60"/>
-      <c r="CZ66" s="43"/>
-      <c r="DA66" s="43"/>
-      <c r="DB66" s="43"/>
-      <c r="DC66" s="43"/>
-      <c r="DD66" s="43"/>
-      <c r="DE66" s="49"/>
-      <c r="DF66" s="60"/>
-      <c r="DG66" s="43"/>
-      <c r="DH66" s="43"/>
-      <c r="DI66" s="43"/>
-      <c r="DJ66" s="43"/>
-      <c r="DK66" s="43"/>
-      <c r="DL66" s="49"/>
-      <c r="DM66" s="60"/>
-      <c r="DN66" s="43"/>
-      <c r="DO66" s="43"/>
-      <c r="DP66" s="43"/>
-      <c r="DQ66" s="43"/>
-      <c r="DR66" s="43"/>
-      <c r="DS66" s="49"/>
-      <c r="DT66" s="60"/>
-      <c r="DU66" s="43"/>
-      <c r="DV66" s="43"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C3:AD66">
+  <autoFilter ref="C3:AD65">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="equal" val="2测"/>
@@ -11799,7 +11706,7 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="346">
+  <mergeCells count="341">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AT1:BM1"/>
@@ -12140,11 +12047,6 @@
     <mergeCell ref="J65:W65"/>
     <mergeCell ref="X65:Z65"/>
     <mergeCell ref="AA65:AD65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="J66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="AA66:AD66"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="X2">

--- a/安卓版本计划.xlsx
+++ b/安卓版本计划.xlsx
@@ -15,7 +15,7 @@
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$75</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="136">
   <si>
     <t>《暴走乐器》研发进度规划及版本计划</t>
   </si>
@@ -494,6 +494,54 @@
   </si>
   <si>
     <t>完成订单详情接口</t>
+  </si>
+  <si>
+    <t>华珊</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成程序</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改课程日历</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分页面添加缓存</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成我的作品页面的删除作品</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成预约订单的接口对接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成交易记录的接口对接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成预约订单的接口对接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程日历接口对接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员反馈逻辑修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索界面接口修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>与华珊一起修改访问服务器方式，将http改为https</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,7 +633,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,7 +1064,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1202,81 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,76 +1310,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,14 +1656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ65"/>
+  <dimension ref="A1:EZ77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="CF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CO66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CR44" sqref="CR44"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72:W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1686,174 +1748,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51" t="s">
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="51"/>
-      <c r="BS1" s="51"/>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BW1" s="51"/>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="51"/>
-      <c r="CJ1" s="51"/>
-      <c r="CK1" s="51"/>
-      <c r="CL1" s="51"/>
-      <c r="CM1" s="51"/>
-      <c r="CN1" s="51"/>
-      <c r="CO1" s="51"/>
-      <c r="CP1" s="51"/>
-      <c r="CQ1" s="51"/>
-      <c r="CR1" s="51"/>
-      <c r="CS1" s="52" t="s">
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="76"/>
+      <c r="BS1" s="76"/>
+      <c r="BT1" s="76"/>
+      <c r="BU1" s="76"/>
+      <c r="BV1" s="76"/>
+      <c r="BW1" s="76"/>
+      <c r="BX1" s="76"/>
+      <c r="BY1" s="76"/>
+      <c r="BZ1" s="76"/>
+      <c r="CA1" s="76"/>
+      <c r="CB1" s="76"/>
+      <c r="CC1" s="76"/>
+      <c r="CD1" s="76"/>
+      <c r="CE1" s="76"/>
+      <c r="CF1" s="76"/>
+      <c r="CG1" s="76"/>
+      <c r="CH1" s="76"/>
+      <c r="CI1" s="76"/>
+      <c r="CJ1" s="76"/>
+      <c r="CK1" s="76"/>
+      <c r="CL1" s="76"/>
+      <c r="CM1" s="76"/>
+      <c r="CN1" s="76"/>
+      <c r="CO1" s="76"/>
+      <c r="CP1" s="76"/>
+      <c r="CQ1" s="76"/>
+      <c r="CR1" s="76"/>
+      <c r="CS1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="CT1" s="53"/>
-      <c r="CU1" s="53"/>
-      <c r="CV1" s="53"/>
-      <c r="CW1" s="53"/>
-      <c r="CX1" s="53"/>
-      <c r="CY1" s="53"/>
-      <c r="CZ1" s="53"/>
-      <c r="DA1" s="53"/>
-      <c r="DB1" s="53"/>
-      <c r="DC1" s="53"/>
-      <c r="DD1" s="53"/>
-      <c r="DE1" s="53"/>
-      <c r="DF1" s="53"/>
-      <c r="DG1" s="53"/>
-      <c r="DH1" s="53"/>
-      <c r="DI1" s="53"/>
-      <c r="DJ1" s="53"/>
-      <c r="DK1" s="53"/>
-      <c r="DL1" s="53"/>
-      <c r="DM1" s="53"/>
-      <c r="DN1" s="53"/>
-      <c r="DO1" s="53"/>
-      <c r="DP1" s="53"/>
-      <c r="DQ1" s="53"/>
-      <c r="DR1" s="53"/>
-      <c r="DS1" s="53"/>
-      <c r="DT1" s="53"/>
-      <c r="DU1" s="53"/>
-      <c r="DV1" s="54"/>
-      <c r="DW1" s="52" t="s">
+      <c r="CT1" s="78"/>
+      <c r="CU1" s="78"/>
+      <c r="CV1" s="78"/>
+      <c r="CW1" s="78"/>
+      <c r="CX1" s="78"/>
+      <c r="CY1" s="78"/>
+      <c r="CZ1" s="78"/>
+      <c r="DA1" s="78"/>
+      <c r="DB1" s="78"/>
+      <c r="DC1" s="78"/>
+      <c r="DD1" s="78"/>
+      <c r="DE1" s="78"/>
+      <c r="DF1" s="78"/>
+      <c r="DG1" s="78"/>
+      <c r="DH1" s="78"/>
+      <c r="DI1" s="78"/>
+      <c r="DJ1" s="78"/>
+      <c r="DK1" s="78"/>
+      <c r="DL1" s="78"/>
+      <c r="DM1" s="78"/>
+      <c r="DN1" s="78"/>
+      <c r="DO1" s="78"/>
+      <c r="DP1" s="78"/>
+      <c r="DQ1" s="78"/>
+      <c r="DR1" s="78"/>
+      <c r="DS1" s="78"/>
+      <c r="DT1" s="78"/>
+      <c r="DU1" s="78"/>
+      <c r="DV1" s="79"/>
+      <c r="DW1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="DX1" s="53"/>
-      <c r="DY1" s="53"/>
-      <c r="DZ1" s="53"/>
-      <c r="EA1" s="53"/>
-      <c r="EB1" s="53"/>
-      <c r="EC1" s="53"/>
-      <c r="ED1" s="53"/>
-      <c r="EE1" s="53"/>
-      <c r="EF1" s="53"/>
-      <c r="EG1" s="53"/>
-      <c r="EH1" s="53"/>
-      <c r="EI1" s="53"/>
-      <c r="EJ1" s="53"/>
-      <c r="EK1" s="53"/>
-      <c r="EL1" s="53"/>
-      <c r="EM1" s="53"/>
-      <c r="EN1" s="53"/>
-      <c r="EO1" s="53"/>
-      <c r="EP1" s="53"/>
-      <c r="EQ1" s="53"/>
-      <c r="ER1" s="53"/>
-      <c r="ES1" s="53"/>
-      <c r="ET1" s="53"/>
-      <c r="EU1" s="53"/>
-      <c r="EV1" s="53"/>
-      <c r="EW1" s="53"/>
-      <c r="EX1" s="53"/>
-      <c r="EY1" s="53"/>
-      <c r="EZ1" s="54"/>
+      <c r="DX1" s="78"/>
+      <c r="DY1" s="78"/>
+      <c r="DZ1" s="78"/>
+      <c r="EA1" s="78"/>
+      <c r="EB1" s="78"/>
+      <c r="EC1" s="78"/>
+      <c r="ED1" s="78"/>
+      <c r="EE1" s="78"/>
+      <c r="EF1" s="78"/>
+      <c r="EG1" s="78"/>
+      <c r="EH1" s="78"/>
+      <c r="EI1" s="78"/>
+      <c r="EJ1" s="78"/>
+      <c r="EK1" s="78"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="78"/>
+      <c r="EN1" s="78"/>
+      <c r="EO1" s="78"/>
+      <c r="EP1" s="78"/>
+      <c r="EQ1" s="78"/>
+      <c r="ER1" s="78"/>
+      <c r="ES1" s="78"/>
+      <c r="ET1" s="78"/>
+      <c r="EU1" s="78"/>
+      <c r="EV1" s="78"/>
+      <c r="EW1" s="78"/>
+      <c r="EX1" s="78"/>
+      <c r="EY1" s="78"/>
+      <c r="EZ1" s="79"/>
     </row>
     <row r="2" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -1897,210 +1959,210 @@
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="17"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51" t="s">
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51" t="s">
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51" t="s">
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="55" t="s">
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51" t="s">
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="51"/>
-      <c r="BT2" s="51"/>
-      <c r="BU2" s="51"/>
-      <c r="BV2" s="51"/>
-      <c r="BW2" s="51"/>
-      <c r="BX2" s="51" t="s">
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="76"/>
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76"/>
+      <c r="BW2" s="76"/>
+      <c r="BX2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="BY2" s="51"/>
-      <c r="BZ2" s="51"/>
-      <c r="CA2" s="51"/>
-      <c r="CB2" s="51"/>
-      <c r="CC2" s="51"/>
-      <c r="CD2" s="51"/>
-      <c r="CE2" s="51" t="s">
+      <c r="BY2" s="76"/>
+      <c r="BZ2" s="76"/>
+      <c r="CA2" s="76"/>
+      <c r="CB2" s="76"/>
+      <c r="CC2" s="76"/>
+      <c r="CD2" s="76"/>
+      <c r="CE2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="CF2" s="51"/>
-      <c r="CG2" s="51"/>
-      <c r="CH2" s="51"/>
-      <c r="CI2" s="51"/>
-      <c r="CJ2" s="51"/>
-      <c r="CK2" s="51"/>
-      <c r="CL2" s="51" t="s">
+      <c r="CF2" s="76"/>
+      <c r="CG2" s="76"/>
+      <c r="CH2" s="76"/>
+      <c r="CI2" s="76"/>
+      <c r="CJ2" s="76"/>
+      <c r="CK2" s="76"/>
+      <c r="CL2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="CM2" s="51"/>
-      <c r="CN2" s="51"/>
-      <c r="CO2" s="51"/>
-      <c r="CP2" s="51"/>
-      <c r="CQ2" s="51"/>
-      <c r="CR2" s="51"/>
-      <c r="CS2" s="51" t="s">
+      <c r="CM2" s="76"/>
+      <c r="CN2" s="76"/>
+      <c r="CO2" s="76"/>
+      <c r="CP2" s="76"/>
+      <c r="CQ2" s="76"/>
+      <c r="CR2" s="76"/>
+      <c r="CS2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="CT2" s="51"/>
-      <c r="CU2" s="51"/>
-      <c r="CV2" s="51"/>
-      <c r="CW2" s="51"/>
-      <c r="CX2" s="51"/>
-      <c r="CY2" s="51"/>
-      <c r="CZ2" s="51" t="s">
+      <c r="CT2" s="76"/>
+      <c r="CU2" s="76"/>
+      <c r="CV2" s="76"/>
+      <c r="CW2" s="76"/>
+      <c r="CX2" s="76"/>
+      <c r="CY2" s="76"/>
+      <c r="CZ2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="DA2" s="51"/>
-      <c r="DB2" s="51"/>
-      <c r="DC2" s="51"/>
-      <c r="DD2" s="51"/>
-      <c r="DE2" s="51"/>
-      <c r="DF2" s="51"/>
-      <c r="DG2" s="51" t="s">
+      <c r="DA2" s="76"/>
+      <c r="DB2" s="76"/>
+      <c r="DC2" s="76"/>
+      <c r="DD2" s="76"/>
+      <c r="DE2" s="76"/>
+      <c r="DF2" s="76"/>
+      <c r="DG2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="DH2" s="51"/>
-      <c r="DI2" s="51"/>
-      <c r="DJ2" s="51"/>
-      <c r="DK2" s="51"/>
-      <c r="DL2" s="51"/>
-      <c r="DM2" s="51"/>
-      <c r="DN2" s="55" t="s">
+      <c r="DH2" s="76"/>
+      <c r="DI2" s="76"/>
+      <c r="DJ2" s="76"/>
+      <c r="DK2" s="76"/>
+      <c r="DL2" s="76"/>
+      <c r="DM2" s="76"/>
+      <c r="DN2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="DO2" s="56"/>
-      <c r="DP2" s="56"/>
-      <c r="DQ2" s="56"/>
-      <c r="DR2" s="56"/>
-      <c r="DS2" s="56"/>
-      <c r="DT2" s="56"/>
+      <c r="DO2" s="81"/>
+      <c r="DP2" s="81"/>
+      <c r="DQ2" s="81"/>
+      <c r="DR2" s="81"/>
+      <c r="DS2" s="81"/>
+      <c r="DT2" s="81"/>
       <c r="DU2" s="43"/>
       <c r="DV2" s="44"/>
-      <c r="DW2" s="51" t="s">
+      <c r="DW2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="DX2" s="51"/>
-      <c r="DY2" s="51"/>
-      <c r="DZ2" s="51"/>
-      <c r="EA2" s="51"/>
-      <c r="EB2" s="51"/>
-      <c r="EC2" s="51"/>
-      <c r="ED2" s="51" t="s">
+      <c r="DX2" s="76"/>
+      <c r="DY2" s="76"/>
+      <c r="DZ2" s="76"/>
+      <c r="EA2" s="76"/>
+      <c r="EB2" s="76"/>
+      <c r="EC2" s="76"/>
+      <c r="ED2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="EE2" s="51"/>
-      <c r="EF2" s="51"/>
-      <c r="EG2" s="51"/>
-      <c r="EH2" s="51"/>
-      <c r="EI2" s="51"/>
-      <c r="EJ2" s="51"/>
-      <c r="EK2" s="51" t="s">
+      <c r="EE2" s="76"/>
+      <c r="EF2" s="76"/>
+      <c r="EG2" s="76"/>
+      <c r="EH2" s="76"/>
+      <c r="EI2" s="76"/>
+      <c r="EJ2" s="76"/>
+      <c r="EK2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="EL2" s="51"/>
-      <c r="EM2" s="51"/>
-      <c r="EN2" s="51"/>
-      <c r="EO2" s="51"/>
-      <c r="EP2" s="51"/>
-      <c r="EQ2" s="51"/>
-      <c r="ER2" s="55" t="s">
+      <c r="EL2" s="76"/>
+      <c r="EM2" s="76"/>
+      <c r="EN2" s="76"/>
+      <c r="EO2" s="76"/>
+      <c r="EP2" s="76"/>
+      <c r="EQ2" s="76"/>
+      <c r="ER2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="ES2" s="56"/>
-      <c r="ET2" s="56"/>
-      <c r="EU2" s="56"/>
-      <c r="EV2" s="56"/>
-      <c r="EW2" s="56"/>
-      <c r="EX2" s="56"/>
+      <c r="ES2" s="81"/>
+      <c r="ET2" s="81"/>
+      <c r="EU2" s="81"/>
+      <c r="EV2" s="81"/>
+      <c r="EW2" s="81"/>
+      <c r="EX2" s="81"/>
       <c r="EY2" s="43"/>
       <c r="EZ2" s="44"/>
     </row>
-    <row r="3" spans="1:156" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+    <row r="3" spans="1:156" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="60" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="63" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="66" t="s">
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="67"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
       <c r="AE3" s="18" t="s">
         <v>24</v>
       </c>
@@ -2480,49 +2542,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
+    <row r="4" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="68">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="50">
         <v>1</v>
       </c>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="74" t="s">
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="76"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="61"/>
       <c r="AE4" s="19"/>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
@@ -2620,49 +2682,49 @@
       <c r="DU4" s="20"/>
       <c r="DV4" s="20"/>
     </row>
-    <row r="5" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
+    <row r="5" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="68" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="68">
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="50">
         <v>2</v>
       </c>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="74" t="s">
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="76"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="61"/>
       <c r="AE5" s="19"/>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
@@ -2760,49 +2822,49 @@
       <c r="DU5" s="20"/>
       <c r="DV5" s="20"/>
     </row>
-    <row r="6" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="68">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="50">
         <v>2</v>
       </c>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="74" t="s">
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="76"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
@@ -2900,49 +2962,49 @@
       <c r="DU6" s="20"/>
       <c r="DV6" s="20"/>
     </row>
-    <row r="7" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="68" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="68">
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="50">
         <v>2</v>
       </c>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="74" t="s">
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="76"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
@@ -3040,49 +3102,49 @@
       <c r="DU7" s="20"/>
       <c r="DV7" s="20"/>
     </row>
-    <row r="8" spans="1:156" s="1" customFormat="1" ht="26.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:156" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="68" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="68">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="50">
         <v>1</v>
       </c>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="74" t="s">
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="76"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
       <c r="AE8" s="20"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -3180,49 +3242,49 @@
       <c r="DU8" s="20"/>
       <c r="DV8" s="20"/>
     </row>
-    <row r="9" spans="1:156" s="1" customFormat="1" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:156" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="68" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="68">
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="50">
         <v>2</v>
       </c>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="74" t="s">
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="76"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
@@ -3320,49 +3382,49 @@
       <c r="DU9" s="20"/>
       <c r="DV9" s="20"/>
     </row>
-    <row r="10" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="68" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="68">
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="50">
         <v>1</v>
       </c>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="74" t="s">
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
@@ -3460,49 +3522,49 @@
       <c r="DU10" s="20"/>
       <c r="DV10" s="20"/>
     </row>
-    <row r="11" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:156" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="68">
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="50">
         <v>2</v>
       </c>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="74" t="s">
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="76"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
       <c r="AE11" s="20"/>
       <c r="AF11" s="20"/>
       <c r="AG11" s="20"/>
@@ -3600,49 +3662,49 @@
       <c r="DU11" s="20"/>
       <c r="DV11" s="20"/>
     </row>
-    <row r="12" spans="1:156" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:156" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="68">
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="50">
         <v>1</v>
       </c>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="74" t="s">
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="76"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20"/>
@@ -3740,49 +3802,49 @@
       <c r="DU12" s="20"/>
       <c r="DV12" s="20"/>
     </row>
-    <row r="13" spans="1:156" s="1" customFormat="1" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:156" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="68" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="68">
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="50">
         <v>1</v>
       </c>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="74" t="s">
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="76"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
       <c r="AG13" s="20"/>
@@ -3880,49 +3942,49 @@
       <c r="DU13" s="20"/>
       <c r="DV13" s="20"/>
     </row>
-    <row r="14" spans="1:156" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:156" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="68" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="68">
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="50">
         <v>2</v>
       </c>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="74" t="s">
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="76"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
       <c r="AE14" s="20"/>
       <c r="AF14" s="20"/>
       <c r="AG14" s="20"/>
@@ -4020,49 +4082,49 @@
       <c r="DU14" s="20"/>
       <c r="DV14" s="20"/>
     </row>
-    <row r="15" spans="1:156" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:156" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="68" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="68">
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="50">
         <v>2</v>
       </c>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="74" t="s">
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="61"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="20"/>
@@ -4160,49 +4222,49 @@
       <c r="DU15" s="20"/>
       <c r="DV15" s="20"/>
     </row>
-    <row r="16" spans="1:156" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:156" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="68" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="10">
         <v>1</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="68">
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="50">
         <v>2</v>
       </c>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="74" t="s">
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="76"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="61"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="20"/>
@@ -4300,49 +4362,49 @@
       <c r="DU16" s="20"/>
       <c r="DV16" s="20"/>
     </row>
-    <row r="17" spans="1:126" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:126" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="68" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="10">
         <v>1</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="68">
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="50">
         <v>1</v>
       </c>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="74" t="s">
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="76"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="61"/>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
       <c r="AG17" s="20"/>
@@ -4440,49 +4502,49 @@
       <c r="DU17" s="20"/>
       <c r="DV17" s="20"/>
     </row>
-    <row r="18" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="68" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="10">
         <v>1</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="68">
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="50">
         <v>1</v>
       </c>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="74" t="s">
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="76"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="61"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
@@ -4580,49 +4642,49 @@
       <c r="DU18" s="20"/>
       <c r="DV18" s="20"/>
     </row>
-    <row r="19" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="68" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="10">
         <v>1</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="68">
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="50">
         <v>1</v>
       </c>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="74" t="s">
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="76"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="61"/>
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
@@ -4720,49 +4782,49 @@
       <c r="DU19" s="20"/>
       <c r="DV19" s="20"/>
     </row>
-    <row r="20" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="68" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="68">
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="50">
         <v>1</v>
       </c>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="74" t="s">
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="76"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="61"/>
       <c r="AE20" s="20"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="20"/>
@@ -4860,49 +4922,49 @@
       <c r="DU20" s="20"/>
       <c r="DV20" s="20"/>
     </row>
-    <row r="21" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="68" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="10">
         <v>1</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="68">
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="50">
         <v>1</v>
       </c>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="74" t="s">
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="76"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="61"/>
       <c r="AE21" s="20"/>
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
@@ -5000,49 +5062,49 @@
       <c r="DU21" s="20"/>
       <c r="DV21" s="20"/>
     </row>
-    <row r="22" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="68" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="68">
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="50">
         <v>1</v>
       </c>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="74" t="s">
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="76"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
       <c r="AE22" s="20"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="20"/>
@@ -5140,49 +5202,49 @@
       <c r="DU22" s="20"/>
       <c r="DV22" s="20"/>
     </row>
-    <row r="23" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="68" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="10">
         <v>1</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="68">
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="50">
         <v>1</v>
       </c>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="74" t="s">
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="76"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="61"/>
       <c r="AE23" s="20"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
@@ -5280,49 +5342,49 @@
       <c r="DU23" s="20"/>
       <c r="DV23" s="20"/>
     </row>
-    <row r="24" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="68" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="10">
         <v>1</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="68">
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="50">
         <v>1</v>
       </c>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="74" t="s">
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="76"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="61"/>
       <c r="AE24" s="20"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
@@ -5420,49 +5482,49 @@
       <c r="DU24" s="20"/>
       <c r="DV24" s="20"/>
     </row>
-    <row r="25" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="68" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="10">
         <v>1</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="68">
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="50">
         <v>1</v>
       </c>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="74" t="s">
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="76"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="61"/>
       <c r="AE25" s="20"/>
       <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
@@ -5560,49 +5622,49 @@
       <c r="DU25" s="20"/>
       <c r="DV25" s="20"/>
     </row>
-    <row r="26" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="68" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="10">
         <v>4</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="68">
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="50">
         <v>1</v>
       </c>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="74" t="s">
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="76"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="61"/>
       <c r="AE26" s="20"/>
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
@@ -5700,49 +5762,49 @@
       <c r="DU26" s="20"/>
       <c r="DV26" s="20"/>
     </row>
-    <row r="27" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="68" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="10">
         <v>4</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="68">
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="50">
         <v>1</v>
       </c>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="74" t="s">
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="76"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
       <c r="AE27" s="20"/>
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
@@ -5840,49 +5902,49 @@
       <c r="DU27" s="20"/>
       <c r="DV27" s="20"/>
     </row>
-    <row r="28" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="68" t="s">
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="10">
         <v>4</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="68">
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="50">
         <v>1</v>
       </c>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="74" t="s">
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="76"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="61"/>
       <c r="AE28" s="20"/>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
@@ -5980,49 +6042,49 @@
       <c r="DU28" s="20"/>
       <c r="DV28" s="20"/>
     </row>
-    <row r="29" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="68" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="10">
         <v>3</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="68">
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="50">
         <v>4</v>
       </c>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="74" t="s">
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="76"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="61"/>
       <c r="AE29" s="20"/>
       <c r="AF29" s="20"/>
       <c r="AG29" s="20"/>
@@ -6120,49 +6182,49 @@
       <c r="DU29" s="20"/>
       <c r="DV29" s="20"/>
     </row>
-    <row r="30" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="68" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="10">
         <v>3</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="68">
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="50">
         <v>2</v>
       </c>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="74" t="s">
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="78"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="58"/>
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
@@ -6255,49 +6317,49 @@
       <c r="DU30" s="20"/>
       <c r="DV30" s="20"/>
     </row>
-    <row r="31" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="68" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="10">
         <v>3</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="68">
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="50">
         <v>1</v>
       </c>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="74" t="s">
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="78"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="58"/>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="20"/>
@@ -6393,49 +6455,49 @@
       <c r="DU31" s="20"/>
       <c r="DV31" s="20"/>
     </row>
-    <row r="32" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="68" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="10">
         <v>3</v>
       </c>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="68">
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="50">
         <v>1</v>
       </c>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="74" t="s">
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="78"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="58"/>
       <c r="AE32" s="20"/>
       <c r="AF32" s="20"/>
       <c r="AG32" s="20"/>
@@ -6533,49 +6595,49 @@
       <c r="DU32" s="20"/>
       <c r="DV32" s="20"/>
     </row>
-    <row r="33" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="68" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="10">
         <v>1</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="68">
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="50">
         <v>1</v>
       </c>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="74" t="s">
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="78"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="58"/>
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
@@ -6673,49 +6735,49 @@
       <c r="DU33" s="20"/>
       <c r="DV33" s="20"/>
     </row>
-    <row r="34" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="68" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="10">
         <v>1</v>
       </c>
-      <c r="J34" s="71" t="s">
+      <c r="J34" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="68">
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="50">
         <v>2</v>
       </c>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="74" t="s">
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="78"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="58"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
@@ -6816,46 +6878,46 @@
     <row r="35" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="68" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="10">
         <v>1</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="68">
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="50">
         <v>2</v>
       </c>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="74" t="s">
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="76"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="61"/>
       <c r="AE35" s="20"/>
       <c r="AF35" s="20"/>
       <c r="AG35" s="20"/>
@@ -6956,46 +7018,46 @@
     <row r="36" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="68" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="10">
         <v>1</v>
       </c>
-      <c r="J36" s="71" t="s">
+      <c r="J36" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="68">
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="50">
         <v>2</v>
       </c>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="74" t="s">
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="76"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="61"/>
       <c r="AE36" s="20"/>
       <c r="AF36" s="20"/>
       <c r="AG36" s="20"/>
@@ -7096,46 +7158,46 @@
     <row r="37" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="68" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="10">
         <v>3</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="68">
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="50">
         <v>1</v>
       </c>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="70"/>
-      <c r="AA37" s="74" t="s">
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="76"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="61"/>
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
@@ -7201,7 +7263,7 @@
       <c r="CO37" s="20"/>
       <c r="CP37" s="20"/>
       <c r="CQ37" s="24"/>
-      <c r="CR37" s="80"/>
+      <c r="CR37" s="48"/>
       <c r="CS37" s="24"/>
       <c r="CT37" s="24"/>
       <c r="CU37" s="24"/>
@@ -7233,49 +7295,49 @@
       <c r="DU37" s="20"/>
       <c r="DV37" s="20"/>
     </row>
-    <row r="38" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="68" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="10">
         <v>1</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="68">
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="50">
         <v>1</v>
       </c>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="70"/>
-      <c r="AA38" s="74" t="s">
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="75"/>
-      <c r="AD38" s="76"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="61"/>
       <c r="AE38" s="20"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
@@ -7373,49 +7435,49 @@
       <c r="DU38" s="20"/>
       <c r="DV38" s="20"/>
     </row>
-    <row r="39" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="68" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="10">
         <v>1</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="68">
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="50">
         <v>2</v>
       </c>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="74" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="76"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="61"/>
       <c r="AE39" s="20"/>
       <c r="AF39" s="20"/>
       <c r="AG39" s="20"/>
@@ -7513,49 +7575,49 @@
       <c r="DU39" s="20"/>
       <c r="DV39" s="20"/>
     </row>
-    <row r="40" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="68" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="10">
         <v>1</v>
       </c>
-      <c r="J40" s="71" t="s">
+      <c r="J40" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="68">
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="50">
         <v>2</v>
       </c>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="74" t="s">
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="76"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="61"/>
       <c r="AE40" s="20"/>
       <c r="AF40" s="20"/>
       <c r="AG40" s="20"/>
@@ -7653,49 +7715,49 @@
       <c r="DU40" s="20"/>
       <c r="DV40" s="20"/>
     </row>
-    <row r="41" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="68" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="10">
         <v>1</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="68">
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="50">
         <v>1</v>
       </c>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="70"/>
-      <c r="AA41" s="74" t="s">
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB41" s="75"/>
-      <c r="AC41" s="75"/>
-      <c r="AD41" s="76"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="61"/>
       <c r="AE41" s="20"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20"/>
@@ -7793,49 +7855,49 @@
       <c r="DU41" s="20"/>
       <c r="DV41" s="20"/>
     </row>
-    <row r="42" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="68" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="10">
         <v>1</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="68">
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="50">
         <v>1</v>
       </c>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="74" t="s">
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB42" s="75"/>
-      <c r="AC42" s="75"/>
-      <c r="AD42" s="76"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="61"/>
       <c r="AE42" s="20"/>
       <c r="AF42" s="20"/>
       <c r="AG42" s="20"/>
@@ -7933,49 +7995,49 @@
       <c r="DU42" s="20"/>
       <c r="DV42" s="20"/>
     </row>
-    <row r="43" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="68" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="10">
         <v>2</v>
       </c>
-      <c r="J43" s="71" t="s">
+      <c r="J43" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="68">
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="50">
         <v>1</v>
       </c>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="74" t="s">
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB43" s="75"/>
-      <c r="AC43" s="75"/>
-      <c r="AD43" s="76"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="61"/>
       <c r="AE43" s="20"/>
       <c r="AF43" s="20"/>
       <c r="AG43" s="20"/>
@@ -8076,46 +8138,46 @@
     <row r="44" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="68" t="s">
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="70"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="10">
         <v>2</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="73"/>
-      <c r="X44" s="68">
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="50">
         <v>3</v>
       </c>
-      <c r="Y44" s="69"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="74" t="s">
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="75"/>
-      <c r="AC44" s="75"/>
-      <c r="AD44" s="76"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="61"/>
       <c r="AE44" s="20"/>
       <c r="AF44" s="20"/>
       <c r="AG44" s="20"/>
@@ -8216,46 +8278,46 @@
     <row r="45" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="68" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="10">
         <v>3</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="73"/>
-      <c r="X45" s="68">
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="50">
         <v>1</v>
       </c>
-      <c r="Y45" s="69"/>
-      <c r="Z45" s="70"/>
-      <c r="AA45" s="74" t="s">
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="75"/>
-      <c r="AD45" s="76"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="61"/>
       <c r="AE45" s="20"/>
       <c r="AF45" s="20"/>
       <c r="AG45" s="20"/>
@@ -8323,7 +8385,7 @@
       <c r="CQ45" s="20"/>
       <c r="CR45" s="32"/>
       <c r="CS45" s="42"/>
-      <c r="CT45" s="81"/>
+      <c r="CT45" s="49"/>
       <c r="CU45" s="24"/>
       <c r="CV45" s="20"/>
       <c r="CW45" s="20"/>
@@ -8353,49 +8415,49 @@
       <c r="DU45" s="20"/>
       <c r="DV45" s="20"/>
     </row>
-    <row r="46" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="68" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="10">
         <v>2</v>
       </c>
-      <c r="J46" s="71" t="s">
+      <c r="J46" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="68">
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="50">
         <v>2</v>
       </c>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="70"/>
-      <c r="AA46" s="74" t="s">
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="75"/>
-      <c r="AD46" s="76"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="61"/>
       <c r="AE46" s="20"/>
       <c r="AF46" s="20"/>
       <c r="AG46" s="20"/>
@@ -8493,49 +8555,49 @@
       <c r="DU46" s="20"/>
       <c r="DV46" s="20"/>
     </row>
-    <row r="47" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="68" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="10">
         <v>1</v>
       </c>
-      <c r="J47" s="71" t="s">
+      <c r="J47" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="73"/>
-      <c r="X47" s="68">
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="50">
         <v>1</v>
       </c>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="70"/>
-      <c r="AA47" s="74" t="s">
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB47" s="75"/>
-      <c r="AC47" s="75"/>
-      <c r="AD47" s="76"/>
+      <c r="AB47" s="60"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="61"/>
       <c r="AE47" s="20"/>
       <c r="AF47" s="20"/>
       <c r="AG47" s="20"/>
@@ -8633,49 +8695,49 @@
       <c r="DU47" s="20"/>
       <c r="DV47" s="20"/>
     </row>
-    <row r="48" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="68" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="10">
         <v>1</v>
       </c>
-      <c r="J48" s="71" t="s">
+      <c r="J48" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="68">
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="50">
         <v>2</v>
       </c>
-      <c r="Y48" s="69"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="74" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB48" s="75"/>
-      <c r="AC48" s="75"/>
-      <c r="AD48" s="76"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="61"/>
       <c r="AE48" s="20"/>
       <c r="AF48" s="20"/>
       <c r="AG48" s="20"/>
@@ -8773,49 +8835,49 @@
       <c r="DU48" s="20"/>
       <c r="DV48" s="20"/>
     </row>
-    <row r="49" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="68" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="10">
         <v>1</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="68">
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="50">
         <v>2</v>
       </c>
-      <c r="Y49" s="69"/>
-      <c r="Z49" s="70"/>
-      <c r="AA49" s="74" t="s">
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB49" s="75"/>
-      <c r="AC49" s="75"/>
-      <c r="AD49" s="76"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="61"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="20"/>
@@ -8913,49 +8975,49 @@
       <c r="DU49" s="20"/>
       <c r="DV49" s="20"/>
     </row>
-    <row r="50" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="68" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="69"/>
-      <c r="H50" s="70"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="10">
         <v>1</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="73"/>
-      <c r="X50" s="68">
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="50">
         <v>1</v>
       </c>
-      <c r="Y50" s="69"/>
-      <c r="Z50" s="70"/>
-      <c r="AA50" s="74" t="s">
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB50" s="77"/>
-      <c r="AC50" s="77"/>
-      <c r="AD50" s="78"/>
+      <c r="AB50" s="57"/>
+      <c r="AC50" s="57"/>
+      <c r="AD50" s="58"/>
       <c r="AE50" s="20"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
@@ -9053,49 +9115,49 @@
       <c r="DU50" s="20"/>
       <c r="DV50" s="20"/>
     </row>
-    <row r="51" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="68" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="10">
         <v>1</v>
       </c>
-      <c r="J51" s="71" t="s">
+      <c r="J51" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="68">
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="50">
         <v>1</v>
       </c>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="70"/>
-      <c r="AA51" s="74" t="s">
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB51" s="75"/>
-      <c r="AC51" s="75"/>
-      <c r="AD51" s="76"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="61"/>
       <c r="AE51" s="20"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="20"/>
@@ -9193,49 +9255,49 @@
       <c r="DU51" s="20"/>
       <c r="DV51" s="20"/>
     </row>
-    <row r="52" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="68" t="s">
+      <c r="D52" s="51"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="10">
         <v>3</v>
       </c>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="72"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="68">
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="50">
         <v>2</v>
       </c>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="70"/>
-      <c r="AA52" s="74" t="s">
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AB52" s="75"/>
-      <c r="AC52" s="75"/>
-      <c r="AD52" s="76"/>
+      <c r="AB52" s="60"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="61"/>
       <c r="AE52" s="20"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="20"/>
@@ -9333,49 +9395,49 @@
       <c r="DU52" s="20"/>
       <c r="DV52" s="20"/>
     </row>
-    <row r="53" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="68" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="10">
         <v>1</v>
       </c>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="72"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="68">
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="50">
         <v>2</v>
       </c>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="74" t="s">
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB53" s="77"/>
-      <c r="AC53" s="77"/>
-      <c r="AD53" s="78"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="58"/>
       <c r="AE53" s="20"/>
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
@@ -9473,49 +9535,49 @@
       <c r="DU53" s="20"/>
       <c r="DV53" s="20"/>
     </row>
-    <row r="54" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="68" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="10">
         <v>3</v>
       </c>
-      <c r="J54" s="71" t="s">
+      <c r="J54" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="68">
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="50">
         <v>1</v>
       </c>
-      <c r="Y54" s="69"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="74" t="s">
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB54" s="77"/>
-      <c r="AC54" s="77"/>
-      <c r="AD54" s="78"/>
+      <c r="AB54" s="57"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="58"/>
       <c r="AE54" s="20"/>
       <c r="AF54" s="20"/>
       <c r="AG54" s="20"/>
@@ -9615,46 +9677,46 @@
     <row r="55" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="68" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="10">
         <v>3</v>
       </c>
-      <c r="J55" s="71" t="s">
+      <c r="J55" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="68">
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="50">
         <v>1</v>
       </c>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="74" t="s">
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB55" s="75"/>
-      <c r="AC55" s="75"/>
-      <c r="AD55" s="76"/>
+      <c r="AB55" s="60"/>
+      <c r="AC55" s="60"/>
+      <c r="AD55" s="61"/>
       <c r="AE55" s="20"/>
       <c r="AF55" s="20"/>
       <c r="AG55" s="20"/>
@@ -9721,7 +9783,7 @@
       <c r="CP55" s="20"/>
       <c r="CQ55" s="24"/>
       <c r="CR55" s="36"/>
-      <c r="CS55" s="81"/>
+      <c r="CS55" s="49"/>
       <c r="CT55" s="24"/>
       <c r="CU55" s="24"/>
       <c r="CV55" s="20"/>
@@ -9752,49 +9814,49 @@
       <c r="DU55" s="20"/>
       <c r="DV55" s="20"/>
     </row>
-    <row r="56" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="68" t="s">
+      <c r="D56" s="51"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="10">
         <v>1</v>
       </c>
-      <c r="J56" s="71" t="s">
+      <c r="J56" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="68">
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="50">
         <v>2</v>
       </c>
-      <c r="Y56" s="69"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="74" t="s">
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB56" s="75"/>
-      <c r="AC56" s="75"/>
-      <c r="AD56" s="76"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AD56" s="61"/>
       <c r="AE56" s="20"/>
       <c r="AF56" s="20"/>
       <c r="AG56" s="20"/>
@@ -9892,49 +9954,49 @@
       <c r="DU56" s="20"/>
       <c r="DV56" s="20"/>
     </row>
-    <row r="57" spans="1:126" s="1" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="68" t="s">
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="70"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="10">
         <v>2</v>
       </c>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="72"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="68">
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="50">
         <v>2</v>
       </c>
-      <c r="Y57" s="69"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="74" t="s">
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="76"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="61"/>
       <c r="AE57" s="20"/>
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
@@ -10032,49 +10094,49 @@
       <c r="DU57" s="20"/>
       <c r="DV57" s="20"/>
     </row>
-    <row r="58" spans="1:126" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:126" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="68" t="s">
+      <c r="C58" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="68" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="10">
         <v>1</v>
       </c>
-      <c r="J58" s="71" t="s">
+      <c r="J58" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="72"/>
-      <c r="V58" s="72"/>
-      <c r="W58" s="73"/>
-      <c r="X58" s="68">
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="50">
         <v>1</v>
       </c>
-      <c r="Y58" s="69"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="74" t="s">
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="75"/>
-      <c r="AD58" s="76"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="61"/>
       <c r="AE58" s="20"/>
       <c r="AF58" s="20"/>
       <c r="AG58" s="20"/>
@@ -10172,49 +10234,49 @@
       <c r="DU58" s="20"/>
       <c r="DV58" s="20"/>
     </row>
-    <row r="59" spans="1:126" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:126" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="68" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="69"/>
-      <c r="H59" s="70"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="10">
         <v>1</v>
       </c>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="72"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="68">
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="50">
         <v>1</v>
       </c>
-      <c r="Y59" s="69"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="74" t="s">
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB59" s="75"/>
-      <c r="AC59" s="75"/>
-      <c r="AD59" s="76"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="61"/>
       <c r="AE59" s="20"/>
       <c r="AF59" s="20"/>
       <c r="AG59" s="20"/>
@@ -10312,49 +10374,49 @@
       <c r="DU59" s="20"/>
       <c r="DV59" s="20"/>
     </row>
-    <row r="60" spans="1:126" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:126" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="68" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="69"/>
-      <c r="H60" s="70"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="10">
         <v>1</v>
       </c>
-      <c r="J60" s="71" t="s">
+      <c r="J60" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="72"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="68">
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="50">
         <v>2</v>
       </c>
-      <c r="Y60" s="69"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="74" t="s">
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AB60" s="75"/>
-      <c r="AC60" s="75"/>
-      <c r="AD60" s="76"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="61"/>
       <c r="AE60" s="20"/>
       <c r="AF60" s="20"/>
       <c r="AG60" s="20"/>
@@ -10455,46 +10517,46 @@
     <row r="61" spans="1:126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="68" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="69"/>
-      <c r="H61" s="70"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="10">
         <v>1</v>
       </c>
-      <c r="J61" s="71" t="s">
+      <c r="J61" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="73"/>
-      <c r="X61" s="68">
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="50">
         <v>1</v>
       </c>
-      <c r="Y61" s="69"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="74" t="s">
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="76"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="60"/>
+      <c r="AD61" s="61"/>
       <c r="AE61" s="20"/>
       <c r="AF61" s="20"/>
       <c r="AG61" s="20"/>
@@ -10595,46 +10657,46 @@
     <row r="62" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="68" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="69"/>
-      <c r="H62" s="70"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="10">
         <v>1</v>
       </c>
-      <c r="J62" s="71" t="s">
+      <c r="J62" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="72"/>
-      <c r="W62" s="73"/>
-      <c r="X62" s="68">
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="50">
         <v>1</v>
       </c>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="74" t="s">
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB62" s="75"/>
-      <c r="AC62" s="75"/>
-      <c r="AD62" s="76"/>
+      <c r="AB62" s="60"/>
+      <c r="AC62" s="60"/>
+      <c r="AD62" s="61"/>
       <c r="AE62" s="20"/>
       <c r="AF62" s="20"/>
       <c r="AG62" s="20"/>
@@ -10702,8 +10764,8 @@
       <c r="CQ62" s="24"/>
       <c r="CR62" s="32"/>
       <c r="CS62" s="24"/>
-      <c r="CT62" s="36"/>
-      <c r="CU62" s="81"/>
+      <c r="CT62" s="83"/>
+      <c r="CU62" s="49"/>
       <c r="CV62" s="20"/>
       <c r="CW62" s="20"/>
       <c r="CX62" s="24"/>
@@ -10735,46 +10797,46 @@
     <row r="63" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="68" t="s">
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G63" s="69"/>
-      <c r="H63" s="70"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="10">
         <v>1</v>
       </c>
-      <c r="J63" s="71" t="s">
+      <c r="J63" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="68">
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="50">
         <v>2</v>
       </c>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="70"/>
-      <c r="AA63" s="74" t="s">
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB63" s="75"/>
-      <c r="AC63" s="75"/>
-      <c r="AD63" s="76"/>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="60"/>
+      <c r="AD63" s="61"/>
       <c r="AE63" s="20"/>
       <c r="AF63" s="20"/>
       <c r="AG63" s="20"/>
@@ -10843,7 +10905,7 @@
       <c r="CR63" s="32"/>
       <c r="CS63" s="24"/>
       <c r="CT63" s="24"/>
-      <c r="CU63" s="36"/>
+      <c r="CU63" s="83"/>
       <c r="CV63" s="38"/>
       <c r="CW63" s="20"/>
       <c r="CX63" s="24"/>
@@ -10872,49 +10934,49 @@
       <c r="DU63" s="20"/>
       <c r="DV63" s="20"/>
     </row>
-    <row r="64" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="68" t="s">
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="69"/>
-      <c r="H64" s="70"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="10">
         <v>1</v>
       </c>
-      <c r="J64" s="71" t="s">
+      <c r="J64" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="73"/>
-      <c r="X64" s="68">
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="50">
         <v>1</v>
       </c>
-      <c r="Y64" s="69"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="74" t="s">
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB64" s="77"/>
-      <c r="AC64" s="77"/>
-      <c r="AD64" s="78"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="58"/>
       <c r="AE64" s="20"/>
       <c r="AF64" s="20"/>
       <c r="AG64" s="20"/>
@@ -11012,49 +11074,49 @@
       <c r="DU64" s="20"/>
       <c r="DV64" s="20"/>
     </row>
-    <row r="65" spans="1:126" s="1" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:126" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="68" t="s">
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="10">
         <v>1</v>
       </c>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="68">
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="50">
         <v>1</v>
       </c>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="74" t="s">
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AB65" s="77"/>
-      <c r="AC65" s="77"/>
-      <c r="AD65" s="78"/>
+      <c r="AB65" s="57"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="58"/>
       <c r="AE65" s="20"/>
       <c r="AF65" s="20"/>
       <c r="AG65" s="20"/>
@@ -11123,7 +11185,7 @@
       <c r="CR65" s="32"/>
       <c r="CS65" s="24"/>
       <c r="CT65" s="24"/>
-      <c r="CU65" s="36"/>
+      <c r="CU65" s="83"/>
       <c r="CV65" s="20"/>
       <c r="CW65" s="20"/>
       <c r="CX65" s="24"/>
@@ -11152,20 +11214,2066 @@
       <c r="DU65" s="20"/>
       <c r="DV65" s="20"/>
     </row>
+    <row r="66" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="47"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="10">
+        <v>1</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="55"/>
+      <c r="X66" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB66" s="60"/>
+      <c r="AC66" s="60"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="20"/>
+      <c r="AM66" s="20"/>
+      <c r="AN66" s="20"/>
+      <c r="AO66" s="20"/>
+      <c r="AP66" s="20"/>
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="20"/>
+      <c r="AT66" s="20"/>
+      <c r="AU66" s="20"/>
+      <c r="AV66" s="20"/>
+      <c r="AW66" s="20"/>
+      <c r="AX66" s="24"/>
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="20"/>
+      <c r="BA66" s="20"/>
+      <c r="BB66" s="20"/>
+      <c r="BC66" s="20"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="20"/>
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="27"/>
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="20"/>
+      <c r="BK66" s="20"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="20"/>
+      <c r="BO66" s="32"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="20"/>
+      <c r="BR66" s="20"/>
+      <c r="BS66" s="20"/>
+      <c r="BT66" s="20"/>
+      <c r="BU66" s="20"/>
+      <c r="BV66" s="24"/>
+      <c r="BW66" s="32"/>
+      <c r="BX66" s="20"/>
+      <c r="BY66" s="20"/>
+      <c r="BZ66" s="20"/>
+      <c r="CA66" s="20"/>
+      <c r="CB66" s="20"/>
+      <c r="CC66" s="24"/>
+      <c r="CD66" s="32"/>
+      <c r="CE66" s="20"/>
+      <c r="CF66" s="20"/>
+      <c r="CG66" s="20"/>
+      <c r="CH66" s="20"/>
+      <c r="CI66" s="20"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="32"/>
+      <c r="CL66" s="20"/>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="20"/>
+      <c r="CO66" s="20"/>
+      <c r="CP66" s="20"/>
+      <c r="CQ66" s="24"/>
+      <c r="CR66" s="32"/>
+      <c r="CS66" s="24"/>
+      <c r="CT66" s="24"/>
+      <c r="CU66" s="26"/>
+      <c r="CV66" s="38"/>
+      <c r="CW66" s="83"/>
+      <c r="CX66" s="24"/>
+      <c r="CY66" s="32"/>
+      <c r="CZ66" s="20"/>
+      <c r="DA66" s="20"/>
+      <c r="DB66" s="20"/>
+      <c r="DC66" s="20"/>
+      <c r="DD66" s="20"/>
+      <c r="DE66" s="24"/>
+      <c r="DF66" s="32"/>
+      <c r="DG66" s="20"/>
+      <c r="DH66" s="20"/>
+      <c r="DI66" s="20"/>
+      <c r="DJ66" s="20"/>
+      <c r="DK66" s="20"/>
+      <c r="DL66" s="24"/>
+      <c r="DM66" s="32"/>
+      <c r="DN66" s="20"/>
+      <c r="DO66" s="20"/>
+      <c r="DP66" s="20"/>
+      <c r="DQ66" s="20"/>
+      <c r="DR66" s="20"/>
+      <c r="DS66" s="24"/>
+      <c r="DT66" s="32"/>
+      <c r="DU66" s="20"/>
+      <c r="DV66" s="20"/>
+    </row>
+    <row r="67" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="47"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="51"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="51"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="10">
+        <v>1</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="51"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB67" s="60"/>
+      <c r="AC67" s="60"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
+      <c r="AI67" s="20"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="20"/>
+      <c r="AM67" s="20"/>
+      <c r="AN67" s="20"/>
+      <c r="AO67" s="20"/>
+      <c r="AP67" s="20"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="24"/>
+      <c r="AS67" s="20"/>
+      <c r="AT67" s="20"/>
+      <c r="AU67" s="20"/>
+      <c r="AV67" s="20"/>
+      <c r="AW67" s="20"/>
+      <c r="AX67" s="24"/>
+      <c r="AY67" s="24"/>
+      <c r="AZ67" s="20"/>
+      <c r="BA67" s="20"/>
+      <c r="BB67" s="20"/>
+      <c r="BC67" s="20"/>
+      <c r="BD67" s="20"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="20"/>
+      <c r="BG67" s="20"/>
+      <c r="BH67" s="27"/>
+      <c r="BI67" s="20"/>
+      <c r="BJ67" s="20"/>
+      <c r="BK67" s="20"/>
+      <c r="BL67" s="24"/>
+      <c r="BM67" s="24"/>
+      <c r="BN67" s="20"/>
+      <c r="BO67" s="32"/>
+      <c r="BP67" s="24"/>
+      <c r="BQ67" s="20"/>
+      <c r="BR67" s="20"/>
+      <c r="BS67" s="20"/>
+      <c r="BT67" s="20"/>
+      <c r="BU67" s="20"/>
+      <c r="BV67" s="24"/>
+      <c r="BW67" s="32"/>
+      <c r="BX67" s="20"/>
+      <c r="BY67" s="20"/>
+      <c r="BZ67" s="20"/>
+      <c r="CA67" s="20"/>
+      <c r="CB67" s="20"/>
+      <c r="CC67" s="24"/>
+      <c r="CD67" s="32"/>
+      <c r="CE67" s="20"/>
+      <c r="CF67" s="20"/>
+      <c r="CG67" s="20"/>
+      <c r="CH67" s="20"/>
+      <c r="CI67" s="20"/>
+      <c r="CJ67" s="20"/>
+      <c r="CK67" s="32"/>
+      <c r="CL67" s="20"/>
+      <c r="CM67" s="20"/>
+      <c r="CN67" s="20"/>
+      <c r="CO67" s="20"/>
+      <c r="CP67" s="20"/>
+      <c r="CQ67" s="24"/>
+      <c r="CR67" s="32"/>
+      <c r="CS67" s="24"/>
+      <c r="CT67" s="24"/>
+      <c r="CU67" s="26"/>
+      <c r="CV67" s="38"/>
+      <c r="CW67" s="83"/>
+      <c r="CX67" s="24"/>
+      <c r="CY67" s="32"/>
+      <c r="CZ67" s="20"/>
+      <c r="DA67" s="20"/>
+      <c r="DB67" s="20"/>
+      <c r="DC67" s="20"/>
+      <c r="DD67" s="20"/>
+      <c r="DE67" s="24"/>
+      <c r="DF67" s="32"/>
+      <c r="DG67" s="20"/>
+      <c r="DH67" s="20"/>
+      <c r="DI67" s="20"/>
+      <c r="DJ67" s="20"/>
+      <c r="DK67" s="20"/>
+      <c r="DL67" s="24"/>
+      <c r="DM67" s="32"/>
+      <c r="DN67" s="20"/>
+      <c r="DO67" s="20"/>
+      <c r="DP67" s="20"/>
+      <c r="DQ67" s="20"/>
+      <c r="DR67" s="20"/>
+      <c r="DS67" s="24"/>
+      <c r="DT67" s="32"/>
+      <c r="DU67" s="20"/>
+      <c r="DV67" s="20"/>
+    </row>
+    <row r="68" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="47"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="51"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="10">
+        <v>1</v>
+      </c>
+      <c r="J68" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB68" s="60"/>
+      <c r="AC68" s="60"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="20"/>
+      <c r="AI68" s="20"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="24"/>
+      <c r="AL68" s="20"/>
+      <c r="AM68" s="20"/>
+      <c r="AN68" s="20"/>
+      <c r="AO68" s="20"/>
+      <c r="AP68" s="20"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="24"/>
+      <c r="AS68" s="20"/>
+      <c r="AT68" s="20"/>
+      <c r="AU68" s="20"/>
+      <c r="AV68" s="20"/>
+      <c r="AW68" s="20"/>
+      <c r="AX68" s="24"/>
+      <c r="AY68" s="24"/>
+      <c r="AZ68" s="20"/>
+      <c r="BA68" s="20"/>
+      <c r="BB68" s="20"/>
+      <c r="BC68" s="20"/>
+      <c r="BD68" s="20"/>
+      <c r="BE68" s="24"/>
+      <c r="BF68" s="20"/>
+      <c r="BG68" s="20"/>
+      <c r="BH68" s="27"/>
+      <c r="BI68" s="20"/>
+      <c r="BJ68" s="20"/>
+      <c r="BK68" s="20"/>
+      <c r="BL68" s="24"/>
+      <c r="BM68" s="24"/>
+      <c r="BN68" s="20"/>
+      <c r="BO68" s="32"/>
+      <c r="BP68" s="24"/>
+      <c r="BQ68" s="20"/>
+      <c r="BR68" s="20"/>
+      <c r="BS68" s="20"/>
+      <c r="BT68" s="20"/>
+      <c r="BU68" s="20"/>
+      <c r="BV68" s="24"/>
+      <c r="BW68" s="32"/>
+      <c r="BX68" s="20"/>
+      <c r="BY68" s="20"/>
+      <c r="BZ68" s="20"/>
+      <c r="CA68" s="20"/>
+      <c r="CB68" s="20"/>
+      <c r="CC68" s="24"/>
+      <c r="CD68" s="32"/>
+      <c r="CE68" s="20"/>
+      <c r="CF68" s="20"/>
+      <c r="CG68" s="20"/>
+      <c r="CH68" s="20"/>
+      <c r="CI68" s="20"/>
+      <c r="CJ68" s="20"/>
+      <c r="CK68" s="32"/>
+      <c r="CL68" s="20"/>
+      <c r="CM68" s="20"/>
+      <c r="CN68" s="20"/>
+      <c r="CO68" s="20"/>
+      <c r="CP68" s="20"/>
+      <c r="CQ68" s="24"/>
+      <c r="CR68" s="32"/>
+      <c r="CS68" s="24"/>
+      <c r="CT68" s="24"/>
+      <c r="CU68" s="26"/>
+      <c r="CV68" s="38"/>
+      <c r="CW68" s="20"/>
+      <c r="CX68" s="83"/>
+      <c r="CY68" s="32"/>
+      <c r="CZ68" s="20"/>
+      <c r="DA68" s="20"/>
+      <c r="DB68" s="20"/>
+      <c r="DC68" s="20"/>
+      <c r="DD68" s="20"/>
+      <c r="DE68" s="24"/>
+      <c r="DF68" s="32"/>
+      <c r="DG68" s="20"/>
+      <c r="DH68" s="20"/>
+      <c r="DI68" s="20"/>
+      <c r="DJ68" s="20"/>
+      <c r="DK68" s="20"/>
+      <c r="DL68" s="24"/>
+      <c r="DM68" s="32"/>
+      <c r="DN68" s="20"/>
+      <c r="DO68" s="20"/>
+      <c r="DP68" s="20"/>
+      <c r="DQ68" s="20"/>
+      <c r="DR68" s="20"/>
+      <c r="DS68" s="24"/>
+      <c r="DT68" s="32"/>
+      <c r="DU68" s="20"/>
+      <c r="DV68" s="20"/>
+    </row>
+    <row r="69" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="47"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="51"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="10">
+        <v>1</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="55"/>
+      <c r="X69" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB69" s="60"/>
+      <c r="AC69" s="60"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="20"/>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="20"/>
+      <c r="AM69" s="20"/>
+      <c r="AN69" s="20"/>
+      <c r="AO69" s="20"/>
+      <c r="AP69" s="20"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="20"/>
+      <c r="AT69" s="20"/>
+      <c r="AU69" s="20"/>
+      <c r="AV69" s="20"/>
+      <c r="AW69" s="20"/>
+      <c r="AX69" s="24"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="20"/>
+      <c r="BA69" s="20"/>
+      <c r="BB69" s="20"/>
+      <c r="BC69" s="20"/>
+      <c r="BD69" s="20"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="20"/>
+      <c r="BG69" s="20"/>
+      <c r="BH69" s="27"/>
+      <c r="BI69" s="20"/>
+      <c r="BJ69" s="20"/>
+      <c r="BK69" s="20"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="20"/>
+      <c r="BO69" s="32"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="20"/>
+      <c r="BR69" s="20"/>
+      <c r="BS69" s="20"/>
+      <c r="BT69" s="20"/>
+      <c r="BU69" s="20"/>
+      <c r="BV69" s="24"/>
+      <c r="BW69" s="32"/>
+      <c r="BX69" s="20"/>
+      <c r="BY69" s="20"/>
+      <c r="BZ69" s="20"/>
+      <c r="CA69" s="20"/>
+      <c r="CB69" s="20"/>
+      <c r="CC69" s="24"/>
+      <c r="CD69" s="32"/>
+      <c r="CE69" s="20"/>
+      <c r="CF69" s="20"/>
+      <c r="CG69" s="20"/>
+      <c r="CH69" s="20"/>
+      <c r="CI69" s="20"/>
+      <c r="CJ69" s="20"/>
+      <c r="CK69" s="32"/>
+      <c r="CL69" s="20"/>
+      <c r="CM69" s="20"/>
+      <c r="CN69" s="20"/>
+      <c r="CO69" s="20"/>
+      <c r="CP69" s="20"/>
+      <c r="CQ69" s="24"/>
+      <c r="CR69" s="32"/>
+      <c r="CS69" s="24"/>
+      <c r="CT69" s="24"/>
+      <c r="CU69" s="26"/>
+      <c r="CV69" s="38"/>
+      <c r="CW69" s="20"/>
+      <c r="CX69" s="24"/>
+      <c r="CY69" s="84"/>
+      <c r="CZ69" s="20"/>
+      <c r="DA69" s="20"/>
+      <c r="DB69" s="20"/>
+      <c r="DC69" s="20"/>
+      <c r="DD69" s="20"/>
+      <c r="DE69" s="24"/>
+      <c r="DF69" s="32"/>
+      <c r="DG69" s="20"/>
+      <c r="DH69" s="20"/>
+      <c r="DI69" s="20"/>
+      <c r="DJ69" s="20"/>
+      <c r="DK69" s="20"/>
+      <c r="DL69" s="24"/>
+      <c r="DM69" s="32"/>
+      <c r="DN69" s="20"/>
+      <c r="DO69" s="20"/>
+      <c r="DP69" s="20"/>
+      <c r="DQ69" s="20"/>
+      <c r="DR69" s="20"/>
+      <c r="DS69" s="24"/>
+      <c r="DT69" s="32"/>
+      <c r="DU69" s="20"/>
+      <c r="DV69" s="20"/>
+    </row>
+    <row r="70" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="47"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="51"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="10">
+        <v>1</v>
+      </c>
+      <c r="J70" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="55"/>
+      <c r="X70" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="51"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="61"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="20"/>
+      <c r="AI70" s="20"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="20"/>
+      <c r="AM70" s="20"/>
+      <c r="AN70" s="20"/>
+      <c r="AO70" s="20"/>
+      <c r="AP70" s="20"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="20"/>
+      <c r="AT70" s="20"/>
+      <c r="AU70" s="20"/>
+      <c r="AV70" s="20"/>
+      <c r="AW70" s="20"/>
+      <c r="AX70" s="24"/>
+      <c r="AY70" s="24"/>
+      <c r="AZ70" s="20"/>
+      <c r="BA70" s="20"/>
+      <c r="BB70" s="20"/>
+      <c r="BC70" s="20"/>
+      <c r="BD70" s="20"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="20"/>
+      <c r="BG70" s="20"/>
+      <c r="BH70" s="27"/>
+      <c r="BI70" s="20"/>
+      <c r="BJ70" s="20"/>
+      <c r="BK70" s="20"/>
+      <c r="BL70" s="24"/>
+      <c r="BM70" s="24"/>
+      <c r="BN70" s="20"/>
+      <c r="BO70" s="32"/>
+      <c r="BP70" s="24"/>
+      <c r="BQ70" s="20"/>
+      <c r="BR70" s="20"/>
+      <c r="BS70" s="20"/>
+      <c r="BT70" s="20"/>
+      <c r="BU70" s="20"/>
+      <c r="BV70" s="24"/>
+      <c r="BW70" s="32"/>
+      <c r="BX70" s="20"/>
+      <c r="BY70" s="20"/>
+      <c r="BZ70" s="20"/>
+      <c r="CA70" s="20"/>
+      <c r="CB70" s="20"/>
+      <c r="CC70" s="24"/>
+      <c r="CD70" s="32"/>
+      <c r="CE70" s="20"/>
+      <c r="CF70" s="20"/>
+      <c r="CG70" s="20"/>
+      <c r="CH70" s="20"/>
+      <c r="CI70" s="20"/>
+      <c r="CJ70" s="20"/>
+      <c r="CK70" s="32"/>
+      <c r="CL70" s="20"/>
+      <c r="CM70" s="20"/>
+      <c r="CN70" s="20"/>
+      <c r="CO70" s="20"/>
+      <c r="CP70" s="20"/>
+      <c r="CQ70" s="24"/>
+      <c r="CR70" s="32"/>
+      <c r="CS70" s="24"/>
+      <c r="CT70" s="24"/>
+      <c r="CU70" s="26"/>
+      <c r="CV70" s="38"/>
+      <c r="CW70" s="20"/>
+      <c r="CX70" s="24"/>
+      <c r="CY70" s="32"/>
+      <c r="CZ70" s="83"/>
+      <c r="DA70" s="20"/>
+      <c r="DB70" s="20"/>
+      <c r="DC70" s="20"/>
+      <c r="DD70" s="20"/>
+      <c r="DE70" s="24"/>
+      <c r="DF70" s="32"/>
+      <c r="DG70" s="20"/>
+      <c r="DH70" s="20"/>
+      <c r="DI70" s="20"/>
+      <c r="DJ70" s="20"/>
+      <c r="DK70" s="20"/>
+      <c r="DL70" s="24"/>
+      <c r="DM70" s="32"/>
+      <c r="DN70" s="20"/>
+      <c r="DO70" s="20"/>
+      <c r="DP70" s="20"/>
+      <c r="DQ70" s="20"/>
+      <c r="DR70" s="20"/>
+      <c r="DS70" s="24"/>
+      <c r="DT70" s="32"/>
+      <c r="DU70" s="20"/>
+      <c r="DV70" s="20"/>
+    </row>
+    <row r="71" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="47"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="10">
+        <v>1</v>
+      </c>
+      <c r="J71" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="55"/>
+      <c r="X71" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="51"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB71" s="60"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="61"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="20"/>
+      <c r="AI71" s="20"/>
+      <c r="AJ71" s="24"/>
+      <c r="AK71" s="24"/>
+      <c r="AL71" s="20"/>
+      <c r="AM71" s="20"/>
+      <c r="AN71" s="20"/>
+      <c r="AO71" s="20"/>
+      <c r="AP71" s="20"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="24"/>
+      <c r="AS71" s="20"/>
+      <c r="AT71" s="20"/>
+      <c r="AU71" s="20"/>
+      <c r="AV71" s="20"/>
+      <c r="AW71" s="20"/>
+      <c r="AX71" s="24"/>
+      <c r="AY71" s="24"/>
+      <c r="AZ71" s="20"/>
+      <c r="BA71" s="20"/>
+      <c r="BB71" s="20"/>
+      <c r="BC71" s="20"/>
+      <c r="BD71" s="20"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="20"/>
+      <c r="BG71" s="20"/>
+      <c r="BH71" s="27"/>
+      <c r="BI71" s="20"/>
+      <c r="BJ71" s="20"/>
+      <c r="BK71" s="20"/>
+      <c r="BL71" s="24"/>
+      <c r="BM71" s="24"/>
+      <c r="BN71" s="20"/>
+      <c r="BO71" s="32"/>
+      <c r="BP71" s="24"/>
+      <c r="BQ71" s="20"/>
+      <c r="BR71" s="20"/>
+      <c r="BS71" s="20"/>
+      <c r="BT71" s="20"/>
+      <c r="BU71" s="20"/>
+      <c r="BV71" s="24"/>
+      <c r="BW71" s="32"/>
+      <c r="BX71" s="20"/>
+      <c r="BY71" s="20"/>
+      <c r="BZ71" s="20"/>
+      <c r="CA71" s="20"/>
+      <c r="CB71" s="20"/>
+      <c r="CC71" s="24"/>
+      <c r="CD71" s="32"/>
+      <c r="CE71" s="20"/>
+      <c r="CF71" s="20"/>
+      <c r="CG71" s="20"/>
+      <c r="CH71" s="20"/>
+      <c r="CI71" s="20"/>
+      <c r="CJ71" s="20"/>
+      <c r="CK71" s="32"/>
+      <c r="CL71" s="20"/>
+      <c r="CM71" s="20"/>
+      <c r="CN71" s="20"/>
+      <c r="CO71" s="20"/>
+      <c r="CP71" s="20"/>
+      <c r="CQ71" s="24"/>
+      <c r="CR71" s="32"/>
+      <c r="CS71" s="24"/>
+      <c r="CT71" s="24"/>
+      <c r="CU71" s="26"/>
+      <c r="CV71" s="38"/>
+      <c r="CW71" s="20"/>
+      <c r="CX71" s="24"/>
+      <c r="CY71" s="32"/>
+      <c r="CZ71" s="20"/>
+      <c r="DA71" s="83"/>
+      <c r="DB71" s="20"/>
+      <c r="DC71" s="20"/>
+      <c r="DD71" s="20"/>
+      <c r="DE71" s="24"/>
+      <c r="DF71" s="32"/>
+      <c r="DG71" s="20"/>
+      <c r="DH71" s="20"/>
+      <c r="DI71" s="20"/>
+      <c r="DJ71" s="20"/>
+      <c r="DK71" s="20"/>
+      <c r="DL71" s="24"/>
+      <c r="DM71" s="32"/>
+      <c r="DN71" s="20"/>
+      <c r="DO71" s="20"/>
+      <c r="DP71" s="20"/>
+      <c r="DQ71" s="20"/>
+      <c r="DR71" s="20"/>
+      <c r="DS71" s="24"/>
+      <c r="DT71" s="32"/>
+      <c r="DU71" s="20"/>
+      <c r="DV71" s="20"/>
+    </row>
+    <row r="72" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="47"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="51"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="10">
+        <v>1</v>
+      </c>
+      <c r="J72" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="55"/>
+      <c r="X72" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y72" s="51"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB72" s="60"/>
+      <c r="AC72" s="60"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="20"/>
+      <c r="AI72" s="20"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="20"/>
+      <c r="AM72" s="20"/>
+      <c r="AN72" s="20"/>
+      <c r="AO72" s="20"/>
+      <c r="AP72" s="20"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="20"/>
+      <c r="AT72" s="20"/>
+      <c r="AU72" s="20"/>
+      <c r="AV72" s="20"/>
+      <c r="AW72" s="20"/>
+      <c r="AX72" s="24"/>
+      <c r="AY72" s="24"/>
+      <c r="AZ72" s="20"/>
+      <c r="BA72" s="20"/>
+      <c r="BB72" s="20"/>
+      <c r="BC72" s="20"/>
+      <c r="BD72" s="20"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="20"/>
+      <c r="BG72" s="20"/>
+      <c r="BH72" s="27"/>
+      <c r="BI72" s="20"/>
+      <c r="BJ72" s="20"/>
+      <c r="BK72" s="20"/>
+      <c r="BL72" s="24"/>
+      <c r="BM72" s="24"/>
+      <c r="BN72" s="20"/>
+      <c r="BO72" s="32"/>
+      <c r="BP72" s="24"/>
+      <c r="BQ72" s="20"/>
+      <c r="BR72" s="20"/>
+      <c r="BS72" s="20"/>
+      <c r="BT72" s="20"/>
+      <c r="BU72" s="20"/>
+      <c r="BV72" s="24"/>
+      <c r="BW72" s="32"/>
+      <c r="BX72" s="20"/>
+      <c r="BY72" s="20"/>
+      <c r="BZ72" s="20"/>
+      <c r="CA72" s="20"/>
+      <c r="CB72" s="20"/>
+      <c r="CC72" s="24"/>
+      <c r="CD72" s="32"/>
+      <c r="CE72" s="20"/>
+      <c r="CF72" s="20"/>
+      <c r="CG72" s="20"/>
+      <c r="CH72" s="20"/>
+      <c r="CI72" s="20"/>
+      <c r="CJ72" s="20"/>
+      <c r="CK72" s="32"/>
+      <c r="CL72" s="20"/>
+      <c r="CM72" s="20"/>
+      <c r="CN72" s="20"/>
+      <c r="CO72" s="20"/>
+      <c r="CP72" s="20"/>
+      <c r="CQ72" s="24"/>
+      <c r="CR72" s="32"/>
+      <c r="CS72" s="24"/>
+      <c r="CT72" s="24"/>
+      <c r="CU72" s="26"/>
+      <c r="CV72" s="38"/>
+      <c r="CW72" s="20"/>
+      <c r="CX72" s="24"/>
+      <c r="CY72" s="32"/>
+      <c r="CZ72" s="20"/>
+      <c r="DA72" s="20"/>
+      <c r="DB72" s="83"/>
+      <c r="DC72" s="20"/>
+      <c r="DD72" s="20"/>
+      <c r="DE72" s="24"/>
+      <c r="DF72" s="32"/>
+      <c r="DG72" s="20"/>
+      <c r="DH72" s="20"/>
+      <c r="DI72" s="20"/>
+      <c r="DJ72" s="20"/>
+      <c r="DK72" s="20"/>
+      <c r="DL72" s="24"/>
+      <c r="DM72" s="32"/>
+      <c r="DN72" s="20"/>
+      <c r="DO72" s="20"/>
+      <c r="DP72" s="20"/>
+      <c r="DQ72" s="20"/>
+      <c r="DR72" s="20"/>
+      <c r="DS72" s="24"/>
+      <c r="DT72" s="32"/>
+      <c r="DU72" s="20"/>
+      <c r="DV72" s="20"/>
+    </row>
+    <row r="73" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="47"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="51"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="51"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="10">
+        <v>1</v>
+      </c>
+      <c r="J73" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="55"/>
+      <c r="X73" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB73" s="60"/>
+      <c r="AC73" s="60"/>
+      <c r="AD73" s="61"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="24"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="20"/>
+      <c r="AM73" s="20"/>
+      <c r="AN73" s="20"/>
+      <c r="AO73" s="20"/>
+      <c r="AP73" s="20"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="20"/>
+      <c r="AT73" s="20"/>
+      <c r="AU73" s="20"/>
+      <c r="AV73" s="20"/>
+      <c r="AW73" s="20"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="24"/>
+      <c r="AZ73" s="20"/>
+      <c r="BA73" s="20"/>
+      <c r="BB73" s="20"/>
+      <c r="BC73" s="20"/>
+      <c r="BD73" s="20"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="20"/>
+      <c r="BG73" s="20"/>
+      <c r="BH73" s="27"/>
+      <c r="BI73" s="20"/>
+      <c r="BJ73" s="20"/>
+      <c r="BK73" s="20"/>
+      <c r="BL73" s="24"/>
+      <c r="BM73" s="24"/>
+      <c r="BN73" s="20"/>
+      <c r="BO73" s="32"/>
+      <c r="BP73" s="24"/>
+      <c r="BQ73" s="20"/>
+      <c r="BR73" s="20"/>
+      <c r="BS73" s="20"/>
+      <c r="BT73" s="20"/>
+      <c r="BU73" s="20"/>
+      <c r="BV73" s="24"/>
+      <c r="BW73" s="32"/>
+      <c r="BX73" s="20"/>
+      <c r="BY73" s="20"/>
+      <c r="BZ73" s="20"/>
+      <c r="CA73" s="20"/>
+      <c r="CB73" s="20"/>
+      <c r="CC73" s="24"/>
+      <c r="CD73" s="32"/>
+      <c r="CE73" s="20"/>
+      <c r="CF73" s="20"/>
+      <c r="CG73" s="20"/>
+      <c r="CH73" s="20"/>
+      <c r="CI73" s="20"/>
+      <c r="CJ73" s="20"/>
+      <c r="CK73" s="32"/>
+      <c r="CL73" s="20"/>
+      <c r="CM73" s="20"/>
+      <c r="CN73" s="20"/>
+      <c r="CO73" s="20"/>
+      <c r="CP73" s="20"/>
+      <c r="CQ73" s="24"/>
+      <c r="CR73" s="32"/>
+      <c r="CS73" s="24"/>
+      <c r="CT73" s="24"/>
+      <c r="CU73" s="26"/>
+      <c r="CV73" s="38"/>
+      <c r="CW73" s="20"/>
+      <c r="CX73" s="83"/>
+      <c r="CY73" s="32"/>
+      <c r="CZ73" s="20"/>
+      <c r="DA73" s="20"/>
+      <c r="DB73" s="20"/>
+      <c r="DC73" s="20"/>
+      <c r="DD73" s="20"/>
+      <c r="DE73" s="24"/>
+      <c r="DF73" s="32"/>
+      <c r="DG73" s="20"/>
+      <c r="DH73" s="20"/>
+      <c r="DI73" s="20"/>
+      <c r="DJ73" s="20"/>
+      <c r="DK73" s="20"/>
+      <c r="DL73" s="24"/>
+      <c r="DM73" s="32"/>
+      <c r="DN73" s="20"/>
+      <c r="DO73" s="20"/>
+      <c r="DP73" s="20"/>
+      <c r="DQ73" s="20"/>
+      <c r="DR73" s="20"/>
+      <c r="DS73" s="24"/>
+      <c r="DT73" s="32"/>
+      <c r="DU73" s="20"/>
+      <c r="DV73" s="20"/>
+    </row>
+    <row r="74" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="47"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="51"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="10">
+        <v>1</v>
+      </c>
+      <c r="J74" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
+      <c r="W74" s="55"/>
+      <c r="X74" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB74" s="60"/>
+      <c r="AC74" s="60"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="20"/>
+      <c r="AI74" s="20"/>
+      <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="20"/>
+      <c r="AM74" s="20"/>
+      <c r="AN74" s="20"/>
+      <c r="AO74" s="20"/>
+      <c r="AP74" s="20"/>
+      <c r="AQ74" s="24"/>
+      <c r="AR74" s="24"/>
+      <c r="AS74" s="20"/>
+      <c r="AT74" s="20"/>
+      <c r="AU74" s="20"/>
+      <c r="AV74" s="20"/>
+      <c r="AW74" s="20"/>
+      <c r="AX74" s="24"/>
+      <c r="AY74" s="24"/>
+      <c r="AZ74" s="20"/>
+      <c r="BA74" s="20"/>
+      <c r="BB74" s="20"/>
+      <c r="BC74" s="20"/>
+      <c r="BD74" s="20"/>
+      <c r="BE74" s="24"/>
+      <c r="BF74" s="20"/>
+      <c r="BG74" s="20"/>
+      <c r="BH74" s="27"/>
+      <c r="BI74" s="20"/>
+      <c r="BJ74" s="20"/>
+      <c r="BK74" s="20"/>
+      <c r="BL74" s="24"/>
+      <c r="BM74" s="24"/>
+      <c r="BN74" s="20"/>
+      <c r="BO74" s="32"/>
+      <c r="BP74" s="24"/>
+      <c r="BQ74" s="20"/>
+      <c r="BR74" s="20"/>
+      <c r="BS74" s="20"/>
+      <c r="BT74" s="20"/>
+      <c r="BU74" s="20"/>
+      <c r="BV74" s="24"/>
+      <c r="BW74" s="32"/>
+      <c r="BX74" s="20"/>
+      <c r="BY74" s="20"/>
+      <c r="BZ74" s="20"/>
+      <c r="CA74" s="20"/>
+      <c r="CB74" s="20"/>
+      <c r="CC74" s="24"/>
+      <c r="CD74" s="32"/>
+      <c r="CE74" s="20"/>
+      <c r="CF74" s="20"/>
+      <c r="CG74" s="20"/>
+      <c r="CH74" s="20"/>
+      <c r="CI74" s="20"/>
+      <c r="CJ74" s="20"/>
+      <c r="CK74" s="32"/>
+      <c r="CL74" s="20"/>
+      <c r="CM74" s="20"/>
+      <c r="CN74" s="20"/>
+      <c r="CO74" s="20"/>
+      <c r="CP74" s="20"/>
+      <c r="CQ74" s="24"/>
+      <c r="CR74" s="32"/>
+      <c r="CS74" s="24"/>
+      <c r="CT74" s="24"/>
+      <c r="CU74" s="26"/>
+      <c r="CV74" s="38"/>
+      <c r="CW74" s="20"/>
+      <c r="CX74" s="24"/>
+      <c r="CY74" s="84"/>
+      <c r="CZ74" s="20"/>
+      <c r="DA74" s="20"/>
+      <c r="DB74" s="20"/>
+      <c r="DC74" s="20"/>
+      <c r="DD74" s="20"/>
+      <c r="DE74" s="24"/>
+      <c r="DF74" s="32"/>
+      <c r="DG74" s="20"/>
+      <c r="DH74" s="20"/>
+      <c r="DI74" s="20"/>
+      <c r="DJ74" s="20"/>
+      <c r="DK74" s="20"/>
+      <c r="DL74" s="24"/>
+      <c r="DM74" s="32"/>
+      <c r="DN74" s="20"/>
+      <c r="DO74" s="20"/>
+      <c r="DP74" s="20"/>
+      <c r="DQ74" s="20"/>
+      <c r="DR74" s="20"/>
+      <c r="DS74" s="24"/>
+      <c r="DT74" s="32"/>
+      <c r="DU74" s="20"/>
+      <c r="DV74" s="20"/>
+    </row>
+    <row r="75" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="47"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="51"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="51"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="10">
+        <v>1</v>
+      </c>
+      <c r="J75" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="55"/>
+      <c r="X75" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB75" s="60"/>
+      <c r="AC75" s="60"/>
+      <c r="AD75" s="61"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="20"/>
+      <c r="AI75" s="20"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="20"/>
+      <c r="AM75" s="20"/>
+      <c r="AN75" s="20"/>
+      <c r="AO75" s="20"/>
+      <c r="AP75" s="20"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="20"/>
+      <c r="AT75" s="20"/>
+      <c r="AU75" s="20"/>
+      <c r="AV75" s="20"/>
+      <c r="AW75" s="20"/>
+      <c r="AX75" s="24"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="20"/>
+      <c r="BA75" s="20"/>
+      <c r="BB75" s="20"/>
+      <c r="BC75" s="20"/>
+      <c r="BD75" s="20"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="20"/>
+      <c r="BG75" s="20"/>
+      <c r="BH75" s="27"/>
+      <c r="BI75" s="20"/>
+      <c r="BJ75" s="20"/>
+      <c r="BK75" s="20"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="20"/>
+      <c r="BO75" s="32"/>
+      <c r="BP75" s="24"/>
+      <c r="BQ75" s="20"/>
+      <c r="BR75" s="20"/>
+      <c r="BS75" s="20"/>
+      <c r="BT75" s="20"/>
+      <c r="BU75" s="20"/>
+      <c r="BV75" s="24"/>
+      <c r="BW75" s="32"/>
+      <c r="BX75" s="20"/>
+      <c r="BY75" s="20"/>
+      <c r="BZ75" s="20"/>
+      <c r="CA75" s="20"/>
+      <c r="CB75" s="20"/>
+      <c r="CC75" s="24"/>
+      <c r="CD75" s="32"/>
+      <c r="CE75" s="20"/>
+      <c r="CF75" s="20"/>
+      <c r="CG75" s="20"/>
+      <c r="CH75" s="20"/>
+      <c r="CI75" s="20"/>
+      <c r="CJ75" s="20"/>
+      <c r="CK75" s="32"/>
+      <c r="CL75" s="20"/>
+      <c r="CM75" s="20"/>
+      <c r="CN75" s="20"/>
+      <c r="CO75" s="20"/>
+      <c r="CP75" s="20"/>
+      <c r="CQ75" s="24"/>
+      <c r="CR75" s="32"/>
+      <c r="CS75" s="24"/>
+      <c r="CT75" s="24"/>
+      <c r="CU75" s="26"/>
+      <c r="CV75" s="38"/>
+      <c r="CW75" s="20"/>
+      <c r="CX75" s="24"/>
+      <c r="CY75" s="32"/>
+      <c r="CZ75" s="83"/>
+      <c r="DA75" s="20"/>
+      <c r="DB75" s="20"/>
+      <c r="DC75" s="20"/>
+      <c r="DD75" s="20"/>
+      <c r="DE75" s="24"/>
+      <c r="DF75" s="32"/>
+      <c r="DG75" s="20"/>
+      <c r="DH75" s="20"/>
+      <c r="DI75" s="20"/>
+      <c r="DJ75" s="20"/>
+      <c r="DK75" s="20"/>
+      <c r="DL75" s="24"/>
+      <c r="DM75" s="32"/>
+      <c r="DN75" s="20"/>
+      <c r="DO75" s="20"/>
+      <c r="DP75" s="20"/>
+      <c r="DQ75" s="20"/>
+      <c r="DR75" s="20"/>
+      <c r="DS75" s="24"/>
+      <c r="DT75" s="32"/>
+      <c r="DU75" s="20"/>
+      <c r="DV75" s="20"/>
+    </row>
+    <row r="76" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="47"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="51"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" s="51"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="10">
+        <v>1</v>
+      </c>
+      <c r="J76" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="55"/>
+      <c r="X76" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="51"/>
+      <c r="Z76" s="52"/>
+      <c r="AA76" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB76" s="60"/>
+      <c r="AC76" s="60"/>
+      <c r="AD76" s="61"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+      <c r="AH76" s="20"/>
+      <c r="AI76" s="20"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="20"/>
+      <c r="AM76" s="20"/>
+      <c r="AN76" s="20"/>
+      <c r="AO76" s="20"/>
+      <c r="AP76" s="20"/>
+      <c r="AQ76" s="24"/>
+      <c r="AR76" s="24"/>
+      <c r="AS76" s="20"/>
+      <c r="AT76" s="20"/>
+      <c r="AU76" s="20"/>
+      <c r="AV76" s="20"/>
+      <c r="AW76" s="20"/>
+      <c r="AX76" s="24"/>
+      <c r="AY76" s="24"/>
+      <c r="AZ76" s="20"/>
+      <c r="BA76" s="20"/>
+      <c r="BB76" s="20"/>
+      <c r="BC76" s="20"/>
+      <c r="BD76" s="20"/>
+      <c r="BE76" s="24"/>
+      <c r="BF76" s="20"/>
+      <c r="BG76" s="20"/>
+      <c r="BH76" s="27"/>
+      <c r="BI76" s="20"/>
+      <c r="BJ76" s="20"/>
+      <c r="BK76" s="20"/>
+      <c r="BL76" s="24"/>
+      <c r="BM76" s="24"/>
+      <c r="BN76" s="20"/>
+      <c r="BO76" s="32"/>
+      <c r="BP76" s="24"/>
+      <c r="BQ76" s="20"/>
+      <c r="BR76" s="20"/>
+      <c r="BS76" s="20"/>
+      <c r="BT76" s="20"/>
+      <c r="BU76" s="20"/>
+      <c r="BV76" s="24"/>
+      <c r="BW76" s="32"/>
+      <c r="BX76" s="20"/>
+      <c r="BY76" s="20"/>
+      <c r="BZ76" s="20"/>
+      <c r="CA76" s="20"/>
+      <c r="CB76" s="20"/>
+      <c r="CC76" s="24"/>
+      <c r="CD76" s="32"/>
+      <c r="CE76" s="20"/>
+      <c r="CF76" s="20"/>
+      <c r="CG76" s="20"/>
+      <c r="CH76" s="20"/>
+      <c r="CI76" s="20"/>
+      <c r="CJ76" s="20"/>
+      <c r="CK76" s="32"/>
+      <c r="CL76" s="20"/>
+      <c r="CM76" s="20"/>
+      <c r="CN76" s="20"/>
+      <c r="CO76" s="20"/>
+      <c r="CP76" s="20"/>
+      <c r="CQ76" s="24"/>
+      <c r="CR76" s="32"/>
+      <c r="CS76" s="24"/>
+      <c r="CT76" s="24"/>
+      <c r="CU76" s="26"/>
+      <c r="CV76" s="38"/>
+      <c r="CW76" s="20"/>
+      <c r="CX76" s="24"/>
+      <c r="CY76" s="32"/>
+      <c r="CZ76" s="20"/>
+      <c r="DA76" s="83"/>
+      <c r="DB76" s="20"/>
+      <c r="DC76" s="20"/>
+      <c r="DD76" s="20"/>
+      <c r="DE76" s="24"/>
+      <c r="DF76" s="32"/>
+      <c r="DG76" s="20"/>
+      <c r="DH76" s="20"/>
+      <c r="DI76" s="20"/>
+      <c r="DJ76" s="20"/>
+      <c r="DK76" s="20"/>
+      <c r="DL76" s="24"/>
+      <c r="DM76" s="32"/>
+      <c r="DN76" s="20"/>
+      <c r="DO76" s="20"/>
+      <c r="DP76" s="20"/>
+      <c r="DQ76" s="20"/>
+      <c r="DR76" s="20"/>
+      <c r="DS76" s="24"/>
+      <c r="DT76" s="32"/>
+      <c r="DU76" s="20"/>
+      <c r="DV76" s="20"/>
+    </row>
+    <row r="77" spans="1:126" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="47"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="51"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="51"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="10">
+        <v>1</v>
+      </c>
+      <c r="J77" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="55"/>
+      <c r="X77" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="52"/>
+      <c r="AA77" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB77" s="60"/>
+      <c r="AC77" s="60"/>
+      <c r="AD77" s="61"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+      <c r="AH77" s="20"/>
+      <c r="AI77" s="20"/>
+      <c r="AJ77" s="24"/>
+      <c r="AK77" s="24"/>
+      <c r="AL77" s="20"/>
+      <c r="AM77" s="20"/>
+      <c r="AN77" s="20"/>
+      <c r="AO77" s="20"/>
+      <c r="AP77" s="20"/>
+      <c r="AQ77" s="24"/>
+      <c r="AR77" s="24"/>
+      <c r="AS77" s="20"/>
+      <c r="AT77" s="20"/>
+      <c r="AU77" s="20"/>
+      <c r="AV77" s="20"/>
+      <c r="AW77" s="20"/>
+      <c r="AX77" s="24"/>
+      <c r="AY77" s="24"/>
+      <c r="AZ77" s="20"/>
+      <c r="BA77" s="20"/>
+      <c r="BB77" s="20"/>
+      <c r="BC77" s="20"/>
+      <c r="BD77" s="20"/>
+      <c r="BE77" s="24"/>
+      <c r="BF77" s="20"/>
+      <c r="BG77" s="20"/>
+      <c r="BH77" s="27"/>
+      <c r="BI77" s="20"/>
+      <c r="BJ77" s="20"/>
+      <c r="BK77" s="20"/>
+      <c r="BL77" s="24"/>
+      <c r="BM77" s="24"/>
+      <c r="BN77" s="20"/>
+      <c r="BO77" s="32"/>
+      <c r="BP77" s="24"/>
+      <c r="BQ77" s="20"/>
+      <c r="BR77" s="20"/>
+      <c r="BS77" s="20"/>
+      <c r="BT77" s="20"/>
+      <c r="BU77" s="20"/>
+      <c r="BV77" s="24"/>
+      <c r="BW77" s="32"/>
+      <c r="BX77" s="20"/>
+      <c r="BY77" s="20"/>
+      <c r="BZ77" s="20"/>
+      <c r="CA77" s="20"/>
+      <c r="CB77" s="20"/>
+      <c r="CC77" s="24"/>
+      <c r="CD77" s="32"/>
+      <c r="CE77" s="20"/>
+      <c r="CF77" s="20"/>
+      <c r="CG77" s="20"/>
+      <c r="CH77" s="20"/>
+      <c r="CI77" s="20"/>
+      <c r="CJ77" s="20"/>
+      <c r="CK77" s="32"/>
+      <c r="CL77" s="20"/>
+      <c r="CM77" s="20"/>
+      <c r="CN77" s="20"/>
+      <c r="CO77" s="20"/>
+      <c r="CP77" s="20"/>
+      <c r="CQ77" s="24"/>
+      <c r="CR77" s="32"/>
+      <c r="CS77" s="24"/>
+      <c r="CT77" s="24"/>
+      <c r="CU77" s="26"/>
+      <c r="CV77" s="38"/>
+      <c r="CW77" s="20"/>
+      <c r="CX77" s="24"/>
+      <c r="CY77" s="32"/>
+      <c r="CZ77" s="20"/>
+      <c r="DA77" s="20"/>
+      <c r="DB77" s="83"/>
+      <c r="DC77" s="20"/>
+      <c r="DD77" s="20"/>
+      <c r="DE77" s="24"/>
+      <c r="DF77" s="32"/>
+      <c r="DG77" s="20"/>
+      <c r="DH77" s="20"/>
+      <c r="DI77" s="20"/>
+      <c r="DJ77" s="20"/>
+      <c r="DK77" s="20"/>
+      <c r="DL77" s="24"/>
+      <c r="DM77" s="32"/>
+      <c r="DN77" s="20"/>
+      <c r="DO77" s="20"/>
+      <c r="DP77" s="20"/>
+      <c r="DQ77" s="20"/>
+      <c r="DR77" s="20"/>
+      <c r="DS77" s="24"/>
+      <c r="DT77" s="32"/>
+      <c r="DU77" s="20"/>
+      <c r="DV77" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C3:AD65">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="2测"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="24">
-      <filters>
-        <filter val="温清洁"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="341">
+  <autoFilter ref="C3:AD75"/>
+  <mergeCells count="401">
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="J76:W76"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AD76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="J77:W77"/>
+    <mergeCell ref="X77:Z77"/>
+    <mergeCell ref="AA77:AD77"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="J74:W74"/>
+    <mergeCell ref="X74:Z74"/>
+    <mergeCell ref="AA74:AD74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="J75:W75"/>
+    <mergeCell ref="X75:Z75"/>
+    <mergeCell ref="AA75:AD75"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="J72:W72"/>
+    <mergeCell ref="X72:Z72"/>
+    <mergeCell ref="AA72:AD72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="J73:W73"/>
+    <mergeCell ref="X73:Z73"/>
+    <mergeCell ref="AA73:AD73"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="J70:W70"/>
+    <mergeCell ref="X70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="J71:W71"/>
+    <mergeCell ref="X71:Z71"/>
+    <mergeCell ref="AA71:AD71"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="J68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="AA68:AD68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="J69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AD69"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="J66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="AA66:AD66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="J67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AD67"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="AE1:AS1"/>
+    <mergeCell ref="AT1:BM1"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="CS1:DV1"/>
+    <mergeCell ref="DW1:EZ1"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CD2"/>
+    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CS2:CY2"/>
+    <mergeCell ref="CZ2:DF2"/>
+    <mergeCell ref="DG2:DM2"/>
+    <mergeCell ref="DN2:DT2"/>
+    <mergeCell ref="DW2:EC2"/>
+    <mergeCell ref="ED2:EJ2"/>
+    <mergeCell ref="EK2:EQ2"/>
+    <mergeCell ref="ER2:EX2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="J34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="J35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="J36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="J37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="J39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="J41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AD41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="J42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AD42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="J43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="J44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AD44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="J45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AD45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="J46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="J48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="J49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="J50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="AA50:AD50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="J51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="J52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AD52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="J53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="J54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AA54:AD54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="J55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AD55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="AA56:AD56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="J57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA57:AD57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="J58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="AA58:AD58"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="J59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA59:AD59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="J60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AA60:AD60"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="F65:H65"/>
     <mergeCell ref="J65:W65"/>
@@ -11190,323 +13298,6 @@
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="J62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="J59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA59:AD59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="J60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AA60:AD60"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="J57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA57:AD57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="J58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="AA58:AD58"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="J55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AD55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="AA56:AD56"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="J53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AD53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="J54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="AA54:AD54"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="J51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="J52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AD52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="J49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="J50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="J47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="J48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="J45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AD45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="J46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="J43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="J44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AD44"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="J41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="J42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="J39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="J37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="J35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="AE1:AS1"/>
-    <mergeCell ref="AT1:BM1"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="CS1:DV1"/>
-    <mergeCell ref="DW1:EZ1"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CS2:CY2"/>
-    <mergeCell ref="CZ2:DF2"/>
-    <mergeCell ref="DG2:DM2"/>
-    <mergeCell ref="DN2:DT2"/>
-    <mergeCell ref="DW2:EC2"/>
-    <mergeCell ref="ED2:EJ2"/>
-    <mergeCell ref="EK2:EQ2"/>
-    <mergeCell ref="ER2:EX2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="X2">
